--- a/Supplemental File 5_139-DEGs.xlsx
+++ b/Supplemental File 5_139-DEGs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/gschwend_2_osu_edu/Documents/Collaborations/Rachel's Manuscripts/Waterlogging research manuscript/Draft 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/gschwend_2_osu_edu/Documents/Collaborations/Rachel's Manuscripts/Waterlogging research manuscript/Fronteirs in Plant Science/Reviewer Edits/New Supplemental Files for Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{96F8F0A1-C0D4-4BBF-AE56-CCA36F69EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4F81023-513B-4B3D-88F0-A1BD78B2147D}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{96F8F0A1-C0D4-4BBF-AE56-CCA36F69EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E579C6-CCFC-4221-BA03-77C2779A508A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{D0206047-2F2F-4EC8-BC6A-08260A436F34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="394">
   <si>
     <t>MN106 WL vs Controls</t>
   </si>
@@ -998,9 +998,6 @@
     <t>alpha/beta-Hydrolases superfamily protein</t>
   </si>
   <si>
-    <t>Uncharacterized protein family (UPF0497)</t>
-  </si>
-  <si>
     <t>basic helix-loop-helix (bHLH) DNA-binding superfamily protein</t>
   </si>
   <si>
@@ -1203,6 +1200,24 @@
   </si>
   <si>
     <t>2-oxoglutarate(2OG) and Fe(II)-dependent oxygenase superfamily protein</t>
+  </si>
+  <si>
+    <t>MN106_Control</t>
+  </si>
+  <si>
+    <t>MN106_Waterlogged</t>
+  </si>
+  <si>
+    <t>SP32_Control</t>
+  </si>
+  <si>
+    <t>SP32_Waterlogged</t>
+  </si>
+  <si>
+    <t>Normalized Counts</t>
+  </si>
+  <si>
+    <t>CASPARIAN STRIP MEMBRANE DOMAIN PROTEIN 3</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,8 +1306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1309,11 +1330,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1323,7 +1362,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1336,13 +1374,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,4094 +1707,5782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E42101-03DE-46CC-B84B-291AEF1AF6D3}">
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="21" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D1" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="M1" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="M2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2">
+      <c r="P2" s="3"/>
+      <c r="Q2">
         <v>16</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="21">
+        <v>2.0856445736792901</v>
+      </c>
+      <c r="E3">
+        <v>0.95070527945361005</v>
+      </c>
+      <c r="F3">
+        <v>1.01251929759993</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1.87992871314637</v>
+      </c>
+      <c r="H3">
         <v>-10.237346262359299</v>
       </c>
-      <c r="E3">
+      <c r="I3" s="23">
         <v>1.0059664596661499E-2</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>-6.18471467823022</v>
       </c>
-      <c r="G3">
+      <c r="K3" s="23">
         <v>1.2255618115482999E-2</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>4.0526315841290996</v>
       </c>
-      <c r="I3">
+      <c r="M3" s="23">
         <v>0.31991147310219897</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3">
+      <c r="P3" s="1"/>
+      <c r="Q3">
         <v>95</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>71</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>162</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="21">
+        <v>3.98809949780583</v>
+      </c>
+      <c r="E4">
+        <v>1.92803414362904</v>
+      </c>
+      <c r="F4">
+        <v>2.92862964636128</v>
+      </c>
+      <c r="G4" s="23">
+        <v>5.1034780526957704</v>
+      </c>
+      <c r="H4">
         <v>-9.7561127665072807</v>
       </c>
-      <c r="E4">
+      <c r="I4" s="23">
         <v>1.05047368026792E-2</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>-6.5889983860082104</v>
       </c>
-      <c r="G4">
+      <c r="K4" s="23">
         <v>6.1160953378125099E-3</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>3.16711438049906</v>
       </c>
-      <c r="I4">
+      <c r="M4" s="23">
         <v>0.64149240267367802</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4">
+      <c r="P4" s="5"/>
+      <c r="Q4">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>13</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>5</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>309</v>
       </c>
       <c r="C5" t="s">
         <v>163</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="21">
+        <v>1.3273333404880301</v>
+      </c>
+      <c r="E5">
+        <v>1.3174283184959099</v>
+      </c>
+      <c r="F5">
+        <v>1.1799659096346899</v>
+      </c>
+      <c r="G5" s="23">
+        <v>4.7808895760869303</v>
+      </c>
+      <c r="H5">
         <v>-9.7470439824699202</v>
       </c>
-      <c r="E5">
+      <c r="I5" s="23">
         <v>8.5947378185974102E-3</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>-1.3760150795661601</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>8.3710289029037597</v>
       </c>
-      <c r="I5">
+      <c r="M5" s="23">
         <v>1.19476087606396E-6</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>310</v>
       </c>
       <c r="C6" t="s">
         <v>164</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="21">
+        <v>7.3241594800203602</v>
+      </c>
+      <c r="E6">
+        <v>2.8880237814330099</v>
+      </c>
+      <c r="F6">
+        <v>7.70234038856323</v>
+      </c>
+      <c r="G6" s="23">
+        <v>6.9228471874392401</v>
+      </c>
+      <c r="H6">
         <v>-9.6467652936004296</v>
       </c>
-      <c r="E6">
+      <c r="I6" s="23">
         <v>1.03194379886619E-3</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>-9.9492876941331208</v>
       </c>
-      <c r="G6">
+      <c r="K6" s="23">
         <v>9.2757211356329707E-9</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>-0.30252240053268398</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="M6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="21">
+        <v>8.2545175709665504</v>
+      </c>
+      <c r="E7">
+        <v>2.94614362905843</v>
+      </c>
+      <c r="F7">
+        <v>8.2706034667259303</v>
+      </c>
+      <c r="G7" s="23">
+        <v>6.61518522432839</v>
+      </c>
+      <c r="H7">
         <v>-9.3774755818740303</v>
       </c>
-      <c r="E7">
+      <c r="I7" s="23">
         <v>1.2849942139451301E-2</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>-10.8363871087343</v>
       </c>
-      <c r="G7">
+      <c r="K7" s="23">
         <v>3.8822178388984501E-8</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>-1.4589115268602499</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="M7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>166</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="21">
+        <v>6.0969590696187801</v>
+      </c>
+      <c r="E8">
+        <v>2.7984095378721299</v>
+      </c>
+      <c r="F8">
+        <v>7.03454408812145</v>
+      </c>
+      <c r="G8" s="23">
+        <v>7.4377235358565201</v>
+      </c>
+      <c r="H8">
         <v>-8.9605566902329308</v>
       </c>
-      <c r="E8">
+      <c r="I8" s="23">
         <v>1.1843421304836099E-3</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>-8.49997255896659</v>
       </c>
-      <c r="G8">
+      <c r="K8" s="23">
         <v>5.5187574319809798E-7</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>0.46058413126633402</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="M8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>311</v>
       </c>
       <c r="C9" t="s">
         <v>167</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="21">
+        <v>2.1298198725548199</v>
+      </c>
+      <c r="E9">
+        <v>0.79148866316038002</v>
+      </c>
+      <c r="F9">
+        <v>0.62496951002186396</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.98623489495561401</v>
+      </c>
+      <c r="H9">
         <v>-8.1513533143717503</v>
       </c>
-      <c r="E9">
+      <c r="I9" s="23">
         <v>9.5400398352578804E-3</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>-4.1876592033347402</v>
       </c>
-      <c r="G9">
+      <c r="K9" s="23">
         <v>3.2328370109872502E-2</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>3.9636941110370101</v>
       </c>
-      <c r="I9">
+      <c r="M9" s="23">
         <v>0.18777783117722699</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>284</v>
       </c>
       <c r="C10" t="s">
         <v>168</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="21">
+        <v>5.4497902576893198</v>
+      </c>
+      <c r="E10">
+        <v>2.8966350801560501</v>
+      </c>
+      <c r="F10">
+        <v>7.1492204182814696</v>
+      </c>
+      <c r="G10" s="23">
+        <v>7.5551890053188604</v>
+      </c>
+      <c r="H10">
         <v>-8.0207823464688204</v>
       </c>
-      <c r="E10">
+      <c r="I10" s="23">
         <v>2.5483151361547802E-4</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>-7.5895176033590799</v>
       </c>
-      <c r="G10">
+      <c r="K10" s="23">
         <v>2.7412619478608198E-7</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>0.431264743109738</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="M10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="21">
+        <v>9.1113062160841505</v>
+      </c>
+      <c r="E11">
+        <v>3.5236404801047798</v>
+      </c>
+      <c r="F11">
+        <v>9.8183980460263491</v>
+      </c>
+      <c r="G11" s="23">
+        <v>8.2607161998624203</v>
+      </c>
+      <c r="H11">
         <v>-7.3448332004118999</v>
       </c>
-      <c r="E11">
+      <c r="I11" s="23">
         <v>4.9315100140496303E-2</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>-8.5651182983717504</v>
       </c>
-      <c r="G11">
+      <c r="K11" s="23">
         <v>3.6042850038731901E-7</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>-1.2202850979598501</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C12" t="s">
         <v>169</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="21">
+        <v>5.1015185161388299</v>
+      </c>
+      <c r="E12">
+        <v>2.4816226826229602</v>
+      </c>
+      <c r="F12">
+        <v>5.0223169742106597</v>
+      </c>
+      <c r="G12" s="23">
+        <v>5.2048204928058102</v>
+      </c>
+      <c r="H12">
         <v>-7.3004465926409203</v>
       </c>
-      <c r="E12">
+      <c r="I12" s="23">
         <v>7.43757014364828E-3</v>
       </c>
-      <c r="F12">
+      <c r="J12">
         <v>-6.7558856795547797</v>
       </c>
-      <c r="G12">
+      <c r="K12" s="23">
         <v>4.7435700726141299E-5</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>0.54456091308613197</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="M12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C13" t="s">
         <v>170</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="21">
+        <v>6.5957109135051297</v>
+      </c>
+      <c r="E13">
+        <v>2.7753424770883601</v>
+      </c>
+      <c r="F13">
+        <v>6.6962552115618896</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5.3427499096428699</v>
+      </c>
+      <c r="H13">
         <v>-7.2331265873818502</v>
       </c>
-      <c r="E13">
+      <c r="I13" s="23">
         <v>4.9786939550159398E-3</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <v>-7.9849152935266803</v>
       </c>
-      <c r="G13">
+      <c r="K13" s="23">
         <v>1.3148477919264299E-7</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>-0.75178870614482696</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="M13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>171</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="21">
+        <v>7.6264346257293196</v>
+      </c>
+      <c r="E14">
+        <v>9.9009324859155807</v>
+      </c>
+      <c r="F14">
+        <v>3.8298663415743999</v>
+      </c>
+      <c r="G14" s="23">
+        <v>10.8670435587564</v>
+      </c>
+      <c r="H14">
         <v>-7.1384629220751696</v>
       </c>
-      <c r="E14">
+      <c r="I14" s="23">
         <v>5.9794049453443297E-4</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <v>2.29928472416614</v>
       </c>
-      <c r="G14">
+      <c r="K14" s="23">
         <v>0.479877031388662</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>9.4377476462413092</v>
       </c>
-      <c r="I14">
+      <c r="M14" s="23">
         <v>3.9661030065632498E-20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>286</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="21">
+        <v>5.4268757673492596</v>
+      </c>
+      <c r="E15">
+        <v>2.7524338094954799</v>
+      </c>
+      <c r="F15">
+        <v>6.39348803084573</v>
+      </c>
+      <c r="G15" s="23">
+        <v>6.7652366221182003</v>
+      </c>
+      <c r="H15">
         <v>-7.1311450034490997</v>
       </c>
-      <c r="E15">
+      <c r="I15" s="23">
         <v>5.1287431089026897E-3</v>
       </c>
-      <c r="F15">
+      <c r="J15">
         <v>-7.2583687060922903</v>
       </c>
-      <c r="G15">
+      <c r="K15" s="23">
         <v>2.4649916117105601E-6</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>-0.12722370264319399</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="M15" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>287</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="21">
+        <v>4.9877480128019798</v>
+      </c>
+      <c r="E16">
+        <v>2.5924810862433501</v>
+      </c>
+      <c r="F16">
+        <v>5.4308558918114498</v>
+      </c>
+      <c r="G16" s="23">
+        <v>5.71913797558026</v>
+      </c>
+      <c r="H16">
         <v>-6.8645896619405899</v>
       </c>
-      <c r="E16">
+      <c r="I16" s="23">
         <v>1.70344797318179E-2</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <v>-6.3951435842606204</v>
       </c>
-      <c r="G16">
+      <c r="K16" s="23">
         <v>1.7004768751494601E-4</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>0.46944607767996899</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="M16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>289</v>
       </c>
       <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="21">
+        <v>3.7801396923206001</v>
+      </c>
+      <c r="E17">
+        <v>1.9482975979558499</v>
+      </c>
+      <c r="F17">
+        <v>3.3027379484591601</v>
+      </c>
+      <c r="G17" s="23">
+        <v>3.2521293262971098</v>
+      </c>
+      <c r="H17">
         <v>-6.7228429301300396</v>
       </c>
-      <c r="E17">
+      <c r="I17" s="23">
         <v>7.7099233330048898E-3</v>
       </c>
-      <c r="F17">
+      <c r="J17">
         <v>-6.7618439920590498</v>
       </c>
-      <c r="G17">
+      <c r="K17" s="23">
         <v>9.5695206378619998E-6</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>-3.9001061929015597E-2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="M17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C18" t="s">
         <v>175</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="21">
+        <v>4.7757557807884501</v>
+      </c>
+      <c r="E18">
+        <v>2.4851236561832701</v>
+      </c>
+      <c r="F18">
+        <v>4.8549697506860703</v>
+      </c>
+      <c r="G18" s="23">
+        <v>5.1287750303766204</v>
+      </c>
+      <c r="H18">
         <v>-6.71433458605041</v>
       </c>
-      <c r="E18">
+      <c r="I18" s="23">
         <v>1.6057698042443301E-2</v>
       </c>
-      <c r="F18">
+      <c r="J18">
         <v>-6.1787067266424804</v>
       </c>
-      <c r="G18">
+      <c r="K18" s="23">
         <v>2.3088905757959199E-4</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>0.53562785940792901</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>314</v>
       </c>
       <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="21">
+        <v>6.0674385266515696</v>
+      </c>
+      <c r="E19">
+        <v>7.7776196770561103</v>
+      </c>
+      <c r="F19">
+        <v>3.0554799566443198</v>
+      </c>
+      <c r="G19" s="23">
+        <v>8.4017857849076591</v>
+      </c>
+      <c r="H19">
         <v>-6.6554033317231402</v>
       </c>
-      <c r="E19">
+      <c r="I19" s="23">
         <v>4.5991928342116697E-2</v>
       </c>
-      <c r="F19">
+      <c r="J19">
         <v>1.5635368550139701</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>8.2189401867371092</v>
       </c>
-      <c r="I19">
+      <c r="M19" s="23">
         <v>5.4754421013590004E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="21">
+        <v>1.3482837856063501</v>
+      </c>
+      <c r="E20">
+        <v>1.03742129794437</v>
+      </c>
+      <c r="F20">
+        <v>1.14170850034952</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1.8147296965664801</v>
+      </c>
+      <c r="H20">
         <v>-6.4606525370679204</v>
       </c>
-      <c r="E20">
+      <c r="I20" s="23">
         <v>2.3114545505978901E-2</v>
       </c>
-      <c r="F20">
+      <c r="J20">
         <v>-3.36378036059476</v>
       </c>
-      <c r="G20">
+      <c r="K20" s="23">
         <v>0.178714321803082</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>3.0968721764731701</v>
       </c>
-      <c r="I20">
+      <c r="M20" s="23">
         <v>0.109914253040933</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="21">
+        <v>2.77411902941494</v>
+      </c>
+      <c r="E21">
+        <v>1.9366787059244901</v>
+      </c>
+      <c r="F21">
+        <v>2.88935664639467</v>
+      </c>
+      <c r="G21" s="23">
+        <v>4.5708119506389497</v>
+      </c>
+      <c r="H21">
         <v>-6.4512390081727897</v>
       </c>
-      <c r="E21">
+      <c r="I21" s="23">
         <v>3.4083428467944397E-2</v>
       </c>
-      <c r="F21">
+      <c r="J21">
         <v>-4.0006893405641</v>
       </c>
-      <c r="G21">
+      <c r="K21" s="23">
         <v>8.0250062613787004E-2</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>2.4505496676086902</v>
       </c>
-      <c r="I21">
+      <c r="M21" s="23">
         <v>0.44925376266879302</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="21">
+        <v>4.7573325723710704</v>
+      </c>
+      <c r="E22">
+        <v>2.4270384566238401</v>
+      </c>
+      <c r="F22">
+        <v>5.3142617883412804</v>
+      </c>
+      <c r="G22" s="23">
+        <v>4.9252200634349501</v>
+      </c>
+      <c r="H22">
         <v>-6.4371951068635802</v>
       </c>
-      <c r="E22">
+      <c r="I22" s="23">
         <v>4.91300599163298E-2</v>
       </c>
-      <c r="F22">
+      <c r="J22">
         <v>-6.6515125390512999</v>
       </c>
-      <c r="G22">
+      <c r="K22" s="23">
         <v>1.0331610059484501E-4</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>-0.21431743218771601</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="M22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>315</v>
       </c>
       <c r="C23" t="s">
         <v>176</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="21">
+        <v>4.4790327878627698</v>
+      </c>
+      <c r="E23">
+        <v>2.2746985231111299</v>
+      </c>
+      <c r="F23">
+        <v>4.5323322572668898</v>
+      </c>
+      <c r="G23" s="23">
+        <v>3.9964454460666698</v>
+      </c>
+      <c r="H23">
         <v>-6.3884877187001896</v>
       </c>
-      <c r="E23">
+      <c r="I23" s="23">
         <v>6.0961834980504202E-3</v>
       </c>
-      <c r="F23">
+      <c r="J23">
         <v>-7.1597997701515697</v>
       </c>
-      <c r="G23">
+      <c r="K23" s="23">
         <v>4.2122305564390002E-7</v>
       </c>
-      <c r="H23">
+      <c r="L23">
         <v>-0.77131205145137105</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="M23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>177</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="21">
+        <v>3.5767074094567999</v>
+      </c>
+      <c r="E24">
+        <v>2.0894694642760299</v>
+      </c>
+      <c r="F24">
+        <v>3.59293275195399</v>
+      </c>
+      <c r="G24" s="23">
+        <v>3.87851735313714</v>
+      </c>
+      <c r="H24">
         <v>-6.3215894976133997</v>
       </c>
-      <c r="E24">
+      <c r="I24" s="23">
         <v>4.6470346039742899E-2</v>
       </c>
-      <c r="F24">
+      <c r="J24">
         <v>-5.6067672617759303</v>
       </c>
-      <c r="G24">
+      <c r="K24" s="23">
         <v>1.8265954706138E-3</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>0.71482223583746796</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="M24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C25" t="s">
         <v>178</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="21">
+        <v>3.9913807755483299</v>
+      </c>
+      <c r="E25">
+        <v>2.2600950881436299</v>
+      </c>
+      <c r="F25">
+        <v>4.88679585299806</v>
+      </c>
+      <c r="G25" s="23">
+        <v>4.38947215474548</v>
+      </c>
+      <c r="H25">
         <v>-6.2095642437595799</v>
       </c>
-      <c r="E25">
+      <c r="I25" s="23">
         <v>4.6086319223693002E-2</v>
       </c>
-      <c r="F25">
+      <c r="J25">
         <v>-6.5621884193191899</v>
       </c>
-      <c r="G25">
+      <c r="K25" s="23">
         <v>6.9022351447416394E-5</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>-0.35262417555960401</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="M25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C26" t="s">
         <v>179</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="21">
+        <v>5.1164516562578299</v>
+      </c>
+      <c r="E26">
+        <v>2.9390817871360402</v>
+      </c>
+      <c r="F26">
+        <v>5.49604205579978</v>
+      </c>
+      <c r="G26" s="23">
+        <v>6.5228822670118598</v>
+      </c>
+      <c r="H26">
         <v>-6.1365204110871403</v>
       </c>
-      <c r="E26">
+      <c r="I26" s="23">
         <v>7.0618160167769898E-3</v>
       </c>
-      <c r="F26">
+      <c r="J26">
         <v>-4.6423091993625301</v>
       </c>
-      <c r="G26">
+      <c r="K26" s="23">
         <v>1.19977704440046E-3</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>1.49421121172461</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="M26" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="21">
+        <v>7.2894392609469003</v>
+      </c>
+      <c r="E27">
+        <v>2.8774657086649</v>
+      </c>
+      <c r="F27">
+        <v>7.9647794230885003</v>
+      </c>
+      <c r="G27" s="23">
+        <v>5.9998653335621803</v>
+      </c>
+      <c r="H27">
         <v>-6.0753085179039701</v>
       </c>
-      <c r="E27">
+      <c r="I27" s="23">
         <v>3.0930276621700298E-2</v>
       </c>
-      <c r="F27">
+      <c r="J27">
         <v>-8.1862869970787404</v>
       </c>
-      <c r="G27">
+      <c r="K27" s="23">
         <v>7.4550028552366601E-9</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>-2.1109784791747601</v>
       </c>
-      <c r="I27">
+      <c r="M27" s="23">
         <v>0.76685560420004095</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C28" t="s">
         <v>180</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="21">
+        <v>3.7366764503397798</v>
+      </c>
+      <c r="E28">
+        <v>2.3683233640366002</v>
+      </c>
+      <c r="F28">
+        <v>4.1872263579312001</v>
+      </c>
+      <c r="G28" s="23">
+        <v>4.3777015905245902</v>
+      </c>
+      <c r="H28">
         <v>-6.0444113219261402</v>
       </c>
-      <c r="E28">
+      <c r="I28" s="23">
         <v>2.3114545505978901E-2</v>
       </c>
-      <c r="F28">
+      <c r="J28">
         <v>-5.4716823243436199</v>
       </c>
-      <c r="G28">
+      <c r="K28" s="23">
         <v>8.3867930292059404E-4</v>
       </c>
-      <c r="H28">
+      <c r="L28">
         <v>0.57272899758252505</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="M28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>319</v>
       </c>
       <c r="C29" t="s">
         <v>181</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="21">
+        <v>5.48949829677787</v>
+      </c>
+      <c r="E29">
+        <v>3.2909157770750701</v>
+      </c>
+      <c r="F29">
+        <v>5.0228959898940797</v>
+      </c>
+      <c r="G29" s="23">
+        <v>6.7865028295591596</v>
+      </c>
+      <c r="H29">
         <v>-5.8923493642154297</v>
       </c>
-      <c r="E29" s="7">
+      <c r="I29" s="24">
         <v>5.4188990287514998E-5</v>
       </c>
-      <c r="F29">
+      <c r="J29">
         <v>-3.6453932208108601</v>
       </c>
-      <c r="G29">
+      <c r="K29" s="23">
         <v>1.0679344908365699E-3</v>
       </c>
-      <c r="H29">
+      <c r="L29">
         <v>2.2469561434045699</v>
       </c>
-      <c r="I29">
+      <c r="M29" s="23">
         <v>0.20370212602319501</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>320</v>
+      <c r="B30" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="C30" t="s">
         <v>182</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="21">
+        <v>5.6626070903593897</v>
+      </c>
+      <c r="E30">
+        <v>2.6719395876809102</v>
+      </c>
+      <c r="F30">
+        <v>6.1315938580944698</v>
+      </c>
+      <c r="G30" s="23">
+        <v>5.1635268368444498</v>
+      </c>
+      <c r="H30">
         <v>-5.8137715829579397</v>
       </c>
-      <c r="E30">
+      <c r="I30" s="23">
         <v>1.7354791289299201E-2</v>
       </c>
-      <c r="F30">
+      <c r="J30">
         <v>-7.0506017190019099</v>
       </c>
-      <c r="G30">
+      <c r="K30" s="23">
         <v>4.8005795518509398E-7</v>
       </c>
-      <c r="H30">
+      <c r="L30">
         <v>-1.23683013604398</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="M30" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>321</v>
+      <c r="B31" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="C31" t="s">
         <v>183</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="21">
+        <v>4.1365910152677197</v>
+      </c>
+      <c r="E31">
+        <v>2.59639794300156</v>
+      </c>
+      <c r="F31">
+        <v>3.5854212269090802</v>
+      </c>
+      <c r="G31" s="23">
+        <v>4.7467957864398898</v>
+      </c>
+      <c r="H31">
         <v>-5.7417491596491699</v>
       </c>
-      <c r="E31">
+      <c r="I31" s="23">
         <v>7.2867433378888897E-3</v>
       </c>
-      <c r="F31">
+      <c r="J31">
         <v>-3.5391955456422899</v>
       </c>
-      <c r="G31">
+      <c r="K31" s="23">
         <v>2.5645991350506901E-2</v>
       </c>
-      <c r="H31">
+      <c r="L31">
         <v>2.20255361400688</v>
       </c>
-      <c r="I31">
+      <c r="M31" s="23">
         <v>0.494458502149418</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>322</v>
+      <c r="B32" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="C32" t="s">
         <v>184</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="21">
+        <v>3.9409581852006101</v>
+      </c>
+      <c r="E32">
+        <v>2.2010581144854</v>
+      </c>
+      <c r="F32">
+        <v>3.6637887383005601</v>
+      </c>
+      <c r="G32" s="23">
+        <v>3.29415480981918</v>
+      </c>
+      <c r="H32">
         <v>-5.6129388321754998</v>
       </c>
-      <c r="E32">
+      <c r="I32" s="23">
         <v>9.3171796818454899E-3</v>
       </c>
-      <c r="F32">
+      <c r="J32">
         <v>-6.2246468635883403</v>
       </c>
-      <c r="G32">
+      <c r="K32" s="23">
         <v>3.9925180846172001E-6</v>
       </c>
-      <c r="H32">
+      <c r="L32">
         <v>-0.61170803141284102</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="M32" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="21">
+        <v>5.23791742257787</v>
+      </c>
+      <c r="E33">
+        <v>3.84018184494836</v>
+      </c>
+      <c r="F33">
+        <v>5.4694899063712104</v>
+      </c>
+      <c r="G33" s="23">
+        <v>8.2593401263352906</v>
+      </c>
+      <c r="H33">
         <v>-5.5945329535797699</v>
       </c>
-      <c r="E33" s="7">
+      <c r="I33" s="24">
         <v>1.6442803704781699E-8</v>
       </c>
-      <c r="F33">
+      <c r="J33">
         <v>-2.3614260686697102</v>
       </c>
-      <c r="G33">
+      <c r="K33" s="23">
         <v>4.3344623475644099E-2</v>
       </c>
-      <c r="H33">
+      <c r="L33">
         <v>3.2331068849100602</v>
       </c>
-      <c r="I33">
+      <c r="M33" s="23">
         <v>1.3911195305945699E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="21">
+        <v>6.6134451135594396</v>
+      </c>
+      <c r="E34">
+        <v>2.6714964650422202</v>
+      </c>
+      <c r="F34">
+        <v>8.0812791814890197</v>
+      </c>
+      <c r="G34" s="23">
+        <v>5.33708841494275</v>
+      </c>
+      <c r="H34">
         <v>-5.5799022388760999</v>
       </c>
-      <c r="E34">
+      <c r="I34" s="23">
         <v>3.3909201541641898E-2</v>
       </c>
-      <c r="F34">
+      <c r="J34">
         <v>-8.6534807293519407</v>
       </c>
-      <c r="G34">
+      <c r="K34" s="23">
         <v>8.4695697735717203E-11</v>
       </c>
-      <c r="H34">
+      <c r="L34">
         <v>-3.0735784904758399</v>
       </c>
-      <c r="I34">
+      <c r="M34" s="23">
         <v>4.5548884917585002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="21">
+        <v>8.7363584426298004</v>
+      </c>
+      <c r="E35">
+        <v>3.18526311247158</v>
+      </c>
+      <c r="F35">
+        <v>8.0227833743279398</v>
+      </c>
+      <c r="G35" s="23">
+        <v>5.7438061320442699</v>
+      </c>
+      <c r="H35">
         <v>-5.4862318877081204</v>
       </c>
-      <c r="E35">
+      <c r="I35" s="23">
         <v>5.9794049453443297E-4</v>
       </c>
-      <c r="F35">
+      <c r="J35">
         <v>-7.99414262445723</v>
       </c>
-      <c r="G35">
+      <c r="K35" s="23">
         <v>4.20938696476729E-20</v>
       </c>
-      <c r="H35">
+      <c r="L35">
         <v>-2.5079107367491198</v>
       </c>
-      <c r="I35">
+      <c r="M35" s="23">
         <v>4.2057801858413499E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>323</v>
+      <c r="B36" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="C36" t="s">
         <v>185</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="21">
+        <v>9.2651719131488708</v>
+      </c>
+      <c r="E36">
+        <v>3.3817195340074102</v>
+      </c>
+      <c r="F36">
+        <v>9.1743669688545495</v>
+      </c>
+      <c r="G36" s="23">
+        <v>6.4804711809654201</v>
+      </c>
+      <c r="H36">
         <v>-5.4210662725990204</v>
       </c>
-      <c r="E36">
+      <c r="I36" s="23">
         <v>9.2153935989220497E-3</v>
       </c>
-      <c r="F36">
+      <c r="J36">
         <v>-8.4542872610016602</v>
       </c>
-      <c r="G36">
+      <c r="K36" s="23">
         <v>3.7601077678086003E-17</v>
       </c>
-      <c r="H36">
+      <c r="L36">
         <v>-3.0332209884026402</v>
       </c>
-      <c r="I36">
+      <c r="M36" s="23">
         <v>2.37933342714866E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>324</v>
+      <c r="B37" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="C37" t="s">
         <v>186</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="21">
+        <v>6.0630688625183602</v>
+      </c>
+      <c r="E37">
+        <v>3.0581430928776601</v>
+      </c>
+      <c r="F37">
+        <v>5.7572094907341604</v>
+      </c>
+      <c r="G37" s="23">
+        <v>5.7107955673974704</v>
+      </c>
+      <c r="H37">
         <v>-5.3998982563317899</v>
       </c>
-      <c r="E37">
+      <c r="I37" s="23">
         <v>1.7662002549519999E-2</v>
       </c>
-      <c r="F37">
+      <c r="J37">
         <v>-5.1998405872461904</v>
       </c>
-      <c r="G37">
+      <c r="K37" s="23">
         <v>1.7694617027303898E-5</v>
       </c>
-      <c r="H37">
+      <c r="L37">
         <v>0.200057669085595</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="M37" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>325</v>
+      <c r="B38" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="C38" t="s">
         <v>187</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="21">
+        <v>5.6165863467924604</v>
+      </c>
+      <c r="E38">
+        <v>2.95007751766502</v>
+      </c>
+      <c r="F38">
+        <v>7.0196832963791698</v>
+      </c>
+      <c r="G38" s="23">
+        <v>6.8375732289078099</v>
+      </c>
+      <c r="H38">
         <v>-5.3843266504413796</v>
       </c>
-      <c r="E38">
+      <c r="I38" s="23">
         <v>3.6767949272006203E-2</v>
       </c>
-      <c r="F38">
+      <c r="J38">
         <v>-5.2184197730914299</v>
       </c>
-      <c r="G38">
+      <c r="K38" s="23">
         <v>1.21334840882295E-4</v>
       </c>
-      <c r="H38">
+      <c r="L38">
         <v>0.16590687734995099</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="M38" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>326</v>
+      <c r="B39" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="21">
+        <v>3.10835694466655</v>
+      </c>
+      <c r="E39">
+        <v>2.6539245740339399</v>
+      </c>
+      <c r="F39">
+        <v>2.80107525823363</v>
+      </c>
+      <c r="G39" s="23">
+        <v>5.5589572296968299</v>
+      </c>
+      <c r="H39">
         <v>-5.2489049601085398</v>
       </c>
-      <c r="E39">
+      <c r="I39" s="23">
         <v>3.8110888273269999E-2</v>
       </c>
-      <c r="F39">
+      <c r="J39">
         <v>-1.2192220699212</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="K39" s="23">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>4.02968289018734</v>
       </c>
-      <c r="I39">
+      <c r="M39" s="23">
         <v>1.10633245831803E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="21">
+        <v>8.4874170584438708</v>
+      </c>
+      <c r="E40">
+        <v>4.5812883601254502</v>
+      </c>
+      <c r="F40">
+        <v>4.6959213795155996</v>
+      </c>
+      <c r="G40" s="23">
+        <v>5.3765397869227796</v>
+      </c>
+      <c r="H40">
         <v>-5.2129172893047198</v>
       </c>
-      <c r="E40">
+      <c r="I40" s="23">
         <v>1.1843421304836099E-3</v>
       </c>
-      <c r="F40">
+      <c r="J40">
         <v>-4.4882260875154198</v>
       </c>
-      <c r="G40">
+      <c r="K40" s="23">
         <v>6.3444275041462504E-7</v>
       </c>
-      <c r="H40">
+      <c r="L40">
         <v>0.72469120178929902</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="M40" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>327</v>
+      <c r="B41" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="C41" t="s">
         <v>189</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="21">
+        <v>5.14094024915474</v>
+      </c>
+      <c r="E41">
+        <v>3.65301786910016</v>
+      </c>
+      <c r="F41">
+        <v>4.45949266889615</v>
+      </c>
+      <c r="G41" s="23">
+        <v>6.6945462472706696</v>
+      </c>
+      <c r="H41">
         <v>-5.2051724139797599</v>
       </c>
-      <c r="E41">
+      <c r="I41" s="23">
         <v>2.6041768967479599E-3</v>
       </c>
-      <c r="F41">
+      <c r="J41">
         <v>-2.18883425945483</v>
       </c>
-      <c r="G41">
+      <c r="K41" s="23">
         <v>0.33498017593636398</v>
       </c>
-      <c r="H41">
+      <c r="L41">
         <v>3.0163381545249299</v>
       </c>
-      <c r="I41">
+      <c r="M41" s="23">
         <v>1.2264603409011801E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>328</v>
+      <c r="B42" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C42" t="s">
         <v>190</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="21">
+        <v>5.78940986897722</v>
+      </c>
+      <c r="E42">
+        <v>3.9801408589831802</v>
+      </c>
+      <c r="F42">
+        <v>4.6087937275806699</v>
+      </c>
+      <c r="G42" s="23">
+        <v>6.8734275289054798</v>
+      </c>
+      <c r="H42">
         <v>-5.1985868477694002</v>
       </c>
-      <c r="E42">
+      <c r="I42" s="23">
         <v>9.2153935989220497E-3</v>
       </c>
-      <c r="F42">
+      <c r="J42">
         <v>-2.5580623920429502</v>
       </c>
-      <c r="G42">
+      <c r="K42" s="23">
         <v>0.16659355350187099</v>
       </c>
-      <c r="H42">
+      <c r="L42">
         <v>2.6405244557264602</v>
       </c>
-      <c r="I42">
+      <c r="M42" s="23">
         <v>0.14350042468867799</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>329</v>
+      <c r="B43" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="C43" t="s">
         <v>191</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="21">
+        <v>3.1037709120315302</v>
+      </c>
+      <c r="E43">
+        <v>3.4415303871605101</v>
+      </c>
+      <c r="F43">
+        <v>3.2404048856796699</v>
+      </c>
+      <c r="G43" s="23">
+        <v>7.7729994433405896</v>
+      </c>
+      <c r="H43">
         <v>-5.1831627566268397</v>
       </c>
-      <c r="E43" s="7">
+      <c r="I43" s="24">
         <v>5.4188990287514998E-5</v>
       </c>
-      <c r="F43">
+      <c r="J43">
         <v>0.68870201742904502</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
+      <c r="K43" s="23">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>5.8718647740558803</v>
       </c>
-      <c r="I43">
+      <c r="M43" s="23">
         <v>1.32154755767406E-22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="21">
+        <v>7.9199289441239102</v>
+      </c>
+      <c r="E44">
+        <v>3.1052882304960501</v>
+      </c>
+      <c r="F44">
+        <v>8.2518056495873502</v>
+      </c>
+      <c r="G44" s="23">
+        <v>6.1691397249292397</v>
+      </c>
+      <c r="H44">
         <v>-5.1791738314684803</v>
       </c>
-      <c r="E44">
+      <c r="I44" s="23">
         <v>3.8110888273269999E-2</v>
       </c>
-      <c r="F44">
+      <c r="J44">
         <v>-7.5723252140857698</v>
       </c>
-      <c r="G44">
+      <c r="K44" s="23">
         <v>2.36620384042044E-11</v>
       </c>
-      <c r="H44">
+      <c r="L44">
         <v>-2.3931513826173001</v>
       </c>
-      <c r="I44">
+      <c r="M44" s="23">
         <v>0.30448107120130702</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>330</v>
+      <c r="B45" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C45" t="s">
         <v>192</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="21">
+        <v>5.2792879839924103</v>
+      </c>
+      <c r="E45">
+        <v>3.3925525609350098</v>
+      </c>
+      <c r="F45">
+        <v>5.84741377051252</v>
+      </c>
+      <c r="G45" s="23">
+        <v>6.9508796699301003</v>
+      </c>
+      <c r="H45">
         <v>-5.1567061846761204</v>
       </c>
-      <c r="E45">
+      <c r="I45" s="23">
         <v>1.5266229403955601E-2</v>
       </c>
-      <c r="F45">
+      <c r="J45">
         <v>-3.2851504009969199</v>
       </c>
-      <c r="G45">
+      <c r="K45" s="23">
         <v>2.4533276227848198E-2</v>
       </c>
-      <c r="H45">
+      <c r="L45">
         <v>1.8715557836792001</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="M45" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C46" t="s">
         <v>193</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="21">
+        <v>8.6093194578358307</v>
+      </c>
+      <c r="E46">
+        <v>4.1287508003825302</v>
+      </c>
+      <c r="F46">
+        <v>8.2855308406552108</v>
+      </c>
+      <c r="G46" s="23">
+        <v>7.7147029360236301</v>
+      </c>
+      <c r="H46">
         <v>-5.1282600192098302</v>
       </c>
-      <c r="E46">
+      <c r="I46" s="23">
         <v>8.5877979507530105E-3</v>
       </c>
-      <c r="F46">
+      <c r="J46">
         <v>-5.5873792188877403</v>
       </c>
-      <c r="G46">
+      <c r="K46" s="23">
         <v>9.7131899367061E-9</v>
       </c>
-      <c r="H46">
+      <c r="L46">
         <v>-0.45911919967790998</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="M46" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>331</v>
+      <c r="B47" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="C47" t="s">
         <v>194</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="21">
+        <v>6.7686551365716996</v>
+      </c>
+      <c r="E47">
+        <v>3.4061569117186998</v>
+      </c>
+      <c r="F47">
+        <v>8.1966419542113993</v>
+      </c>
+      <c r="G47" s="23">
+        <v>7.4513383183027901</v>
+      </c>
+      <c r="H47">
         <v>-5.0811343511982097</v>
       </c>
-      <c r="E47">
+      <c r="I47" s="23">
         <v>5.7647330568859198E-3</v>
       </c>
-      <c r="F47">
+      <c r="J47">
         <v>-5.3822750362991902</v>
       </c>
-      <c r="G47">
+      <c r="K47" s="23">
         <v>8.4193218895929898E-8</v>
       </c>
-      <c r="H47">
+      <c r="L47">
         <v>-0.30114068510098202</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="M47" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>332</v>
+      <c r="B48" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="C48" t="s">
         <v>195</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="21">
+        <v>8.56090752927091</v>
+      </c>
+      <c r="E48">
+        <v>2.8443761680785098</v>
+      </c>
+      <c r="F48">
+        <v>8.3514662000009299</v>
+      </c>
+      <c r="G48" s="23">
+        <v>4.7001113827764103</v>
+      </c>
+      <c r="H48">
         <v>-5.0321308396857596</v>
       </c>
-      <c r="E48">
+      <c r="I48" s="23">
         <v>1.9164450306357501E-2</v>
       </c>
-      <c r="F48">
+      <c r="J48">
         <v>-9.1279096940351305</v>
       </c>
-      <c r="G48">
+      <c r="K48" s="23">
         <v>1.3897952121920101E-17</v>
       </c>
-      <c r="H48">
+      <c r="L48">
         <v>-4.0957788543493701</v>
       </c>
-      <c r="I48">
+      <c r="M48" s="23">
         <v>4.4704404484058303E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C49" t="s">
         <v>196</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="21">
+        <v>6.4293584340966197</v>
+      </c>
+      <c r="E49">
+        <v>3.0705650891572098</v>
+      </c>
+      <c r="F49">
+        <v>6.8790539122352001</v>
+      </c>
+      <c r="G49" s="23">
+        <v>5.9014923404291499</v>
+      </c>
+      <c r="H49">
         <v>-4.9732497598592804</v>
       </c>
-      <c r="E49">
+      <c r="I49" s="23">
         <v>5.1643786413545101E-3</v>
       </c>
-      <c r="F49">
+      <c r="J49">
         <v>-6.0110244704536404</v>
       </c>
-      <c r="G49">
+      <c r="K49" s="23">
         <v>5.7735964491087597E-10</v>
       </c>
-      <c r="H49">
+      <c r="L49">
         <v>-1.03777471059437</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="M49" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>333</v>
+      <c r="B50" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="21">
+        <v>7.0106381059920704</v>
+      </c>
+      <c r="E50">
+        <v>4.6889009622461302</v>
+      </c>
+      <c r="F50">
+        <v>6.3555801653175399</v>
+      </c>
+      <c r="G50" s="23">
+        <v>8.2074552345187897</v>
+      </c>
+      <c r="H50">
         <v>-4.9279129994277202</v>
       </c>
-      <c r="E50">
+      <c r="I50" s="23">
         <v>1.35907185055167E-3</v>
       </c>
-      <c r="F50">
+      <c r="J50">
         <v>-2.8618540267212</v>
       </c>
-      <c r="G50">
+      <c r="K50" s="23">
         <v>1.3854715197187201E-2</v>
       </c>
-      <c r="H50">
+      <c r="L50">
         <v>2.0660589727065202</v>
       </c>
-      <c r="I50">
+      <c r="M50" s="23">
         <v>0.38114989449457698</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="21">
+        <v>5.0190791033300499</v>
+      </c>
+      <c r="E51">
+        <v>3.0212194371180798</v>
+      </c>
+      <c r="F51">
+        <v>4.2296481457538198</v>
+      </c>
+      <c r="G51" s="23">
+        <v>4.9350761085980297</v>
+      </c>
+      <c r="H51">
         <v>-4.8795469834385496</v>
       </c>
-      <c r="E51">
+      <c r="I51" s="23">
         <v>8.7544861005570494E-3</v>
       </c>
-      <c r="F51">
+      <c r="J51">
         <v>-3.8182629369497301</v>
       </c>
-      <c r="G51">
+      <c r="K51" s="23">
         <v>8.7710478534933501E-4</v>
       </c>
-      <c r="H51">
+      <c r="L51">
         <v>1.06128404648882</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="M51" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>334</v>
+      <c r="B52" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="C52" t="s">
         <v>198</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="21">
+        <v>6.9238362052381603</v>
+      </c>
+      <c r="E52">
+        <v>5.99991070607983</v>
+      </c>
+      <c r="F52">
+        <v>6.7205312804019304</v>
+      </c>
+      <c r="G52" s="23">
+        <v>10.3443994697682</v>
+      </c>
+      <c r="H52">
         <v>-4.8430132422876602</v>
       </c>
-      <c r="E52">
+      <c r="I52" s="23">
         <v>5.7647330568859198E-3</v>
       </c>
-      <c r="F52">
+      <c r="J52">
         <v>-1.07563955456577</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
+      <c r="K52" s="23">
+        <v>1</v>
+      </c>
+      <c r="L52">
         <v>3.7673736877218902</v>
       </c>
-      <c r="I52">
+      <c r="M52" s="23">
         <v>1.03973865525599E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="21">
+        <v>6.6618811073968596</v>
+      </c>
+      <c r="E53">
+        <v>5.8649572131982097</v>
+      </c>
+      <c r="F53">
+        <v>5.7973196630278601</v>
+      </c>
+      <c r="G53" s="23">
+        <v>8.9725464833018194</v>
+      </c>
+      <c r="H53">
         <v>-4.7921094942420996</v>
       </c>
-      <c r="E53" s="7">
+      <c r="I53" s="24">
         <v>9.7868600267290801E-6</v>
       </c>
-      <c r="F53">
+      <c r="J53">
         <v>-1.0926102154003401</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
+      <c r="K53" s="23">
+        <v>1</v>
+      </c>
+      <c r="L53">
         <v>3.6994992788417602</v>
       </c>
-      <c r="I53">
+      <c r="M53" s="23">
         <v>2.0807246779357699E-8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>327</v>
+      <c r="B54" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C54" t="s">
         <v>199</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="21">
+        <v>12.0421054916772</v>
+      </c>
+      <c r="E54">
+        <v>8.8304366125084197</v>
+      </c>
+      <c r="F54">
+        <v>11.7481704137256</v>
+      </c>
+      <c r="G54" s="23">
+        <v>12.7635421394953</v>
+      </c>
+      <c r="H54">
         <v>-4.75564522059301</v>
       </c>
-      <c r="E54">
+      <c r="I54" s="23">
         <v>1.4218196071272701E-3</v>
       </c>
-      <c r="F54">
+      <c r="J54">
         <v>-3.41299080206992</v>
       </c>
-      <c r="G54">
+      <c r="K54" s="23">
         <v>2.9977785353854002E-4</v>
       </c>
-      <c r="H54">
+      <c r="L54">
         <v>1.34265441852309</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="M54" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>335</v>
+      <c r="B55" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="C55" t="s">
         <v>200</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="21">
+        <v>6.4369672655566701</v>
+      </c>
+      <c r="E55">
+        <v>2.6739651036689098</v>
+      </c>
+      <c r="F55">
+        <v>6.5182470254412896</v>
+      </c>
+      <c r="G55" s="23">
+        <v>4.4263540169298397</v>
+      </c>
+      <c r="H55">
         <v>-4.7381622166622899</v>
       </c>
-      <c r="E55">
+      <c r="I55" s="23">
         <v>3.6929643625574902E-2</v>
       </c>
-      <c r="F55">
+      <c r="J55">
         <v>-7.3261329982547396</v>
       </c>
-      <c r="G55">
+      <c r="K55" s="23">
         <v>2.4981750695271702E-10</v>
       </c>
-      <c r="H55">
+      <c r="L55">
         <v>-2.58797078159246</v>
       </c>
-      <c r="I55">
+      <c r="M55" s="23">
         <v>2.5604739262320799E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>336</v>
+      <c r="B56" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="C56" t="s">
         <v>201</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="21">
+        <v>5.4547103863690296</v>
+      </c>
+      <c r="E56">
+        <v>3.2485461943428802</v>
+      </c>
+      <c r="F56">
+        <v>6.0549666089924203</v>
+      </c>
+      <c r="G56" s="23">
+        <v>6.2123687837182597</v>
+      </c>
+      <c r="H56">
         <v>-4.7181595614328504</v>
       </c>
-      <c r="E56">
+      <c r="I56" s="23">
         <v>2.6909596248867899E-2</v>
       </c>
-      <c r="F56">
+      <c r="J56">
         <v>-3.9917310212169199</v>
       </c>
-      <c r="G56">
+      <c r="K56" s="23">
         <v>8.3867930292059404E-4</v>
       </c>
-      <c r="H56">
+      <c r="L56">
         <v>0.72642854021592296</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="M56" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="21">
+        <v>7.1930697492103404</v>
+      </c>
+      <c r="E57">
+        <v>3.2564861378337402</v>
+      </c>
+      <c r="F57">
+        <v>5.1965517446195104</v>
+      </c>
+      <c r="G57" s="23">
+        <v>4.5361705323306101</v>
+      </c>
+      <c r="H57">
         <v>-4.6822708246649798</v>
       </c>
-      <c r="E57">
+      <c r="I57" s="23">
         <v>1.5219479452442399E-3</v>
       </c>
-      <c r="F57">
+      <c r="J57">
         <v>-5.3663001860288597</v>
       </c>
-      <c r="G57">
+      <c r="K57" s="23">
         <v>8.6286188286550496E-12</v>
       </c>
-      <c r="H57">
+      <c r="L57">
         <v>-0.68402936136387105</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="M57" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>291</v>
       </c>
       <c r="C58" t="s">
         <v>202</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="21">
+        <v>9.7415568878715497</v>
+      </c>
+      <c r="E58">
+        <v>5.1370568122272697</v>
+      </c>
+      <c r="F58">
+        <v>10.588088257684699</v>
+      </c>
+      <c r="G58" s="23">
+        <v>9.8112797561334695</v>
+      </c>
+      <c r="H58">
         <v>-4.5958238223878602</v>
       </c>
-      <c r="E58">
+      <c r="I58" s="23">
         <v>3.6099001122245301E-3</v>
       </c>
-      <c r="F58">
+      <c r="J58">
         <v>-5.4225964467186296</v>
       </c>
-      <c r="G58">
+      <c r="K58" s="23">
         <v>2.6221189638939398E-12</v>
       </c>
-      <c r="H58">
+      <c r="L58">
         <v>-0.82677262433077603</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="M58" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>337</v>
+      <c r="B59" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="C59" t="s">
         <v>203</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="21">
+        <v>3.47469408205151</v>
+      </c>
+      <c r="E59">
+        <v>2.5019370453635998</v>
+      </c>
+      <c r="F59">
+        <v>3.19795448028747</v>
+      </c>
+      <c r="G59" s="23">
+        <v>4.33058282156082</v>
+      </c>
+      <c r="H59">
         <v>-4.5038319566586598</v>
       </c>
-      <c r="E59">
+      <c r="I59" s="23">
         <v>1.6834865362881601E-2</v>
       </c>
-      <c r="F59">
+      <c r="J59">
         <v>-2.5111070623657699</v>
       </c>
-      <c r="G59">
+      <c r="K59" s="23">
         <v>0.162869147284183</v>
       </c>
-      <c r="H59">
+      <c r="L59">
         <v>1.9927248942928799</v>
       </c>
-      <c r="I59">
+      <c r="M59" s="23">
         <v>0.38148848336885999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="21">
+        <v>9.9141828117723101</v>
+      </c>
+      <c r="E60">
+        <v>4.7482223269808701</v>
+      </c>
+      <c r="F60">
+        <v>10.5161037879272</v>
+      </c>
+      <c r="G60" s="23">
+        <v>8.7843499868953803</v>
+      </c>
+      <c r="H60">
         <v>-4.4438153638286302</v>
       </c>
-      <c r="E60">
+      <c r="I60" s="23">
         <v>1.5916199669105599E-3</v>
       </c>
-      <c r="F60">
+      <c r="J60">
         <v>-6.2792979611817001</v>
       </c>
-      <c r="G60">
+      <c r="K60" s="23">
         <v>5.1250233119148899E-20</v>
       </c>
-      <c r="H60">
+      <c r="L60">
         <v>-1.83548259735307</v>
       </c>
-      <c r="I60">
+      <c r="M60" s="23">
         <v>0.55593368977573299</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>338</v>
+      <c r="B61" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="C61" t="s">
         <v>204</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="21">
+        <v>8.1054139696797893</v>
+      </c>
+      <c r="E61">
+        <v>4.4559126478803899</v>
+      </c>
+      <c r="F61">
+        <v>7.1618715962101698</v>
+      </c>
+      <c r="G61" s="23">
+        <v>7.0067666928688102</v>
+      </c>
+      <c r="H61">
         <v>-4.41617486868389</v>
       </c>
-      <c r="E61">
+      <c r="I61" s="23">
         <v>1.1843421304836099E-3</v>
       </c>
-      <c r="F61">
+      <c r="J61">
         <v>-4.6099521331598101</v>
       </c>
-      <c r="G61">
+      <c r="K61" s="23">
         <v>2.67187233671543E-10</v>
       </c>
-      <c r="H61">
+      <c r="L61">
         <v>-0.193777264475925</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="M61" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="21">
+        <v>5.9921227925345901</v>
+      </c>
+      <c r="E62">
+        <v>2.9483709443966601</v>
+      </c>
+      <c r="F62">
+        <v>4.8697953853869302</v>
+      </c>
+      <c r="G62" s="23">
+        <v>4.3266098654921104</v>
+      </c>
+      <c r="H62">
         <v>-4.4059756211687198</v>
       </c>
-      <c r="E62">
+      <c r="I62" s="23">
         <v>1.70412841492464E-2</v>
       </c>
-      <c r="F62">
+      <c r="J62">
         <v>-5.4239327609949104</v>
       </c>
-      <c r="G62">
+      <c r="K62" s="23">
         <v>7.4542178025508398E-9</v>
       </c>
-      <c r="H62">
+      <c r="L62">
         <v>-1.01795713982618</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="M62" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>339</v>
+      <c r="B63" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="C63" t="s">
         <v>205</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="21">
+        <v>8.3652613628805597</v>
+      </c>
+      <c r="E63">
+        <v>4.4417318984936403</v>
+      </c>
+      <c r="F63">
+        <v>8.9365251831009793</v>
+      </c>
+      <c r="G63" s="23">
+        <v>8.1357072773244905</v>
+      </c>
+      <c r="H63">
         <v>-4.3751119156309803</v>
       </c>
-      <c r="E63">
+      <c r="I63" s="23">
         <v>3.1829750367243399E-2</v>
       </c>
-      <c r="F63">
+      <c r="J63">
         <v>-4.9087251232291704</v>
       </c>
-      <c r="G63">
+      <c r="K63" s="23">
         <v>1.23801628824839E-7</v>
       </c>
-      <c r="H63">
+      <c r="L63">
         <v>-0.53361320759819797</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="M63" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>340</v>
+      <c r="B64" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="C64" t="s">
         <v>206</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="21">
+        <v>6.5068828749249503</v>
+      </c>
+      <c r="E64">
+        <v>3.8883751327013401</v>
+      </c>
+      <c r="F64">
+        <v>6.0521763544273801</v>
+      </c>
+      <c r="G64" s="23">
+        <v>6.4969499060665701</v>
+      </c>
+      <c r="H64">
         <v>-4.3573729057038397</v>
       </c>
-      <c r="E64">
+      <c r="I64" s="23">
         <v>1.39716492967841E-3</v>
       </c>
-      <c r="F64">
+      <c r="J64">
         <v>-3.79180085058863</v>
       </c>
-      <c r="G64">
+      <c r="K64" s="23">
         <v>3.7541249259745299E-6</v>
       </c>
-      <c r="H64">
+      <c r="L64">
         <v>0.56557205511521502</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="M64" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>341</v>
+      <c r="B65" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="C65" t="s">
         <v>207</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="21">
+        <v>7.8026737696631896</v>
+      </c>
+      <c r="E65">
+        <v>3.7173691028095202</v>
+      </c>
+      <c r="F65">
+        <v>8.2746556758484395</v>
+      </c>
+      <c r="G65" s="23">
+        <v>6.8301377493393503</v>
+      </c>
+      <c r="H65">
         <v>-4.2862382546820399</v>
       </c>
-      <c r="E65">
+      <c r="I65" s="23">
         <v>5.9786312789326399E-3</v>
       </c>
-      <c r="F65">
+      <c r="J65">
         <v>-5.7986471829455501</v>
       </c>
-      <c r="G65">
+      <c r="K65" s="23">
         <v>4.7610293567631399E-14</v>
       </c>
-      <c r="H65">
+      <c r="L65">
         <v>-1.51240892826351</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="M65" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="21">
+        <v>7.4046574583071401</v>
+      </c>
+      <c r="E66">
+        <v>6.67623924269631</v>
+      </c>
+      <c r="F66">
+        <v>4.1612280622830999</v>
+      </c>
+      <c r="G66" s="23">
+        <v>6.7534355636822996</v>
+      </c>
+      <c r="H66">
         <v>-4.26975158053685</v>
       </c>
-      <c r="E66" s="7">
+      <c r="I66" s="24">
         <v>1.1039411468338299E-5</v>
       </c>
-      <c r="F66">
+      <c r="J66">
         <v>-0.790189245786584</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
+      <c r="K66" s="23">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>3.4795623347502702</v>
       </c>
-      <c r="I66">
+      <c r="M66" s="23">
         <v>2.9152219466008499E-8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>342</v>
+      <c r="B67" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="C67" t="s">
         <v>208</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="21">
+        <v>8.6996348851026806</v>
+      </c>
+      <c r="E67">
+        <v>6.5415833597963999</v>
+      </c>
+      <c r="F67">
+        <v>7.5122255262041104</v>
+      </c>
+      <c r="G67" s="23">
+        <v>9.1854052635832808</v>
+      </c>
+      <c r="H67">
         <v>-4.2470175425388703</v>
       </c>
-      <c r="E67">
+      <c r="I67" s="23">
         <v>4.1277273706574302E-2</v>
       </c>
-      <c r="F67">
+      <c r="J67">
         <v>-2.3049053507234301</v>
       </c>
-      <c r="G67">
+      <c r="K67" s="23">
         <v>0.19845790053007401</v>
       </c>
-      <c r="H67">
+      <c r="L67">
         <v>1.94211219181544</v>
       </c>
-      <c r="I67">
+      <c r="M67" s="23">
         <v>0.74836131274277895</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="21">
+        <v>5.3460887479778201</v>
+      </c>
+      <c r="E68">
+        <v>3.3492806607939198</v>
+      </c>
+      <c r="F68">
+        <v>4.6100096076549004</v>
+      </c>
+      <c r="G68" s="23">
+        <v>5.2058907026054397</v>
+      </c>
+      <c r="H68">
         <v>-4.1845418801217198</v>
       </c>
-      <c r="E68">
+      <c r="I68" s="23">
         <v>1.42389691595234E-2</v>
       </c>
-      <c r="F68">
+      <c r="J68">
         <v>-3.33562637720155</v>
       </c>
-      <c r="G68">
+      <c r="K68" s="23">
         <v>1.05427792141029E-3</v>
       </c>
-      <c r="H68">
+      <c r="L68">
         <v>0.84891550292016305</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="M68" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C69" t="s">
         <v>209</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="21">
+        <v>8.4851212180534894</v>
+      </c>
+      <c r="E69">
+        <v>3.8071281687646699</v>
+      </c>
+      <c r="F69">
+        <v>7.4573861656087796</v>
+      </c>
+      <c r="G69" s="23">
+        <v>5.6781536793365399</v>
+      </c>
+      <c r="H69">
         <v>-4.1060726495226598</v>
       </c>
-      <c r="E69">
+      <c r="I69" s="23">
         <v>4.8555489687011698E-2</v>
       </c>
-      <c r="F69">
+      <c r="J69">
         <v>-6.1451538147763198</v>
       </c>
-      <c r="G69">
+      <c r="K69" s="23">
         <v>1.9985924881159401E-13</v>
       </c>
-      <c r="H69">
+      <c r="L69">
         <v>-2.03908116525366</v>
       </c>
-      <c r="I69">
+      <c r="M69" s="23">
         <v>0.46414426286306998</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>343</v>
+      <c r="B70" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="C70" t="s">
         <v>210</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="21">
+        <v>9.4986220541630608</v>
+      </c>
+      <c r="E70">
+        <v>5.1024995882120399</v>
+      </c>
+      <c r="F70">
+        <v>9.2112712852785208</v>
+      </c>
+      <c r="G70" s="23">
+        <v>8.0453163677431405</v>
+      </c>
+      <c r="H70">
         <v>-4.1023463382966296</v>
       </c>
-      <c r="E70">
+      <c r="I70" s="23">
         <v>1.8875318403042102E-2</v>
       </c>
-      <c r="F70">
+      <c r="J70">
         <v>-5.2696231524519597</v>
       </c>
-      <c r="G70">
+      <c r="K70" s="23">
         <v>1.19974823724074E-11</v>
       </c>
-      <c r="H70">
+      <c r="L70">
         <v>-1.16727681415533</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="M70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>344</v>
+      <c r="B71" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="21">
+        <v>7.9898692248570597</v>
+      </c>
+      <c r="E71">
+        <v>4.3190774629890702</v>
+      </c>
+      <c r="F71">
+        <v>6.3726952991570798</v>
+      </c>
+      <c r="G71" s="23">
+        <v>6.06680740508697</v>
+      </c>
+      <c r="H71">
         <v>-4.0903807917700803</v>
       </c>
-      <c r="E71">
+      <c r="I71" s="23">
         <v>1.8875318403042102E-2</v>
       </c>
-      <c r="F71">
+      <c r="J71">
         <v>-4.5924408377052597</v>
       </c>
-      <c r="G71">
+      <c r="K71" s="23">
         <v>2.17642956412669E-8</v>
       </c>
-      <c r="H71">
+      <c r="L71">
         <v>-0.50206004593518405</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="M71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>345</v>
+      <c r="B72" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="C72" t="s">
         <v>212</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="21">
+        <v>7.9771947165889099</v>
+      </c>
+      <c r="E72">
+        <v>4.6980827404101797</v>
+      </c>
+      <c r="F72">
+        <v>5.1617973173660001</v>
+      </c>
+      <c r="G72" s="23">
+        <v>5.2357997518073498</v>
+      </c>
+      <c r="H72">
         <v>-4.0752487341885297</v>
       </c>
-      <c r="E72" s="7">
+      <c r="I72" s="24">
         <v>2.6071494907447401E-9</v>
       </c>
-      <c r="F72">
+      <c r="J72">
         <v>-3.9849397547838499</v>
       </c>
-      <c r="G72">
+      <c r="K72" s="23">
         <v>7.7754340982858297E-21</v>
       </c>
-      <c r="H72">
+      <c r="L72">
         <v>9.0308979404678497E-2</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="M72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>339</v>
+      <c r="B73" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="C73" t="s">
         <v>213</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="21">
+        <v>8.0949966475267292</v>
+      </c>
+      <c r="E73">
+        <v>4.8572735369931896</v>
+      </c>
+      <c r="F73">
+        <v>8.6057308641841903</v>
+      </c>
+      <c r="G73" s="23">
+        <v>8.3317557550137895</v>
+      </c>
+      <c r="H73">
         <v>-4.0348152333792102</v>
       </c>
-      <c r="E73">
+      <c r="I73" s="23">
         <v>3.8415450589528201E-2</v>
       </c>
-      <c r="F73">
+      <c r="J73">
         <v>-3.92361690885271</v>
       </c>
-      <c r="G73">
+      <c r="K73" s="23">
         <v>2.4195625873750499E-5</v>
       </c>
-      <c r="H73">
+      <c r="L73">
         <v>0.111198324526503</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="M73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>346</v>
+      <c r="B74" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="C74" t="s">
         <v>214</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="21">
+        <v>9.0788668682650808</v>
+      </c>
+      <c r="E74">
+        <v>6.4799117298299702</v>
+      </c>
+      <c r="F74">
+        <v>9.1162166669503293</v>
+      </c>
+      <c r="G74" s="23">
+        <v>10.1963412418011</v>
+      </c>
+      <c r="H74">
         <v>-4.0276871596927402</v>
       </c>
-      <c r="E74">
+      <c r="I74" s="23">
         <v>9.2153935989220497E-3</v>
       </c>
-      <c r="F74">
+      <c r="J74">
         <v>-2.84329533682331</v>
       </c>
-      <c r="G74">
+      <c r="K74" s="23">
         <v>4.20055210090338E-3</v>
       </c>
-      <c r="H74">
+      <c r="L74">
         <v>1.1843918228694299</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="M74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>308</v>
       </c>
       <c r="C75" t="s">
         <v>215</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="21">
+        <v>10.578365988774101</v>
+      </c>
+      <c r="E75">
+        <v>4.9121131420741904</v>
+      </c>
+      <c r="F75">
+        <v>10.007187156864701</v>
+      </c>
+      <c r="G75" s="23">
+        <v>7.4949801740328104</v>
+      </c>
+      <c r="H75">
         <v>-3.9477554285073002</v>
       </c>
-      <c r="E75">
+      <c r="I75" s="23">
         <v>5.8998194033135802E-3</v>
       </c>
-      <c r="F75">
+      <c r="J75">
         <v>-6.71832707946675</v>
       </c>
-      <c r="G75">
+      <c r="K75" s="23">
         <v>3.93125180216822E-27</v>
       </c>
-      <c r="H75">
+      <c r="L75">
         <v>-2.7705716509594498</v>
       </c>
-      <c r="I75">
+      <c r="M75" s="23">
         <v>1.7503165618057499E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>344</v>
+      <c r="B76" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="C76" t="s">
         <v>216</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="21">
+        <v>10.148147356434601</v>
+      </c>
+      <c r="E76">
+        <v>4.1178739346772799</v>
+      </c>
+      <c r="F76">
+        <v>9.2354685877918907</v>
+      </c>
+      <c r="G76" s="23">
+        <v>6.0707624497815402</v>
+      </c>
+      <c r="H76">
         <v>-3.9110005840729798</v>
       </c>
-      <c r="E76">
+      <c r="I76" s="23">
         <v>7.4497507466831396E-3</v>
       </c>
-      <c r="F76">
+      <c r="J76">
         <v>-7.4483672019264304</v>
       </c>
-      <c r="G76">
+      <c r="K76" s="23">
         <v>2.1820047610246799E-32</v>
       </c>
-      <c r="H76">
+      <c r="L76">
         <v>-3.5373666178534502</v>
       </c>
-      <c r="I76">
+      <c r="M76" s="23">
         <v>4.2123558269708201E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>347</v>
+      <c r="B77" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="C77" t="s">
         <v>217</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="21">
+        <v>10.752608669156301</v>
+      </c>
+      <c r="E77">
+        <v>4.21677066450229</v>
+      </c>
+      <c r="F77">
+        <v>10.2004997380915</v>
+      </c>
+      <c r="G77" s="23">
+        <v>6.5148851182920398</v>
+      </c>
+      <c r="H77">
         <v>-3.88004966584323</v>
       </c>
-      <c r="E77">
+      <c r="I77" s="23">
         <v>3.9674772275913102E-2</v>
       </c>
-      <c r="F77">
+      <c r="J77">
         <v>-8.0715149712541407</v>
       </c>
-      <c r="G77">
+      <c r="K77" s="23">
         <v>5.5839661212566199E-30</v>
       </c>
-      <c r="H77">
+      <c r="L77">
         <v>-4.1914653054109099</v>
       </c>
-      <c r="I77">
+      <c r="M77" s="23">
         <v>3.2844351347155198E-8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>348</v>
+      <c r="B78" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="C78" t="s">
         <v>218</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="21">
+        <v>8.7957298621976694</v>
+      </c>
+      <c r="E78">
+        <v>5.2201782500336398</v>
+      </c>
+      <c r="F78">
+        <v>9.4280322519579407</v>
+      </c>
+      <c r="G78" s="23">
+        <v>8.8704508393513297</v>
+      </c>
+      <c r="H78">
         <v>-3.8281162807712001</v>
       </c>
-      <c r="E78">
+      <c r="I78" s="23">
         <v>1.39716492967841E-3</v>
       </c>
-      <c r="F78">
+      <c r="J78">
         <v>-4.3019851287274102</v>
       </c>
-      <c r="G78">
+      <c r="K78" s="23">
         <v>3.4791507108299601E-12</v>
       </c>
-      <c r="H78">
+      <c r="L78">
         <v>-0.47386884795621098</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="M78" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>349</v>
+      <c r="B79" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="C79" t="s">
         <v>219</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="21">
+        <v>5.8607918785702404</v>
+      </c>
+      <c r="E79">
+        <v>2.9002093028654601</v>
+      </c>
+      <c r="F79">
+        <v>5.6078022272665997</v>
+      </c>
+      <c r="G79" s="23">
+        <v>4.5288127666826403</v>
+      </c>
+      <c r="H79">
         <v>-3.82770300172358</v>
       </c>
-      <c r="E79">
+      <c r="I79" s="23">
         <v>3.0705706496153399E-2</v>
       </c>
-      <c r="F79">
+      <c r="J79">
         <v>-5.2369960795332302</v>
       </c>
-      <c r="G79">
+      <c r="K79" s="23">
         <v>7.5760514141196804E-10</v>
       </c>
-      <c r="H79">
+      <c r="L79">
         <v>-1.40929307780965</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="M79" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>350</v>
+      <c r="B80" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="C80" t="s">
         <v>220</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="21">
+        <v>7.6249856703511902</v>
+      </c>
+      <c r="E80">
+        <v>4.4654939740450397</v>
+      </c>
+      <c r="F80">
+        <v>8.0554264006160601</v>
+      </c>
+      <c r="G80" s="23">
+        <v>7.4533268782233897</v>
+      </c>
+      <c r="H80">
         <v>-3.77873948770202</v>
       </c>
-      <c r="E80">
+      <c r="I80" s="23">
         <v>3.9301238891158802E-2</v>
       </c>
-      <c r="F80">
+      <c r="J80">
         <v>-4.0684923954198</v>
       </c>
-      <c r="G80">
+      <c r="K80" s="23">
         <v>1.2395595951624601E-6</v>
       </c>
-      <c r="H80">
+      <c r="L80">
         <v>-0.28975290771777401</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="M80" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>351</v>
+      <c r="B81" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="C81" t="s">
         <v>221</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="21">
+        <v>7.9393613746212903</v>
+      </c>
+      <c r="E81">
+        <v>4.8420620485165697</v>
+      </c>
+      <c r="F81">
+        <v>7.6219223773401001</v>
+      </c>
+      <c r="G81" s="23">
+        <v>7.5741191097489002</v>
+      </c>
+      <c r="H81">
         <v>-3.7358613117414299</v>
       </c>
-      <c r="E81">
+      <c r="I81" s="23">
         <v>2.3114545505978901E-2</v>
       </c>
-      <c r="F81">
+      <c r="J81">
         <v>-3.8517635978026701</v>
       </c>
-      <c r="G81">
+      <c r="K81" s="23">
         <v>1.1910127047734201E-6</v>
       </c>
-      <c r="H81">
+      <c r="L81">
         <v>-0.115902286061242</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="M81" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>352</v>
+      <c r="B82" s="11" t="s">
+        <v>351</v>
       </c>
       <c r="C82" t="s">
         <v>222</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="21">
+        <v>9.0974251584904504</v>
+      </c>
+      <c r="E82">
+        <v>5.6585465909329002</v>
+      </c>
+      <c r="F82">
+        <v>9.2335030461192193</v>
+      </c>
+      <c r="G82" s="23">
+        <v>8.9124380641387404</v>
+      </c>
+      <c r="H82">
         <v>-3.6708349866923302</v>
       </c>
-      <c r="E82">
+      <c r="I82" s="23">
         <v>2.0839618585324099E-2</v>
       </c>
-      <c r="F82">
+      <c r="J82">
         <v>-3.92765864092225</v>
       </c>
-      <c r="G82">
+      <c r="K82" s="23">
         <v>1.59799589804859E-7</v>
       </c>
-      <c r="H82">
+      <c r="L82">
         <v>-0.25682365422991899</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="M82" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>353</v>
+      <c r="B83" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="C83" t="s">
         <v>223</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="21">
+        <v>8.3788068082566909</v>
+      </c>
+      <c r="E83">
+        <v>7.2560887569199304</v>
+      </c>
+      <c r="F83">
+        <v>8.5014017983184402</v>
+      </c>
+      <c r="G83" s="23">
+        <v>10.5876189996306</v>
+      </c>
+      <c r="H83">
         <v>-3.6549076922280501</v>
       </c>
-      <c r="E83">
+      <c r="I83" s="23">
         <v>2.45967791612061E-2</v>
       </c>
-      <c r="F83">
+      <c r="J83">
         <v>-1.15854515399166</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
+      <c r="K83" s="23">
+        <v>1</v>
+      </c>
+      <c r="L83">
         <v>2.4963625382363901</v>
       </c>
-      <c r="I83">
+      <c r="M83" s="23">
         <v>2.0721505107776799E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>354</v>
+      <c r="B84" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="C84" t="s">
         <v>224</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="21">
+        <v>8.4641795790917609</v>
+      </c>
+      <c r="E84">
+        <v>3.8692406488508602</v>
+      </c>
+      <c r="F84">
+        <v>9.2592378960925306</v>
+      </c>
+      <c r="G84" s="23">
+        <v>7.0342821510087603</v>
+      </c>
+      <c r="H84">
         <v>-3.6533038787349801</v>
       </c>
-      <c r="E84">
+      <c r="I84" s="23">
         <v>4.0458711984907102E-2</v>
       </c>
-      <c r="F84">
+      <c r="J84">
         <v>-6.0881701462701798</v>
       </c>
-      <c r="G84">
+      <c r="K84" s="23">
         <v>1.7270291123839199E-17</v>
       </c>
-      <c r="H84">
+      <c r="L84">
         <v>-2.43486626753519</v>
       </c>
-      <c r="I84">
+      <c r="M84" s="23">
         <v>2.3210316181750901E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>355</v>
+      <c r="B85" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="C85" t="s">
         <v>225</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="21">
+        <v>6.4531819232864498</v>
+      </c>
+      <c r="E85">
+        <v>3.2699064940884801</v>
+      </c>
+      <c r="F85">
+        <v>6.6402581981136297</v>
+      </c>
+      <c r="G85" s="23">
+        <v>5.3351374083381096</v>
+      </c>
+      <c r="H85">
         <v>-3.6210346682557302</v>
       </c>
-      <c r="E85">
+      <c r="I85" s="23">
         <v>3.2967597460607997E-2</v>
       </c>
-      <c r="F85">
+      <c r="J85">
         <v>-5.1826580887490303</v>
       </c>
-      <c r="G85">
+      <c r="K85" s="23">
         <v>1.9052652602903399E-11</v>
       </c>
-      <c r="H85">
+      <c r="L85">
         <v>-1.5616234204932999</v>
       </c>
-      <c r="I85">
+      <c r="M85" s="23">
         <v>0.90673758595322496</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>356</v>
+      <c r="B86" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="C86" t="s">
         <v>226</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="21">
+        <v>5.35289563686388</v>
+      </c>
+      <c r="E86">
+        <v>3.3900351034655301</v>
+      </c>
+      <c r="F86">
+        <v>5.0264900463990303</v>
+      </c>
+      <c r="G86" s="23">
+        <v>5.2662531092307097</v>
+      </c>
+      <c r="H86">
         <v>-3.5955737819024201</v>
       </c>
-      <c r="E86">
+      <c r="I86" s="23">
         <v>3.5682248303271699E-2</v>
       </c>
-      <c r="F86">
+      <c r="J86">
         <v>-3.1654349382251898</v>
       </c>
-      <c r="G86">
+      <c r="K86" s="23">
         <v>7.0946323980994395E-4</v>
       </c>
-      <c r="H86">
+      <c r="L86">
         <v>0.43013884367722999</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="M86" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>357</v>
+      <c r="B87" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="C87" t="s">
         <v>227</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="21">
+        <v>5.2734332698167696</v>
+      </c>
+      <c r="E87">
+        <v>4.3107568523375299</v>
+      </c>
+      <c r="F87">
+        <v>3.85785322581164</v>
+      </c>
+      <c r="G87" s="23">
+        <v>5.3066043201425597</v>
+      </c>
+      <c r="H87">
         <v>-3.50888876487421</v>
       </c>
-      <c r="E87">
+      <c r="I87" s="23">
         <v>5.9794049453443297E-4</v>
       </c>
-      <c r="F87">
+      <c r="J87">
         <v>-1.37910796195187</v>
       </c>
-      <c r="G87">
+      <c r="K87" s="23">
         <v>0.92806972578188196</v>
       </c>
-      <c r="H87">
+      <c r="L87">
         <v>2.12978080292234</v>
       </c>
-      <c r="I87">
+      <c r="M87" s="23">
         <v>1.47909666187522E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>358</v>
+      <c r="B88" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="C88" t="s">
         <v>228</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="21">
+        <v>10.6460759089757</v>
+      </c>
+      <c r="E88">
+        <v>6.5317874556251203</v>
+      </c>
+      <c r="F88">
+        <v>11.0642023806881</v>
+      </c>
+      <c r="G88" s="23">
+        <v>9.8737191936460906</v>
+      </c>
+      <c r="H88">
         <v>-3.4942602762338</v>
       </c>
-      <c r="E88">
+      <c r="I88" s="23">
         <v>1.6057698042443301E-2</v>
       </c>
-      <c r="F88">
+      <c r="J88">
         <v>-4.7169850607997201</v>
       </c>
-      <c r="G88">
+      <c r="K88" s="23">
         <v>3.7015322025623003E-14</v>
       </c>
-      <c r="H88">
+      <c r="L88">
         <v>-1.2227247845659199</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="M88" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="21">
+        <v>8.8721979265437305</v>
+      </c>
+      <c r="E89">
+        <v>5.1553329298533201</v>
+      </c>
+      <c r="F89">
+        <v>8.5911045048663208</v>
+      </c>
+      <c r="G89" s="23">
+        <v>7.46725375596841</v>
+      </c>
+      <c r="H89">
         <v>-3.3173255028587998</v>
       </c>
-      <c r="E89">
+      <c r="I89" s="23">
         <v>5.1629961428887603E-3</v>
       </c>
-      <c r="F89">
+      <c r="J89">
         <v>-4.4515459326793696</v>
       </c>
-      <c r="G89">
+      <c r="K89" s="23">
         <v>1.47207449600817E-16</v>
       </c>
-      <c r="H89">
+      <c r="L89">
         <v>-1.13422042982056</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="M89" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>359</v>
+      <c r="B90" s="11" t="s">
+        <v>358</v>
       </c>
       <c r="C90" t="s">
         <v>229</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="21">
+        <v>6.3586672761373002</v>
+      </c>
+      <c r="E90">
+        <v>3.5695520562134102</v>
+      </c>
+      <c r="F90">
+        <v>7.1416613976688001</v>
+      </c>
+      <c r="G90" s="23">
+        <v>6.1771090743550499</v>
+      </c>
+      <c r="H90">
         <v>-3.26931318325334</v>
       </c>
-      <c r="E90">
+      <c r="I90" s="23">
         <v>2.35202306257618E-2</v>
       </c>
-      <c r="F90">
+      <c r="J90">
         <v>-4.4411151744035697</v>
       </c>
-      <c r="G90">
+      <c r="K90" s="23">
         <v>5.0424323795468602E-11</v>
       </c>
-      <c r="H90">
+      <c r="L90">
         <v>-1.17180199115023</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="M90" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>360</v>
+      <c r="B91" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="C91" t="s">
         <v>230</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="21">
+        <v>5.0510950804346297</v>
+      </c>
+      <c r="E91">
+        <v>3.3041800451487902</v>
+      </c>
+      <c r="F91">
+        <v>5.2334571060838897</v>
+      </c>
+      <c r="G91" s="23">
+        <v>5.1149010764670004</v>
+      </c>
+      <c r="H91">
         <v>-3.2511220289443599</v>
       </c>
-      <c r="E91">
+      <c r="I91" s="23">
         <v>2.6909596248867899E-2</v>
       </c>
-      <c r="F91">
+      <c r="J91">
         <v>-3.3747934380540401</v>
       </c>
-      <c r="G91">
+      <c r="K91" s="23">
         <v>2.08995628536279E-5</v>
       </c>
-      <c r="H91">
+      <c r="L91">
         <v>-0.12367140910968299</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="M91" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>361</v>
+      <c r="B92" s="17" t="s">
+        <v>360</v>
       </c>
       <c r="C92" t="s">
         <v>231</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="21">
+        <v>9.2359971897594999</v>
+      </c>
+      <c r="E92">
+        <v>7.9634035447481004</v>
+      </c>
+      <c r="F92">
+        <v>9.2758880053211907</v>
+      </c>
+      <c r="G92" s="23">
+        <v>10.8713521535966</v>
+      </c>
+      <c r="H92">
         <v>-3.21253767223739</v>
       </c>
-      <c r="E92">
+      <c r="I92" s="23">
         <v>4.7827107405571903E-2</v>
       </c>
-      <c r="F92">
+      <c r="J92">
         <v>-1.35697074605145</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
+      <c r="K92" s="23">
+        <v>1</v>
+      </c>
+      <c r="L92">
         <v>1.85556692618595</v>
       </c>
-      <c r="I92">
+      <c r="M92" s="23">
         <v>0.32098212709969798</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="21">
+        <v>5.6329524457703704</v>
+      </c>
+      <c r="E93">
+        <v>3.7079838119035502</v>
+      </c>
+      <c r="F93">
+        <v>4.6762383866777499</v>
+      </c>
+      <c r="G93" s="23">
+        <v>4.8318762251278198</v>
+      </c>
+      <c r="H93">
         <v>-3.2096635352373699</v>
       </c>
-      <c r="E93">
+      <c r="I93" s="23">
         <v>2.6346156180626201E-2</v>
       </c>
-      <c r="F93">
+      <c r="J93">
         <v>-2.9962176180667002</v>
       </c>
-      <c r="G93">
+      <c r="K93" s="23">
         <v>8.7838945265124199E-5</v>
       </c>
-      <c r="H93">
+      <c r="L93">
         <v>0.21344591717067399</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="M93" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>362</v>
+      <c r="B94" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="C94" t="s">
         <v>232</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="21">
+        <v>9.0257661698810399</v>
+      </c>
+      <c r="E94">
+        <v>5.0158571225273496</v>
+      </c>
+      <c r="F94">
+        <v>9.3849139227052802</v>
+      </c>
+      <c r="G94" s="23">
+        <v>7.8205911003604403</v>
+      </c>
+      <c r="H94">
         <v>-3.2069733266855698</v>
       </c>
-      <c r="E94">
+      <c r="I94" s="23">
         <v>1.7662002549519999E-2</v>
       </c>
-      <c r="F94">
+      <c r="J94">
         <v>-4.8971844253993302</v>
       </c>
-      <c r="G94">
+      <c r="K94" s="23">
         <v>1.9127627339239901E-18</v>
       </c>
-      <c r="H94">
+      <c r="L94">
         <v>-1.69021109871376</v>
       </c>
-      <c r="I94">
+      <c r="M94" s="23">
         <v>0.43317753929338998</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>363</v>
+      <c r="B95" s="11" t="s">
+        <v>362</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="21">
+        <v>7.9158486780433899</v>
+      </c>
+      <c r="E95">
+        <v>4.13426833387161</v>
+      </c>
+      <c r="F95">
+        <v>7.4696694046307801</v>
+      </c>
+      <c r="G95" s="23">
+        <v>5.9208387457182097</v>
+      </c>
+      <c r="H95">
         <v>-3.20412528793385</v>
       </c>
-      <c r="E95">
+      <c r="I95" s="23">
         <v>2.45967791612061E-2</v>
       </c>
-      <c r="F95">
+      <c r="J95">
         <v>-5.0180328734144704</v>
       </c>
-      <c r="G95">
+      <c r="K95" s="23">
         <v>1.4147581196048401E-17</v>
       </c>
-      <c r="H95">
+      <c r="L95">
         <v>-1.8139075854806199</v>
       </c>
-      <c r="I95">
+      <c r="M95" s="23">
         <v>0.215349859340146</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>364</v>
+      <c r="B96" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="C96" t="s">
         <v>234</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="21">
+        <v>12.373078128526499</v>
+      </c>
+      <c r="E96">
+        <v>7.5563268695953498</v>
+      </c>
+      <c r="F96">
+        <v>11.509978035668199</v>
+      </c>
+      <c r="G96" s="23">
+        <v>9.5370948012933106</v>
+      </c>
+      <c r="H96">
         <v>-3.1156330500918799</v>
       </c>
-      <c r="E96">
+      <c r="I96" s="23">
         <v>1.2849942139451301E-2</v>
       </c>
-      <c r="F96">
+      <c r="J96">
         <v>-5.3513551255592899</v>
       </c>
-      <c r="G96">
+      <c r="K96" s="23">
         <v>9.3428402812779706E-28</v>
       </c>
-      <c r="H96">
+      <c r="L96">
         <v>-2.2357220754674101</v>
       </c>
-      <c r="I96">
+      <c r="M96" s="23">
         <v>8.1035768453468406E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>365</v>
+      <c r="B97" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="C97" t="s">
         <v>235</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="21">
+        <v>8.2205839600599706</v>
+      </c>
+      <c r="E97">
+        <v>6.0456855187409202</v>
+      </c>
+      <c r="F97">
+        <v>8.1641452297616599</v>
+      </c>
+      <c r="G97" s="23">
+        <v>8.6302765901974094</v>
+      </c>
+      <c r="H97">
         <v>-3.0755344593960201</v>
       </c>
-      <c r="E97">
+      <c r="I97" s="23">
         <v>3.8110888273269999E-2</v>
       </c>
-      <c r="F97">
+      <c r="J97">
         <v>-2.5482064499120698</v>
       </c>
-      <c r="G97">
+      <c r="K97" s="23">
         <v>1.7521757069921199E-3</v>
       </c>
-      <c r="H97">
+      <c r="L97">
         <v>0.52732800948395198</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="M97" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>366</v>
+      <c r="B98" s="11" t="s">
+        <v>365</v>
       </c>
       <c r="C98" t="s">
         <v>236</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="21">
+        <v>6.8445759867878602</v>
+      </c>
+      <c r="E98">
+        <v>5.19670094046079</v>
+      </c>
+      <c r="F98">
+        <v>6.4003153433300204</v>
+      </c>
+      <c r="G98" s="23">
+        <v>7.0438586445914799</v>
+      </c>
+      <c r="H98">
         <v>-3.0590588884152701</v>
       </c>
-      <c r="E98">
+      <c r="I98" s="23">
         <v>3.8110888273269999E-2</v>
       </c>
-      <c r="F98">
+      <c r="J98">
         <v>-2.1383580578511698</v>
       </c>
-      <c r="G98">
+      <c r="K98" s="23">
         <v>3.6852447758604301E-2</v>
       </c>
-      <c r="H98">
+      <c r="L98">
         <v>0.92070083056410601</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+      <c r="M98" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>367</v>
+      <c r="B99" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="C99" t="s">
         <v>237</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="21">
+        <v>10.2298498970303</v>
+      </c>
+      <c r="E99">
+        <v>10.220305441621599</v>
+      </c>
+      <c r="F99">
+        <v>8.5325846594938302</v>
+      </c>
+      <c r="G99" s="23">
+        <v>11.289081242644899</v>
+      </c>
+      <c r="H99">
         <v>-3.0157017041300702</v>
       </c>
-      <c r="E99">
+      <c r="I99" s="23">
         <v>1.2849942139451301E-2</v>
       </c>
-      <c r="F99">
+      <c r="J99">
         <v>0.15289114263096901</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
+      <c r="K99" s="23">
+        <v>1</v>
+      </c>
+      <c r="L99">
         <v>3.1685928467610398</v>
       </c>
-      <c r="I99">
+      <c r="M99" s="23">
         <v>1.18580733235628E-8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>368</v>
+      <c r="B100" s="11" t="s">
+        <v>367</v>
       </c>
       <c r="C100" t="s">
         <v>238</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="21">
+        <v>8.7472218360272809</v>
+      </c>
+      <c r="E100">
+        <v>6.7684167687563397</v>
+      </c>
+      <c r="F100">
+        <v>8.3301036761337901</v>
+      </c>
+      <c r="G100" s="23">
+        <v>8.7970359698411507</v>
+      </c>
+      <c r="H100">
         <v>-2.8584928357708401</v>
       </c>
-      <c r="E100" s="7">
+      <c r="I100" s="24">
         <v>1.1039411468338299E-5</v>
       </c>
-      <c r="F100">
+      <c r="J100">
         <v>-2.3420167745207801</v>
       </c>
-      <c r="G100">
+      <c r="K100" s="23">
         <v>2.2588820364938499E-7</v>
       </c>
-      <c r="H100">
+      <c r="L100">
         <v>0.51647606125005496</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="M100" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>369</v>
+      <c r="B101" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="C101" t="s">
         <v>239</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="21">
+        <v>10.875323650960899</v>
+      </c>
+      <c r="E101">
+        <v>8.20089955524789</v>
+      </c>
+      <c r="F101">
+        <v>10.248592234641899</v>
+      </c>
+      <c r="G101" s="23">
+        <v>9.9211048048199206</v>
+      </c>
+      <c r="H101">
         <v>-2.62532930080312</v>
       </c>
-      <c r="E101">
+      <c r="I101" s="23">
         <v>1.1789634266196199E-3</v>
       </c>
-      <c r="F101">
+      <c r="J101">
         <v>-2.9819969998453</v>
       </c>
-      <c r="G101">
+      <c r="K101" s="23">
         <v>2.74123567500596E-14</v>
       </c>
-      <c r="H101">
+      <c r="L101">
         <v>-0.35666769904218198</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="M101" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>327</v>
+      <c r="B102" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C102" t="s">
         <v>240</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="21">
+        <v>6.0633630988583498</v>
+      </c>
+      <c r="E102">
+        <v>4.6043981872971802</v>
+      </c>
+      <c r="F102">
+        <v>7.6519435894540102</v>
+      </c>
+      <c r="G102" s="23">
+        <v>8.1578641892786798</v>
+      </c>
+      <c r="H102">
         <v>-2.5622230050458001</v>
       </c>
-      <c r="E102" s="7">
+      <c r="I102" s="24">
         <v>3.2988566130780001E-5</v>
       </c>
-      <c r="F102">
+      <c r="J102">
         <v>-1.9845301558183901</v>
       </c>
-      <c r="G102">
+      <c r="K102" s="23">
         <v>4.3166506577936001E-4</v>
       </c>
-      <c r="H102">
+      <c r="L102">
         <v>0.57769284922741104</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="M102" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>370</v>
+      <c r="B103" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="C103" t="s">
         <v>241</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="21">
+        <v>9.0142617379657199</v>
+      </c>
+      <c r="E103">
+        <v>8.2285016219844191</v>
+      </c>
+      <c r="F103">
+        <v>5.3231082112301298</v>
+      </c>
+      <c r="G103" s="23">
+        <v>6.5596414534934802</v>
+      </c>
+      <c r="H103">
         <v>-2.4519238983294098</v>
       </c>
-      <c r="E103">
+      <c r="I103" s="23">
         <v>8.4629670393560497E-3</v>
       </c>
-      <c r="F103">
+      <c r="J103">
         <v>-0.882228374209859</v>
       </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
+      <c r="K103" s="23">
+        <v>1</v>
+      </c>
+      <c r="L103">
         <v>1.56969552411955</v>
       </c>
-      <c r="I103">
+      <c r="M103" s="23">
         <v>0.20057543007463199</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>354</v>
+      <c r="B104" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="C104" t="s">
         <v>242</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="21">
+        <v>9.0673564623265595</v>
+      </c>
+      <c r="E104">
+        <v>8.8294934046401696</v>
+      </c>
+      <c r="F104">
+        <v>8.6772627042491592</v>
+      </c>
+      <c r="G104" s="23">
+        <v>10.4056330910637</v>
+      </c>
+      <c r="H104">
         <v>-2.23339709561255</v>
       </c>
-      <c r="E104">
+      <c r="I104" s="23">
         <v>1.39716492967841E-3</v>
       </c>
-      <c r="F104">
+      <c r="J104">
         <v>-0.27532038441290002</v>
       </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
+      <c r="K104" s="23">
+        <v>1</v>
+      </c>
+      <c r="L104">
         <v>1.95807671119965</v>
       </c>
-      <c r="I104">
+      <c r="M104" s="23">
         <v>2.0711156584083099E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>327</v>
+      <c r="B105" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C105" t="s">
         <v>243</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="21">
+        <v>8.7725304388670402</v>
+      </c>
+      <c r="E105">
+        <v>11.056760606773899</v>
+      </c>
+      <c r="F105">
+        <v>10.4592625170833</v>
+      </c>
+      <c r="G105" s="23">
+        <v>10.8374056318022</v>
+      </c>
+      <c r="H105">
         <v>2.2391300968662899</v>
       </c>
-      <c r="E105">
+      <c r="I105" s="23">
         <v>1.07668560256323E-2</v>
       </c>
-      <c r="F105">
+      <c r="J105">
         <v>2.6039302279599799</v>
       </c>
-      <c r="G105">
+      <c r="K105" s="23">
         <v>1.4777391948266098E-11</v>
       </c>
-      <c r="H105">
+      <c r="L105">
         <v>0.36480013109369602</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="M105" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>297</v>
       </c>
       <c r="C106" t="s">
         <v>244</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="21">
+        <v>10.0287988353779</v>
+      </c>
+      <c r="E106">
+        <v>12.2345909449184</v>
+      </c>
+      <c r="F106">
+        <v>11.225150995364199</v>
+      </c>
+      <c r="G106" s="23">
+        <v>11.4602022729991</v>
+      </c>
+      <c r="H106">
         <v>2.2752311737227902</v>
       </c>
-      <c r="E106">
+      <c r="I106" s="23">
         <v>3.8110888273269999E-2</v>
       </c>
-      <c r="F106">
+      <c r="J106">
         <v>2.5489920180082399</v>
       </c>
-      <c r="G106">
+      <c r="K106" s="23">
         <v>2.2039648853424699E-8</v>
       </c>
-      <c r="H106">
+      <c r="L106">
         <v>0.273760844285455</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="M106" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>293</v>
       </c>
       <c r="C107" t="s">
         <v>245</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="21">
+        <v>8.8442956742145409</v>
+      </c>
+      <c r="E107">
+        <v>11.0340724179883</v>
+      </c>
+      <c r="F107">
+        <v>9.1154180250199506</v>
+      </c>
+      <c r="G107" s="23">
+        <v>9.2385713403505996</v>
+      </c>
+      <c r="H107">
         <v>2.32798783932251</v>
       </c>
-      <c r="E107">
+      <c r="I107" s="23">
         <v>5.7647330568859198E-3</v>
       </c>
-      <c r="F107">
+      <c r="J107">
         <v>2.49841478905077</v>
       </c>
-      <c r="G107">
+      <c r="K107" s="23">
         <v>4.6726904990504896E-10</v>
       </c>
-      <c r="H107">
+      <c r="L107">
         <v>0.170426949728261</v>
       </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="M107" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>371</v>
+      <c r="B108" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="C108" t="s">
         <v>246</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="21">
+        <v>7.8472693932516604</v>
+      </c>
+      <c r="E108">
+        <v>9.74798327469124</v>
+      </c>
+      <c r="F108">
+        <v>9.5709621586568705</v>
+      </c>
+      <c r="G108" s="23">
+        <v>9.42872009857766</v>
+      </c>
+      <c r="H108">
         <v>2.3795697712647401</v>
       </c>
-      <c r="E108">
+      <c r="I108" s="23">
         <v>3.9674772275913102E-2</v>
       </c>
-      <c r="F108">
+      <c r="J108">
         <v>2.1951588530052399</v>
       </c>
-      <c r="G108">
+      <c r="K108" s="23">
         <v>1.74494129384342E-4</v>
       </c>
-      <c r="H108">
+      <c r="L108">
         <v>-0.18441091825950001</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="M108" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="21">
+        <v>10.024372222812699</v>
+      </c>
+      <c r="E109">
+        <v>12.8055522304159</v>
+      </c>
+      <c r="F109">
+        <v>11.9957671496289</v>
+      </c>
+      <c r="G109" s="23">
+        <v>12.5959622571745</v>
+      </c>
+      <c r="H109">
         <v>2.47169180954941</v>
       </c>
-      <c r="E109">
+      <c r="I109" s="23">
         <v>1.51201372668394E-2</v>
       </c>
-      <c r="F109">
+      <c r="J109">
         <v>3.1954754306507001</v>
       </c>
-      <c r="G109">
+      <c r="K109" s="23">
         <v>1.5281739319148899E-14</v>
       </c>
-      <c r="H109">
+      <c r="L109">
         <v>0.72378362110129402</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="M109" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>372</v>
+      <c r="B110" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="C110" t="s">
         <v>247</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="21">
+        <v>7.9534999084854201</v>
+      </c>
+      <c r="E110">
+        <v>9.8101780498242697</v>
+      </c>
+      <c r="F110">
+        <v>9.0482159754346405</v>
+      </c>
+      <c r="G110" s="23">
+        <v>8.7159479486524098</v>
+      </c>
+      <c r="H110">
         <v>2.5864901740918098</v>
       </c>
-      <c r="E110">
+      <c r="I110" s="23">
         <v>2.3114545505978901E-2</v>
       </c>
-      <c r="F110">
+      <c r="J110">
         <v>2.1200940721067698</v>
       </c>
-      <c r="G110">
+      <c r="K110" s="23">
         <v>1.67305959945008E-3</v>
       </c>
-      <c r="H110">
+      <c r="L110">
         <v>-0.46639610198504</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="M110" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>339</v>
+      <c r="B111" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="C111" t="s">
         <v>248</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="21">
+        <v>8.5531566071075797</v>
+      </c>
+      <c r="E111">
+        <v>12.145580665338301</v>
+      </c>
+      <c r="F111">
+        <v>10.4955620102906</v>
+      </c>
+      <c r="G111" s="23">
+        <v>11.653629132767501</v>
+      </c>
+      <c r="H111">
         <v>2.85670061452034</v>
       </c>
-      <c r="E111">
+      <c r="I111" s="23">
         <v>9.2153935989220497E-3</v>
       </c>
-      <c r="F111">
+      <c r="J111">
         <v>4.0715185970707903</v>
       </c>
-      <c r="G111">
+      <c r="K111" s="23">
         <v>3.7138933598127099E-19</v>
       </c>
-      <c r="H111">
+      <c r="L111">
         <v>1.2148179825504499</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="M111" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>373</v>
+      <c r="B112" s="11" t="s">
+        <v>372</v>
       </c>
       <c r="C112" t="s">
         <v>249</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="21">
+        <v>10.9843222435422</v>
+      </c>
+      <c r="E112">
+        <v>14.885759340490001</v>
+      </c>
+      <c r="F112">
+        <v>12.2805896425509</v>
+      </c>
+      <c r="G112" s="23">
+        <v>13.5089642652039</v>
+      </c>
+      <c r="H112">
         <v>2.8988041547540102</v>
       </c>
-      <c r="E112">
+      <c r="I112" s="23">
         <v>2.6346156180626201E-2</v>
       </c>
-      <c r="F112">
+      <c r="J112">
         <v>4.4588850727299896</v>
       </c>
-      <c r="G112">
+      <c r="K112" s="23">
         <v>1.7201897539622399E-19</v>
       </c>
-      <c r="H112">
+      <c r="L112">
         <v>1.56008091797598</v>
       </c>
-      <c r="I112">
+      <c r="M112" s="23">
         <v>0.64366132899909001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>327</v>
+      <c r="B113" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="C113" t="s">
         <v>250</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="21">
+        <v>5.4100982705146397</v>
+      </c>
+      <c r="E113">
+        <v>6.7920583142206201</v>
+      </c>
+      <c r="F113">
+        <v>5.8798705720741404</v>
+      </c>
+      <c r="G113" s="23">
+        <v>5.0973870753402597</v>
+      </c>
+      <c r="H113">
         <v>2.9041907141252001</v>
       </c>
-      <c r="E113">
+      <c r="I113" s="23">
         <v>1.70412841492464E-2</v>
       </c>
-      <c r="F113">
+      <c r="J113">
         <v>1.7843533252369199</v>
       </c>
-      <c r="G113">
+      <c r="K113" s="23">
         <v>0.11308542581636399</v>
       </c>
-      <c r="H113">
+      <c r="L113">
         <v>-1.11983738888829</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="M113" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>319</v>
       </c>
       <c r="C114" t="s">
         <v>251</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="21">
+        <v>5.0759431334706102</v>
+      </c>
+      <c r="E114">
+        <v>9.4450133627041506</v>
+      </c>
+      <c r="F114">
+        <v>5.1926938273848204</v>
+      </c>
+      <c r="G114" s="23">
+        <v>6.8344112295370296</v>
+      </c>
+      <c r="H114">
         <v>3.0714499423516401</v>
       </c>
-      <c r="E114">
+      <c r="I114" s="23">
         <v>1.98603424909606E-3</v>
       </c>
-      <c r="F114">
+      <c r="J114">
         <v>5.18807445649046</v>
       </c>
-      <c r="G114">
+      <c r="K114" s="23">
         <v>1.7432714792233299E-35</v>
       </c>
-      <c r="H114">
+      <c r="L114">
         <v>2.1166245141388198</v>
       </c>
-      <c r="I114">
+      <c r="M114" s="23">
         <v>4.22085052911092E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>294</v>
       </c>
       <c r="C115" t="s">
         <v>252</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="21">
+        <v>7.9286409952534198</v>
+      </c>
+      <c r="E115">
+        <v>10.1350834342359</v>
+      </c>
+      <c r="F115">
+        <v>9.5714627592752208</v>
+      </c>
+      <c r="G115" s="23">
+        <v>9.1639070340853692</v>
+      </c>
+      <c r="H115">
         <v>3.1715267166276999</v>
       </c>
-      <c r="E115">
+      <c r="I115" s="23">
         <v>1.15881484996942E-2</v>
       </c>
-      <c r="F115">
+      <c r="J115">
         <v>2.5932972281919699</v>
       </c>
-      <c r="G115">
+      <c r="K115" s="23">
         <v>4.10840109827695E-4</v>
       </c>
-      <c r="H115">
+      <c r="L115">
         <v>-0.57822948843572897</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="M115" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>295</v>
       </c>
       <c r="C116" t="s">
         <v>253</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="21">
+        <v>5.4043040870978398</v>
+      </c>
+      <c r="E116">
+        <v>9.5129525302782394</v>
+      </c>
+      <c r="F116">
+        <v>5.79516300812924</v>
+      </c>
+      <c r="G116" s="23">
+        <v>7.2974225468512302</v>
+      </c>
+      <c r="H116">
         <v>3.1831229592871999</v>
       </c>
-      <c r="E116">
+      <c r="I116" s="23">
         <v>3.9252016061279503E-2</v>
       </c>
-      <c r="F116">
+      <c r="J116">
         <v>4.9699749848657797</v>
       </c>
-      <c r="G116">
+      <c r="K116" s="23">
         <v>7.2749182513318703E-18</v>
       </c>
-      <c r="H116">
+      <c r="L116">
         <v>1.78685202557858</v>
       </c>
-      <c r="I116">
+      <c r="M116" s="23">
         <v>0.38627779518821098</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>374</v>
+      <c r="B117" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C117" t="s">
         <v>254</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="21">
+        <v>6.3592887107502003</v>
+      </c>
+      <c r="E117">
+        <v>11.682739696362701</v>
+      </c>
+      <c r="F117">
+        <v>7.5100092228171897</v>
+      </c>
+      <c r="G117" s="23">
+        <v>10.032977793776</v>
+      </c>
+      <c r="H117">
         <v>3.2292783417428899</v>
       </c>
-      <c r="E117">
+      <c r="I117" s="23">
         <v>1.87382947993254E-2</v>
       </c>
-      <c r="F117">
+      <c r="J117">
         <v>6.1965096628283201</v>
       </c>
-      <c r="G117">
+      <c r="K117" s="23">
         <v>3.7743184595462297E-33</v>
       </c>
-      <c r="H117">
+      <c r="L117">
         <v>2.9672313210854302</v>
       </c>
-      <c r="I117">
+      <c r="M117" s="23">
         <v>1.19624262402047E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>375</v>
+      <c r="B118" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="C118" t="s">
         <v>255</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="21">
+        <v>7.6290240225661003</v>
+      </c>
+      <c r="E118">
+        <v>10.6310627807425</v>
+      </c>
+      <c r="F118">
+        <v>8.6735811711699995</v>
+      </c>
+      <c r="G118" s="23">
+        <v>8.7703738460205898</v>
+      </c>
+      <c r="H118">
         <v>3.25776347433544</v>
       </c>
-      <c r="E118">
+      <c r="I118" s="23">
         <v>3.1829750367243399E-2</v>
       </c>
-      <c r="F118">
+      <c r="J118">
         <v>3.3135562780807599</v>
       </c>
-      <c r="G118">
+      <c r="K118" s="23">
         <v>2.3902638039477802E-6</v>
       </c>
-      <c r="H118">
+      <c r="L118">
         <v>5.5792803745320897E-2</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="M118" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>376</v>
+      <c r="B119" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="C119" t="s">
         <v>256</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="21">
+        <v>4.8427193124299004</v>
+      </c>
+      <c r="E119">
+        <v>6.3901398119039099</v>
+      </c>
+      <c r="F119">
+        <v>7.3584390629750303</v>
+      </c>
+      <c r="G119" s="23">
+        <v>6.2251749945255099</v>
+      </c>
+      <c r="H119">
         <v>3.48730481381563</v>
       </c>
-      <c r="E119">
+      <c r="I119" s="23">
         <v>9.3171796818454899E-3</v>
       </c>
-      <c r="F119">
+      <c r="J119">
         <v>2.1806636515251099</v>
       </c>
-      <c r="G119">
+      <c r="K119" s="23">
         <v>4.5632733519368598E-2</v>
       </c>
-      <c r="H119">
+      <c r="L119">
         <v>-1.3066411622905201</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+      <c r="M119" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>377</v>
+      <c r="B120" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="C120" t="s">
         <v>257</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="21">
+        <v>8.1602318473227609</v>
+      </c>
+      <c r="E120">
+        <v>8.07430284675719</v>
+      </c>
+      <c r="F120">
+        <v>8.0383331737463504</v>
+      </c>
+      <c r="G120" s="23">
+        <v>5.1077682710392498</v>
+      </c>
+      <c r="H120">
         <v>3.5207801748804401</v>
       </c>
-      <c r="E120">
+      <c r="I120" s="23">
         <v>5.7647330568859198E-3</v>
       </c>
-      <c r="F120">
+      <c r="J120">
         <v>3.6000162421364897E-2</v>
       </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
+      <c r="K120" s="23">
+        <v>1</v>
+      </c>
+      <c r="L120">
         <v>-3.48478001245907</v>
       </c>
-      <c r="I120">
+      <c r="M120" s="23">
         <v>5.0136304403484003E-8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="21">
+        <v>4.7107176234189998</v>
+      </c>
+      <c r="E121">
+        <v>13.9249186332703</v>
+      </c>
+      <c r="F121">
+        <v>5.8033766599756502</v>
+      </c>
+      <c r="G121" s="23">
+        <v>12.450016083522501</v>
+      </c>
+      <c r="H121">
         <v>3.65946098982376</v>
       </c>
-      <c r="E121">
+      <c r="I121" s="23">
         <v>5.8496544137665403E-3</v>
       </c>
-      <c r="F121">
+      <c r="J121">
         <v>11.5311684544122</v>
       </c>
-      <c r="G121">
+      <c r="K121" s="23">
         <v>3.09978400731808E-107</v>
       </c>
-      <c r="H121">
+      <c r="L121">
         <v>7.8717074645884502</v>
       </c>
-      <c r="I121">
+      <c r="M121" s="23">
         <v>1.2705732400564799E-64</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>378</v>
+      <c r="B122" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="C122" t="s">
         <v>258</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="21">
+        <v>4.3076639475511698</v>
+      </c>
+      <c r="E122">
+        <v>10.058911378612899</v>
+      </c>
+      <c r="F122">
+        <v>5.3040164114846702</v>
+      </c>
+      <c r="G122" s="23">
+        <v>8.2340086041078706</v>
+      </c>
+      <c r="H122">
         <v>3.6756748029228001</v>
       </c>
-      <c r="E122">
+      <c r="I122" s="23">
         <v>9.2153935989220497E-3</v>
       </c>
-      <c r="F122">
+      <c r="J122">
         <v>7.1433977850635202</v>
       </c>
-      <c r="G122">
+      <c r="K122" s="23">
         <v>9.7795643569633202E-35</v>
       </c>
-      <c r="H122">
+      <c r="L122">
         <v>3.4677229821407298</v>
       </c>
-      <c r="I122">
+      <c r="M122" s="23">
         <v>2.8033683577765803E-7</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="21">
+        <v>8.4864099366263108</v>
+      </c>
+      <c r="E123">
+        <v>7.5185347048178599</v>
+      </c>
+      <c r="F123">
+        <v>7.3728074794991398</v>
+      </c>
+      <c r="G123" s="23">
+        <v>3.8403009320394101</v>
+      </c>
+      <c r="H123">
         <v>3.8425918596536799</v>
       </c>
-      <c r="E123" s="7">
+      <c r="I123" s="24">
         <v>5.4188990287514998E-5</v>
       </c>
-      <c r="F123">
+      <c r="J123">
         <v>-1.10693407470671</v>
       </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
+      <c r="K123" s="23">
+        <v>1</v>
+      </c>
+      <c r="L123">
         <v>-4.9495259343603903</v>
       </c>
-      <c r="I123">
+      <c r="M123" s="23">
         <v>6.1725058045381501E-21</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>379</v>
+      <c r="B124" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="C124" t="s">
         <v>259</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="21">
+        <v>3.4291643262534102</v>
+      </c>
+      <c r="E124">
+        <v>6.7735687891398504</v>
+      </c>
+      <c r="F124">
+        <v>4.2860220769419799</v>
+      </c>
+      <c r="G124" s="23">
+        <v>5.1378772045327397</v>
+      </c>
+      <c r="H124">
         <v>3.8665499679206898</v>
       </c>
-      <c r="E124">
+      <c r="I124" s="23">
         <v>8.1591248233641497E-3</v>
       </c>
-      <c r="F124">
+      <c r="J124">
         <v>4.8754108482408904</v>
       </c>
-      <c r="G124">
+      <c r="K124" s="23">
         <v>3.0222743882246E-12</v>
       </c>
-      <c r="H124">
+      <c r="L124">
         <v>1.0088608803201999</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+      <c r="M124" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>344</v>
+      <c r="B125" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="C125" t="s">
         <v>260</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="21">
+        <v>5.3150015170480103</v>
+      </c>
+      <c r="E125">
+        <v>5.8400274147322699</v>
+      </c>
+      <c r="F125">
+        <v>5.5317656578388403</v>
+      </c>
+      <c r="G125" s="23">
+        <v>3.4990145076655299</v>
+      </c>
+      <c r="H125">
         <v>3.9427709143727201</v>
       </c>
-      <c r="E125">
+      <c r="I125" s="23">
         <v>5.0652378587849795E-4</v>
       </c>
-      <c r="F125">
+      <c r="J125">
         <v>0.69124216184462595</v>
       </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
+      <c r="K125" s="23">
+        <v>1</v>
+      </c>
+      <c r="L125">
         <v>-3.2515287525280998</v>
       </c>
-      <c r="I125">
+      <c r="M125" s="23">
         <v>8.9431492176407805E-6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>380</v>
+      <c r="B126" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="C126" t="s">
         <v>261</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="21">
+        <v>3.1291684475637198</v>
+      </c>
+      <c r="E126">
+        <v>4.1897427745807301</v>
+      </c>
+      <c r="F126">
+        <v>4.9604121944659001</v>
+      </c>
+      <c r="G126" s="23">
+        <v>3.7282014885594301</v>
+      </c>
+      <c r="H126">
         <v>4.0730968276278103</v>
       </c>
-      <c r="E126">
+      <c r="I126" s="23">
         <v>3.2229027184352797E-2</v>
       </c>
-      <c r="F126">
+      <c r="J126">
         <v>2.0520015134326899</v>
       </c>
-      <c r="G126">
+      <c r="K126" s="23">
         <v>0.353363885939458</v>
       </c>
-      <c r="H126">
+      <c r="L126">
         <v>-2.02109531419512</v>
       </c>
-      <c r="I126">
+      <c r="M126" s="23">
         <v>0.41659798254223102</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>381</v>
+      <c r="B127" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="C127" t="s">
         <v>262</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="21">
+        <v>4.6095976462017898</v>
+      </c>
+      <c r="E127">
+        <v>8.8960207711668406</v>
+      </c>
+      <c r="F127">
+        <v>5.7784791711899501</v>
+      </c>
+      <c r="G127" s="23">
+        <v>6.5178408147163003</v>
+      </c>
+      <c r="H127">
         <v>4.2339991283846397</v>
       </c>
-      <c r="E127">
+      <c r="I127" s="23">
         <v>7.4497507466831396E-3</v>
       </c>
-      <c r="F127">
+      <c r="J127">
         <v>5.2306049121299303</v>
       </c>
-      <c r="G127">
+      <c r="K127" s="23">
         <v>1.7759489645133E-12</v>
       </c>
-      <c r="H127">
+      <c r="L127">
         <v>0.99660578374528896</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="M127" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="21">
+        <v>3.00186399561162</v>
+      </c>
+      <c r="E128">
+        <v>7.04995305613184</v>
+      </c>
+      <c r="F128">
+        <v>4.2117574645442701</v>
+      </c>
+      <c r="G128" s="23">
+        <v>5.3492488291096603</v>
+      </c>
+      <c r="H128">
         <v>4.5822626652343299</v>
       </c>
-      <c r="E128">
+      <c r="I128" s="23">
         <v>1.4888079292677299E-2</v>
       </c>
-      <c r="F128">
+      <c r="J128">
         <v>6.1413741984745602</v>
       </c>
-      <c r="G128">
+      <c r="K128" s="23">
         <v>4.2634612280545603E-12</v>
       </c>
-      <c r="H128">
+      <c r="L128">
         <v>1.5591115332402301</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="M128" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>382</v>
+      <c r="B129" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="C129" t="s">
         <v>263</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="21">
+        <v>5.6246463944225997</v>
+      </c>
+      <c r="E129">
+        <v>8.4157787000260704</v>
+      </c>
+      <c r="F129">
+        <v>6.2966215596189699</v>
+      </c>
+      <c r="G129" s="23">
+        <v>5.3330744549523503</v>
+      </c>
+      <c r="H129">
         <v>4.6096164376075803</v>
       </c>
-      <c r="E129">
+      <c r="I129" s="23">
         <v>4.9786939550159398E-3</v>
       </c>
-      <c r="F129">
+      <c r="J129">
         <v>3.4001567644060602</v>
       </c>
-      <c r="G129">
+      <c r="K129" s="23">
         <v>4.77609507284468E-4</v>
       </c>
-      <c r="H129">
+      <c r="L129">
         <v>-1.2094596732015199</v>
       </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="M129" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>383</v>
+      <c r="B130" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="C130" t="s">
         <v>264</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="21">
+        <v>4.54396663187394</v>
+      </c>
+      <c r="E130">
+        <v>6.1363591603348002</v>
+      </c>
+      <c r="F130">
+        <v>5.3325232297976397</v>
+      </c>
+      <c r="G130" s="23">
+        <v>3.9622773074271902</v>
+      </c>
+      <c r="H130">
         <v>4.83359870166331</v>
       </c>
-      <c r="E130">
+      <c r="I130" s="23">
         <v>4.74662267955233E-3</v>
       </c>
-      <c r="F130">
+      <c r="J130">
         <v>2.8593563813551102</v>
       </c>
-      <c r="G130">
+      <c r="K130" s="23">
         <v>1.6868965726203802E-2</v>
       </c>
-      <c r="H130">
+      <c r="L130">
         <v>-1.97424232030821</v>
       </c>
-      <c r="I130">
+      <c r="M130" s="23">
         <v>0.66078754055620903</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>384</v>
+      <c r="B131" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="C131" t="s">
         <v>265</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="21">
+        <v>2.0723996332656598</v>
+      </c>
+      <c r="E131">
+        <v>3.0958979008760799</v>
+      </c>
+      <c r="F131">
+        <v>2.7409159469908602</v>
+      </c>
+      <c r="G131" s="23">
+        <v>2.1192912742319598</v>
+      </c>
+      <c r="H131">
         <v>5.0874466949425399</v>
       </c>
-      <c r="E131">
+      <c r="I131" s="23">
         <v>3.8415450589528201E-2</v>
       </c>
-      <c r="F131">
+      <c r="J131">
         <v>2.98597663805295</v>
       </c>
-      <c r="G131">
+      <c r="K131" s="23">
         <v>7.8358559734528002E-2</v>
       </c>
-      <c r="H131">
+      <c r="L131">
         <v>-2.1014700568896001</v>
       </c>
-      <c r="I131">
+      <c r="M131" s="23">
         <v>0.85246838918672696</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="21">
+        <v>3.16343290668715</v>
+      </c>
+      <c r="E132">
+        <v>6.4974255366792004</v>
+      </c>
+      <c r="F132">
+        <v>5.4002828592830303</v>
+      </c>
+      <c r="G132" s="23">
+        <v>5.7028709066352796</v>
+      </c>
+      <c r="H132">
         <v>5.3561684963023604</v>
       </c>
-      <c r="E132">
+      <c r="I132" s="23">
         <v>1.3650056359404601E-3</v>
       </c>
-      <c r="F132">
+      <c r="J132">
         <v>5.5156999882700397</v>
       </c>
-      <c r="G132">
+      <c r="K132" s="23">
         <v>8.2898144727910805E-9</v>
       </c>
-      <c r="H132">
+      <c r="L132">
         <v>0.15953149196767699</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="M132" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="16" t="s">
         <v>296</v>
       </c>
       <c r="C133" t="s">
         <v>266</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="21">
+        <v>5.1473384517417502</v>
+      </c>
+      <c r="E133">
+        <v>12.3634803843008</v>
+      </c>
+      <c r="F133">
+        <v>7.95341444852526</v>
+      </c>
+      <c r="G133" s="23">
+        <v>10.6605129655283</v>
+      </c>
+      <c r="H133">
         <v>5.4926365468523297</v>
       </c>
-      <c r="E133" s="7">
+      <c r="I133" s="24">
         <v>1.79014146646371E-8</v>
       </c>
-      <c r="F133">
+      <c r="J133">
         <v>8.6913489085095996</v>
       </c>
-      <c r="G133">
+      <c r="K133" s="23">
         <v>1.5740911519994401E-54</v>
       </c>
-      <c r="H133">
+      <c r="L133">
         <v>3.1987123616572699</v>
       </c>
-      <c r="I133">
+      <c r="M133" s="23">
         <v>9.1297294168342792E-6</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="21">
+        <v>2.5822958300165801</v>
+      </c>
+      <c r="E134">
+        <v>4.6301699891999704</v>
+      </c>
+      <c r="F134">
+        <v>5.37864757930077</v>
+      </c>
+      <c r="G134" s="23">
+        <v>5.3992366522886197</v>
+      </c>
+      <c r="H134">
         <v>5.9363247120551099</v>
       </c>
-      <c r="E134">
+      <c r="I134" s="23">
         <v>5.7647330568859198E-3</v>
       </c>
-      <c r="F134">
+      <c r="J134">
         <v>6.0243288555193297</v>
       </c>
-      <c r="G134">
+      <c r="K134" s="23">
         <v>4.30971606698409E-5</v>
       </c>
-      <c r="H134">
+      <c r="L134">
         <v>8.8004143464220599E-2</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
+      <c r="M134" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>385</v>
+      <c r="B135" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C135" t="s">
         <v>267</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="21">
+        <v>1.55416804476769</v>
+      </c>
+      <c r="E135">
+        <v>1.95129919285566</v>
+      </c>
+      <c r="F135">
+        <v>2.2633972269287499</v>
+      </c>
+      <c r="G135" s="23">
+        <v>1.4127877946320799</v>
+      </c>
+      <c r="H135">
         <v>6.3533494104379296</v>
       </c>
-      <c r="E135">
+      <c r="I135" s="23">
         <v>2.6346156180626201E-2</v>
       </c>
-      <c r="F135">
+      <c r="J135">
         <v>1.82407643469592</v>
       </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
+      <c r="K135" s="23">
+        <v>1</v>
+      </c>
+      <c r="L135">
         <v>-4.5292729757420096</v>
       </c>
-      <c r="I135">
+      <c r="M135" s="23">
         <v>1.71671693834041E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B136" s="13" t="s">
-        <v>386</v>
+      <c r="B136" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="C136" t="s">
         <v>268</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="21">
+        <v>4.3234247768358802</v>
+      </c>
+      <c r="E136">
+        <v>6.1358870863693404</v>
+      </c>
+      <c r="F136">
+        <v>4.1366686822564001</v>
+      </c>
+      <c r="G136" s="23">
+        <v>2.3835662140923399</v>
+      </c>
+      <c r="H136">
         <v>7.4950210249366602</v>
       </c>
-      <c r="E136">
+      <c r="I136" s="23">
         <v>1.80680617102265E-3</v>
       </c>
-      <c r="F136">
+      <c r="J136">
         <v>3.1056207840078498</v>
       </c>
-      <c r="G136">
+      <c r="K136" s="23">
         <v>7.4665521317621497E-2</v>
       </c>
-      <c r="H136">
+      <c r="L136">
         <v>-4.3894002409288104</v>
       </c>
-      <c r="I136">
+      <c r="M136" s="23">
         <v>2.40298594394589E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>327</v>
+      <c r="B137" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C137" t="s">
         <v>269</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="21">
+        <v>1.49244794393</v>
+      </c>
+      <c r="E137">
+        <v>4.3628055469947604</v>
+      </c>
+      <c r="F137">
+        <v>1.7081690040758799</v>
+      </c>
+      <c r="G137" s="23">
+        <v>1.74479361902406</v>
+      </c>
+      <c r="H137">
         <v>7.7227176806663502</v>
       </c>
-      <c r="E137">
+      <c r="I137" s="23">
         <v>4.9786939550159398E-3</v>
       </c>
-      <c r="F137">
+      <c r="J137">
         <v>7.6232945394843696</v>
       </c>
-      <c r="G137">
+      <c r="K137" s="23">
         <v>2.1388453275284501E-7</v>
       </c>
-      <c r="H137">
+      <c r="L137">
         <v>-9.9423141181978203E-2</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="M137" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="21">
+        <v>1.6037201898567901</v>
+      </c>
+      <c r="E138">
+        <v>3.36359149590051</v>
+      </c>
+      <c r="F138">
+        <v>2.2903337237657602</v>
+      </c>
+      <c r="G138" s="23">
+        <v>1.7793361950322799</v>
+      </c>
+      <c r="H138">
         <v>8.6515187075635307</v>
       </c>
-      <c r="E138">
+      <c r="I138" s="23">
         <v>5.8998194033135802E-3</v>
       </c>
-      <c r="F138">
+      <c r="J138">
         <v>6.4481629750181799</v>
       </c>
-      <c r="G138">
+      <c r="K138" s="23">
         <v>7.3920765717972099E-4</v>
       </c>
-      <c r="H138">
+      <c r="L138">
         <v>-2.2033557325453499</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
+      <c r="M138" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>327</v>
+      <c r="B139" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C139" t="s">
         <v>270</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="21">
+        <v>2.3672452888340798</v>
+      </c>
+      <c r="E139">
+        <v>9.6928352605384909</v>
+      </c>
+      <c r="F139">
+        <v>1.8912025848646901</v>
+      </c>
+      <c r="G139" s="23">
+        <v>2.16246253889511</v>
+      </c>
+      <c r="H139">
         <v>8.7089889077198208</v>
       </c>
-      <c r="E139">
+      <c r="I139" s="23">
         <v>1.4218196071272701E-3</v>
       </c>
-      <c r="F139">
+      <c r="J139">
         <v>9.6862679051481102</v>
       </c>
-      <c r="G139" s="7">
+      <c r="K139" s="24">
         <v>4.9342492328326701E-26</v>
       </c>
-      <c r="H139">
+      <c r="L139">
         <v>0.97727899742829005</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+      <c r="M139" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>387</v>
+      <c r="B140" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="C140" t="s">
         <v>271</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="21">
+        <v>1.01494136036831</v>
+      </c>
+      <c r="E140">
+        <v>4.6393348980510396</v>
+      </c>
+      <c r="F140">
+        <v>1.1018232322736099</v>
+      </c>
+      <c r="G140" s="23">
+        <v>1.1232946359737701</v>
+      </c>
+      <c r="H140">
         <v>10.3051944195314</v>
       </c>
-      <c r="E140">
+      <c r="I140" s="23">
         <v>9.2153935989220497E-3</v>
       </c>
-      <c r="F140">
+      <c r="J140">
         <v>9.5512501011209494</v>
       </c>
-      <c r="G140">
+      <c r="K140" s="23">
         <v>2.7051230797145903E-7</v>
       </c>
-      <c r="H140">
+      <c r="L140">
         <v>-0.75394431841042997</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+      <c r="M140" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>388</v>
+      <c r="B141" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="C141" t="s">
         <v>272</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="21">
+        <v>1.9332043110652799</v>
+      </c>
+      <c r="E141">
+        <v>3.7503174148466099</v>
+      </c>
+      <c r="F141">
+        <v>5.6565296189205698</v>
+      </c>
+      <c r="G141" s="23">
+        <v>3.30023310664488</v>
+      </c>
+      <c r="H141">
         <v>10.608498734590199</v>
       </c>
-      <c r="E141" s="7">
+      <c r="I141" s="24">
         <v>9.7868600267290801E-6</v>
       </c>
-      <c r="F141">
+      <c r="J141">
         <v>7.4814495418541602</v>
       </c>
-      <c r="G141">
+      <c r="K141" s="23">
         <v>2.6006450369055801E-5</v>
       </c>
-      <c r="H141">
+      <c r="L141">
         <v>-3.127049192736</v>
       </c>
-      <c r="I141">
+      <c r="M141" s="23">
         <v>0.128378280192948</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Supplemental File 5_139-DEGs.xlsx
+++ b/Supplemental File 5_139-DEGs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/gschwend_2_osu_edu/Documents/Collaborations/Rachel's Manuscripts/Waterlogging research manuscript/Fronteirs in Plant Science/Reviewer Edits/New Supplemental Files for Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="8_{96F8F0A1-C0D4-4BBF-AE56-CCA36F69EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E579C6-CCFC-4221-BA03-77C2779A508A}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{96F8F0A1-C0D4-4BBF-AE56-CCA36F69EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B90C17-4D8E-4A35-9340-8512B250DA64}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{D0206047-2F2F-4EC8-BC6A-08260A436F34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="396">
   <si>
     <t>MN106 WL vs Controls</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>F-box and associated interaction domains-containing protein</t>
   </si>
   <si>
-    <t>myb domain protein 39</t>
-  </si>
-  <si>
     <t>basichelix-loop-helix(bHLH) DNA-binding superfamily protein</t>
   </si>
   <si>
@@ -1073,9 +1070,6 @@
     <t>Rubredoxin-like superfamily protein</t>
   </si>
   <si>
-    <t>laccase1</t>
-  </si>
-  <si>
     <t>basic helix-loop-helix(bHLH) DNA-binding superfamily protein</t>
   </si>
   <si>
@@ -1218,13 +1212,25 @@
   </si>
   <si>
     <t>CASPARIAN STRIP MEMBRANE DOMAIN PROTEIN 3</t>
+  </si>
+  <si>
+    <t>Red font = DEGs in MN106 compared to SP32-10 control roots</t>
+  </si>
+  <si>
+    <t>MYB DOMAIN PROTEIN 39</t>
+  </si>
+  <si>
+    <t>LACCASE 1</t>
+  </si>
+  <si>
+    <t>Normalized Counts: obtained using normalized_counts &lt;- counts(dds, normalized=TRUE). To calculate the log2 fold change, take the log2 of (Mean of Waterlogged Samples/Mean of Control Samples)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1270,21 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1352,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1375,12 +1396,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1390,8 +1405,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,6 +1441,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1716,38 +1753,38 @@
     <col min="1" max="1" width="20.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="54.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="21" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="21" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
     <col min="16" max="16" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="18"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="25"/>
       <c r="Q1" t="s">
         <v>2</v>
       </c>
@@ -1768,34 +1805,34 @@
       <c r="C2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>391</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1825,34 +1862,34 @@
       <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="21">
-        <v>2.0856445736792901</v>
-      </c>
-      <c r="E3">
-        <v>0.95070527945361005</v>
-      </c>
-      <c r="F3">
-        <v>1.01251929759993</v>
-      </c>
-      <c r="G3" s="23">
-        <v>1.87992871314637</v>
+      <c r="D3" s="19">
+        <v>17.453326320152399</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.61788703385223498</v>
+      </c>
+      <c r="G3" s="21">
+        <v>10.3653107691987</v>
       </c>
       <c r="H3">
         <v>-10.237346262359299</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>1.0059664596661499E-2</v>
       </c>
       <c r="J3">
         <v>-6.18471467823022</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>1.2255618115482999E-2</v>
       </c>
       <c r="L3">
         <v>4.0526315841290996</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <v>0.31991147310219897</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1882,34 +1919,34 @@
       <c r="C4" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="21">
-        <v>3.98809949780583</v>
-      </c>
-      <c r="E4">
-        <v>1.92803414362904</v>
-      </c>
-      <c r="F4">
-        <v>2.92862964636128</v>
-      </c>
-      <c r="G4" s="23">
-        <v>5.1034780526957704</v>
+      <c r="D4" s="19">
+        <v>23.109120901914199</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>14.2262046764401</v>
+      </c>
+      <c r="G4" s="21">
+        <v>127.860944734486</v>
       </c>
       <c r="H4">
         <v>-9.7561127665072807</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>1.05047368026792E-2</v>
       </c>
       <c r="J4">
         <v>-6.5889983860082104</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>6.1160953378125099E-3</v>
       </c>
       <c r="L4">
         <v>3.16711438049906</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>0.64149240267367802</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -1939,34 +1976,34 @@
       <c r="C5" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="21">
-        <v>1.3273333404880301</v>
-      </c>
-      <c r="E5">
-        <v>1.3174283184959099</v>
-      </c>
-      <c r="F5">
-        <v>1.1799659096346899</v>
-      </c>
-      <c r="G5" s="23">
-        <v>4.7808895760869303</v>
+      <c r="D5" s="19">
+        <v>0.63093422330312698</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.15717558864674699</v>
+      </c>
+      <c r="G5" s="21">
+        <v>72.345598513088405</v>
       </c>
       <c r="H5">
         <v>-9.7470439824699202</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>8.5947378185974102E-3</v>
       </c>
       <c r="J5">
         <v>-1.3760150795661601</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>1</v>
       </c>
       <c r="L5">
         <v>8.3710289029037597</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>1.19476087606396E-6</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1987,34 +2024,34 @@
       <c r="C6" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="21">
-        <v>7.3241594800203602</v>
-      </c>
-      <c r="E6">
-        <v>2.8880237814330099</v>
-      </c>
-      <c r="F6">
-        <v>7.70234038856323</v>
-      </c>
-      <c r="G6" s="23">
-        <v>6.9228471874392401</v>
+      <c r="D6" s="19">
+        <v>237.34236988436299</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>270.64509413745702</v>
+      </c>
+      <c r="G6" s="21">
+        <v>219.46799679941799</v>
       </c>
       <c r="H6">
         <v>-9.6467652936004296</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>1.03194379886619E-3</v>
       </c>
       <c r="J6">
         <v>-9.9492876941331208</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <v>9.2757211356329707E-9</v>
       </c>
       <c r="L6">
         <v>-0.30252240053268398</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <v>1</v>
       </c>
       <c r="Q6">
@@ -2031,35 +2068,38 @@
       <c r="C7" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="21">
-        <v>8.2545175709665504</v>
-      </c>
-      <c r="E7">
-        <v>2.94614362905843</v>
-      </c>
-      <c r="F7">
-        <v>8.2706034667259303</v>
-      </c>
-      <c r="G7" s="23">
-        <v>6.61518522432839</v>
+      <c r="D7" s="19">
+        <v>438.94352644371901</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>569.60305819608504</v>
+      </c>
+      <c r="G7" s="21">
+        <v>207.22416415738101</v>
       </c>
       <c r="H7">
         <v>-9.3774755818740303</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>1.2849942139451301E-2</v>
       </c>
       <c r="J7">
         <v>-10.8363871087343</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <v>3.8822178388984501E-8</v>
       </c>
       <c r="L7">
         <v>-1.4589115268602499</v>
       </c>
-      <c r="M7" s="23">
-        <v>1</v>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2072,34 +2112,34 @@
       <c r="C8" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="21">
-        <v>6.0969590696187801</v>
-      </c>
-      <c r="E8">
-        <v>2.7984095378721299</v>
-      </c>
-      <c r="F8">
-        <v>7.03454408812145</v>
-      </c>
-      <c r="G8" s="23">
-        <v>7.4377235358565201</v>
+      <c r="D8" s="19">
+        <v>86.905463640820201</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>233.48074366191199</v>
+      </c>
+      <c r="G8" s="21">
+        <v>321.34967520581102</v>
       </c>
       <c r="H8">
         <v>-8.9605566902329308</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>1.1843421304836099E-3</v>
       </c>
       <c r="J8">
         <v>-8.49997255896659</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>5.5187574319809798E-7</v>
       </c>
       <c r="L8">
         <v>0.46058413126633402</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2113,36 +2153,44 @@
       <c r="C9" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="21">
-        <v>2.1298198725548199</v>
-      </c>
-      <c r="E9">
-        <v>0.79148866316038002</v>
-      </c>
-      <c r="F9">
-        <v>0.62496951002186396</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.98623489495561401</v>
+      <c r="D9" s="19">
+        <v>17.580770325714401</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.85611484644303504</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2.2724947321701601</v>
       </c>
       <c r="H9">
         <v>-8.1513533143717503</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>9.5400398352578804E-3</v>
       </c>
       <c r="J9">
         <v>-4.1876592033347402</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>3.2328370109872502E-2</v>
       </c>
       <c r="L9">
         <v>3.9636941110370101</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="21">
         <v>0.18777783117722699</v>
       </c>
+      <c r="O9" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -2154,36 +2202,42 @@
       <c r="C10" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="21">
-        <v>5.4497902576893198</v>
-      </c>
-      <c r="E10">
-        <v>2.8966350801560501</v>
-      </c>
-      <c r="F10">
-        <v>7.1492204182814696</v>
-      </c>
-      <c r="G10" s="23">
-        <v>7.5551890053188604</v>
+      <c r="D10" s="19">
+        <v>46.238136354361103</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="35">
+        <v>233.64551751142699</v>
+      </c>
+      <c r="G10" s="21">
+        <v>315.09416344675901</v>
       </c>
       <c r="H10">
         <v>-8.0207823464688204</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>2.5483151361547802E-4</v>
       </c>
       <c r="J10">
         <v>-7.5895176033590799</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="21">
         <v>2.7412619478608198E-7</v>
       </c>
       <c r="L10">
         <v>0.431264743109738</v>
       </c>
-      <c r="M10" s="23">
-        <v>1</v>
-      </c>
+      <c r="M10" s="21">
+        <v>1</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -2192,36 +2246,42 @@
       <c r="B11" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="21">
-        <v>9.1113062160841505</v>
-      </c>
-      <c r="E11">
-        <v>3.5236404801047798</v>
-      </c>
-      <c r="F11">
-        <v>9.8183980460263491</v>
-      </c>
-      <c r="G11" s="23">
-        <v>8.2607161998624203</v>
+      <c r="D11" s="19">
+        <v>715.413000035599</v>
+      </c>
+      <c r="E11" s="35">
+        <v>1.91404515675542</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1206.9265524853699</v>
+      </c>
+      <c r="G11" s="21">
+        <v>518.02898943306604</v>
       </c>
       <c r="H11">
         <v>-7.3448332004118999</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>4.9315100140496303E-2</v>
       </c>
       <c r="J11">
         <v>-8.5651182983717504</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <v>3.6042850038731901E-7</v>
       </c>
       <c r="L11">
         <v>-1.2202850979598501</v>
       </c>
-      <c r="M11" s="23">
-        <v>1</v>
-      </c>
+      <c r="M11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -2233,34 +2293,34 @@
       <c r="C12" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="21">
-        <v>5.1015185161388299</v>
-      </c>
-      <c r="E12">
-        <v>2.4816226826229602</v>
-      </c>
-      <c r="F12">
-        <v>5.0223169742106597</v>
-      </c>
-      <c r="G12" s="23">
-        <v>5.2048204928058102</v>
+      <c r="D12" s="19">
+        <v>57.745330818231302</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.42805742322151702</v>
+      </c>
+      <c r="F12" s="35">
+        <v>47.472661588473997</v>
+      </c>
+      <c r="G12" s="21">
+        <v>69.292724516286</v>
       </c>
       <c r="H12">
         <v>-7.3004465926409203</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>7.43757014364828E-3</v>
       </c>
       <c r="J12">
         <v>-6.7558856795547797</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>4.7435700726141299E-5</v>
       </c>
       <c r="L12">
         <v>0.54456091308613197</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2274,75 +2334,75 @@
       <c r="C13" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="21">
-        <v>6.5957109135051297</v>
-      </c>
-      <c r="E13">
-        <v>2.7753424770883601</v>
-      </c>
-      <c r="F13">
-        <v>6.6962552115618896</v>
-      </c>
-      <c r="G13" s="23">
-        <v>5.3427499096428699</v>
+      <c r="D13" s="19">
+        <v>135.34858519129699</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0.46206657449636301</v>
+      </c>
+      <c r="F13" s="35">
+        <v>142.453433536571</v>
+      </c>
+      <c r="G13" s="21">
+        <v>84.538173820682204</v>
       </c>
       <c r="H13">
         <v>-7.2331265873818502</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <v>4.9786939550159398E-3</v>
       </c>
       <c r="J13">
         <v>-7.9849152935266803</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="21">
         <v>1.3148477919264299E-7</v>
       </c>
       <c r="L13">
         <v>-0.75178870614482696</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="21">
-        <v>7.6264346257293196</v>
-      </c>
-      <c r="E14">
-        <v>9.9009324859155807</v>
-      </c>
-      <c r="F14">
-        <v>3.8298663415743999</v>
-      </c>
-      <c r="G14" s="23">
-        <v>10.8670435587564</v>
-      </c>
-      <c r="H14">
+      <c r="D14" s="28">
+        <v>315.097242586221</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1550.9420179118799</v>
+      </c>
+      <c r="F14" s="36">
+        <v>3.5958903865904102</v>
+      </c>
+      <c r="G14" s="30">
+        <v>2476.6135326266099</v>
+      </c>
+      <c r="H14" s="29">
         <v>-7.1384629220751696</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="30">
         <v>5.9794049453443297E-4</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="29">
         <v>2.29928472416614</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="30">
         <v>0.479877031388662</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="29">
         <v>9.4377476462413092</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="30">
         <v>3.9661030065632498E-20</v>
       </c>
     </row>
@@ -2356,34 +2416,34 @@
       <c r="C15" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="21">
-        <v>5.4268757673492596</v>
-      </c>
-      <c r="E15">
-        <v>2.7524338094954799</v>
-      </c>
-      <c r="F15">
-        <v>6.39348803084573</v>
-      </c>
-      <c r="G15" s="23">
-        <v>6.7652366221182003</v>
+      <c r="D15" s="19">
+        <v>54.820710773134799</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0.248037862885604</v>
+      </c>
+      <c r="F15" s="35">
+        <v>181.68113546286401</v>
+      </c>
+      <c r="G15" s="21">
+        <v>166.385019916396</v>
       </c>
       <c r="H15">
         <v>-7.1311450034490997</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>5.1287431089026897E-3</v>
       </c>
       <c r="J15">
         <v>-7.2583687060922903</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="21">
         <v>2.4649916117105601E-6</v>
       </c>
       <c r="L15">
         <v>-0.12722370264319399</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2397,34 +2457,34 @@
       <c r="C16" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="21">
-        <v>4.9877480128019798</v>
-      </c>
-      <c r="E16">
-        <v>2.5924810862433501</v>
-      </c>
-      <c r="F16">
-        <v>5.4308558918114498</v>
-      </c>
-      <c r="G16" s="23">
-        <v>5.71913797558026</v>
+      <c r="D16" s="19">
+        <v>44.971109880913602</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.46206657449636301</v>
+      </c>
+      <c r="F16" s="35">
+        <v>59.096040530655799</v>
+      </c>
+      <c r="G16" s="21">
+        <v>81.852869702003304</v>
       </c>
       <c r="H16">
         <v>-6.8645896619405899</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>1.70344797318179E-2</v>
       </c>
       <c r="J16">
         <v>-6.3951435842606204</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="21">
         <v>1.7004768751494601E-4</v>
       </c>
       <c r="L16">
         <v>0.46944607767996899</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2438,34 +2498,34 @@
       <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="21">
-        <v>3.7801396923206001</v>
-      </c>
-      <c r="E17">
-        <v>1.9482975979558499</v>
-      </c>
-      <c r="F17">
-        <v>3.3027379484591601</v>
-      </c>
-      <c r="G17" s="23">
-        <v>3.2521293262971098</v>
+      <c r="D17" s="19">
+        <v>26.049659835466301</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>15.787886821159701</v>
+      </c>
+      <c r="G17" s="21">
+        <v>15.436781782391501</v>
       </c>
       <c r="H17">
         <v>-6.7228429301300396</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>7.7099233330048898E-3</v>
       </c>
       <c r="J17">
         <v>-6.7618439920590498</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="21">
         <v>9.5695206378619998E-6</v>
       </c>
       <c r="L17">
         <v>-3.9001061929015597E-2</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2479,34 +2539,34 @@
       <c r="C18" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="21">
-        <v>4.7757557807884501</v>
-      </c>
-      <c r="E18">
-        <v>2.4851236561832701</v>
-      </c>
-      <c r="F18">
-        <v>4.8549697506860703</v>
-      </c>
-      <c r="G18" s="23">
-        <v>5.1287750303766204</v>
+      <c r="D18" s="19">
+        <v>38.704654747041097</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0.42805742322151702</v>
+      </c>
+      <c r="F18" s="35">
+        <v>42.371938871657697</v>
+      </c>
+      <c r="G18" s="21">
+        <v>61.468586349600699</v>
       </c>
       <c r="H18">
         <v>-6.71433458605041</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>1.6057698042443301E-2</v>
       </c>
       <c r="J18">
         <v>-6.1787067266424804</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <v>2.3088905757959199E-4</v>
       </c>
       <c r="L18">
         <v>0.53562785940792901</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2520,34 +2580,34 @@
       <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="21">
-        <v>6.0674385266515696</v>
-      </c>
-      <c r="E19">
-        <v>7.7776196770561103</v>
-      </c>
-      <c r="F19">
-        <v>3.0554799566443198</v>
-      </c>
-      <c r="G19" s="23">
-        <v>8.4017857849076591</v>
+      <c r="D19" s="19">
+        <v>112.38541137253399</v>
+      </c>
+      <c r="E19" s="35">
+        <v>332.153639655105</v>
+      </c>
+      <c r="F19" s="35">
+        <v>2.1268032029839201</v>
+      </c>
+      <c r="G19" s="21">
+        <v>617.54941788782298</v>
       </c>
       <c r="H19">
         <v>-6.6554033317231402</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>4.5991928342116697E-2</v>
       </c>
       <c r="J19">
         <v>1.5635368550139701</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>1</v>
       </c>
       <c r="L19">
         <v>8.2189401867371092</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="21">
         <v>5.4754421013590004E-9</v>
       </c>
     </row>
@@ -2558,34 +2618,34 @@
       <c r="B20" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="21">
-        <v>1.3482837856063501</v>
-      </c>
-      <c r="E20">
-        <v>1.03742129794437</v>
-      </c>
-      <c r="F20">
-        <v>1.14170850034952</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1.8147296965664801</v>
+      <c r="D20" s="19">
+        <v>2.47681781031537</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.91877646456254503</v>
+      </c>
+      <c r="G20" s="21">
+        <v>8.0318773020316705</v>
       </c>
       <c r="H20">
         <v>-6.4606525370679204</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>2.3114545505978901E-2</v>
       </c>
       <c r="J20">
         <v>-3.36378036059476</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>0.178714321803082</v>
       </c>
       <c r="L20">
         <v>3.0968721764731701</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="21">
         <v>0.109914253040933</v>
       </c>
     </row>
@@ -2596,34 +2656,34 @@
       <c r="B21" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="21">
-        <v>2.77411902941494</v>
-      </c>
-      <c r="E21">
-        <v>1.9366787059244901</v>
-      </c>
-      <c r="F21">
-        <v>2.88935664639467</v>
-      </c>
-      <c r="G21" s="23">
-        <v>4.5708119506389497</v>
+      <c r="D21" s="19">
+        <v>8.5418043179153802</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0.49169659392239401</v>
+      </c>
+      <c r="F21" s="35">
+        <v>10.516412110690601</v>
+      </c>
+      <c r="G21" s="21">
+        <v>57.6517341909191</v>
       </c>
       <c r="H21">
         <v>-6.4512390081727897</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>3.4083428467944397E-2</v>
       </c>
       <c r="J21">
         <v>-4.0006893405641</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>8.0250062613787004E-2</v>
       </c>
       <c r="L21">
         <v>2.4505496676086902</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="21">
         <v>0.44925376266879302</v>
       </c>
     </row>
@@ -2634,34 +2694,34 @@
       <c r="B22" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="21">
-        <v>4.7573325723710704</v>
-      </c>
-      <c r="E22">
-        <v>2.4270384566238401</v>
-      </c>
-      <c r="F22">
-        <v>5.3142617883412804</v>
-      </c>
-      <c r="G22" s="23">
-        <v>4.9252200634349501</v>
+      <c r="D22" s="19">
+        <v>36.005197568658502</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0.27766788231163603</v>
+      </c>
+      <c r="F22" s="35">
+        <v>60.456000156257801</v>
+      </c>
+      <c r="G22" s="21">
+        <v>52.140572706338503</v>
       </c>
       <c r="H22">
         <v>-6.4371951068635802</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="21">
         <v>4.91300599163298E-2</v>
       </c>
       <c r="J22">
         <v>-6.6515125390512999</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="21">
         <v>1.0331610059484501E-4</v>
       </c>
       <c r="L22">
         <v>-0.21431743218771601</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2675,34 +2735,34 @@
       <c r="C23" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="21">
-        <v>4.4790327878627698</v>
-      </c>
-      <c r="E23">
-        <v>2.2746985231111299</v>
-      </c>
-      <c r="F23">
-        <v>4.5323322572668898</v>
-      </c>
-      <c r="G23" s="23">
-        <v>3.9964454460666698</v>
+      <c r="D23" s="19">
+        <v>34.328311493337303</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>36.941892635154701</v>
+      </c>
+      <c r="G23" s="21">
+        <v>21.688420480958101</v>
       </c>
       <c r="H23">
         <v>-6.3884877187001896</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>6.0961834980504202E-3</v>
       </c>
       <c r="J23">
         <v>-7.1597997701515697</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="21">
         <v>4.2122305564390002E-7</v>
       </c>
       <c r="L23">
         <v>-0.77131205145137105</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2716,34 +2776,34 @@
       <c r="C24" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="21">
-        <v>3.5767074094567999</v>
-      </c>
-      <c r="E24">
-        <v>2.0894694642760299</v>
-      </c>
-      <c r="F24">
-        <v>3.59293275195399</v>
-      </c>
-      <c r="G24" s="23">
-        <v>3.87851735313714</v>
+      <c r="D24" s="19">
+        <v>17.4513946250038</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.21402871161075901</v>
+      </c>
+      <c r="F24" s="35">
+        <v>17.988277797420501</v>
+      </c>
+      <c r="G24" s="21">
+        <v>29.569781673227901</v>
       </c>
       <c r="H24">
         <v>-6.3215894976133997</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="21">
         <v>4.6470346039742899E-2</v>
       </c>
       <c r="J24">
         <v>-5.6067672617759303</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="21">
         <v>1.8265954706138E-3</v>
       </c>
       <c r="L24">
         <v>0.71482223583746796</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2757,34 +2817,34 @@
       <c r="C25" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="21">
-        <v>3.9913807755483299</v>
-      </c>
-      <c r="E25">
-        <v>2.2600950881436299</v>
-      </c>
-      <c r="F25">
-        <v>4.88679585299806</v>
-      </c>
-      <c r="G25" s="23">
-        <v>4.38947215474548</v>
+      <c r="D25" s="19">
+        <v>22.700451410030301</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>49.036115624332602</v>
+      </c>
+      <c r="G25" s="21">
+        <v>38.422086213554898</v>
       </c>
       <c r="H25">
         <v>-6.2095642437595799</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="21">
         <v>4.6086319223693002E-2</v>
       </c>
       <c r="J25">
         <v>-6.5621884193191899</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="21">
         <v>6.9022351447416394E-5</v>
       </c>
       <c r="L25">
         <v>-0.35262417555960401</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2798,34 +2858,34 @@
       <c r="C26" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="21">
-        <v>5.1164516562578299</v>
-      </c>
-      <c r="E26">
-        <v>2.9390817871360402</v>
-      </c>
-      <c r="F26">
-        <v>5.49604205579978</v>
-      </c>
-      <c r="G26" s="23">
-        <v>6.5228822670118598</v>
+      <c r="D26" s="19">
+        <v>44.431333446771703</v>
+      </c>
+      <c r="E26" s="35">
+        <v>1.7621433593397</v>
+      </c>
+      <c r="F26" s="35">
+        <v>56.553144298348499</v>
+      </c>
+      <c r="G26" s="21">
+        <v>159.38432757055199</v>
       </c>
       <c r="H26">
         <v>-6.1365204110871403</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="21">
         <v>7.0618160167769898E-3</v>
       </c>
       <c r="J26">
         <v>-4.6423091993625301</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="21">
         <v>1.19977704440046E-3</v>
       </c>
       <c r="L26">
         <v>1.49421121172461</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2836,34 +2896,34 @@
       <c r="B27" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="21">
-        <v>7.2894392609469003</v>
-      </c>
-      <c r="E27">
-        <v>2.8774657086649</v>
-      </c>
-      <c r="F27">
-        <v>7.9647794230885003</v>
-      </c>
-      <c r="G27" s="23">
-        <v>5.9998653335621803</v>
+      <c r="D27" s="19">
+        <v>221.76638446288101</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0.71010443738196705</v>
+      </c>
+      <c r="F27" s="35">
+        <v>367.76402112217397</v>
+      </c>
+      <c r="G27" s="21">
+        <v>85.178532195959505</v>
       </c>
       <c r="H27">
         <v>-6.0753085179039701</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="21">
         <v>3.0930276621700298E-2</v>
       </c>
       <c r="J27">
         <v>-8.1862869970787404</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="21">
         <v>7.4550028552366601E-9</v>
       </c>
       <c r="L27">
         <v>-2.1109784791747601</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="21">
         <v>0.76685560420004095</v>
       </c>
     </row>
@@ -2877,34 +2937,34 @@
       <c r="C28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="21">
-        <v>3.7366764503397798</v>
-      </c>
-      <c r="E28">
-        <v>2.3683233640366002</v>
-      </c>
-      <c r="F28">
-        <v>4.1872263579312001</v>
-      </c>
-      <c r="G28" s="23">
-        <v>4.3777015905245902</v>
+      <c r="D28" s="19">
+        <v>15.9000072964132</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.21402871161075901</v>
+      </c>
+      <c r="F28" s="35">
+        <v>24.984958846943101</v>
+      </c>
+      <c r="G28" s="21">
+        <v>37.185120655140601</v>
       </c>
       <c r="H28">
         <v>-6.0444113219261402</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="21">
         <v>2.3114545505978901E-2</v>
       </c>
       <c r="J28">
         <v>-5.4716823243436199</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="21">
         <v>8.3867930292059404E-4</v>
       </c>
       <c r="L28">
         <v>0.57272899758252505</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2918,34 +2978,34 @@
       <c r="C29" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="21">
-        <v>5.48949829677787</v>
-      </c>
-      <c r="E29">
-        <v>3.2909157770750701</v>
-      </c>
-      <c r="F29">
-        <v>5.0228959898940797</v>
-      </c>
-      <c r="G29" s="23">
-        <v>6.7865028295591596</v>
+      <c r="D29" s="19">
+        <v>52.196547115166403</v>
+      </c>
+      <c r="E29" s="35">
+        <v>3.9770666960110201</v>
+      </c>
+      <c r="F29" s="35">
+        <v>40.219461044489897</v>
+      </c>
+      <c r="G29" s="21">
+        <v>191.10057626261599</v>
       </c>
       <c r="H29">
         <v>-5.8923493642154297</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="22">
         <v>5.4188990287514998E-5</v>
       </c>
       <c r="J29">
         <v>-3.6453932208108601</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="21">
         <v>1.0679344908365699E-3</v>
       </c>
       <c r="L29">
         <v>2.2469561434045699</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="21">
         <v>0.20370212602319501</v>
       </c>
     </row>
@@ -2954,39 +3014,39 @@
         <v>45</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="21">
-        <v>5.6626070903593897</v>
-      </c>
-      <c r="E30">
-        <v>2.6719395876809102</v>
-      </c>
-      <c r="F30">
-        <v>6.1315938580944698</v>
-      </c>
-      <c r="G30" s="23">
-        <v>5.1635268368444498</v>
+      <c r="D30" s="19">
+        <v>70.826000342481194</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0.49607572577120801</v>
+      </c>
+      <c r="F30" s="35">
+        <v>106.636433158844</v>
+      </c>
+      <c r="G30" s="21">
+        <v>45.267699302437698</v>
       </c>
       <c r="H30">
         <v>-5.8137715829579397</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="21">
         <v>1.7354791289299201E-2</v>
       </c>
       <c r="J30">
         <v>-7.0506017190019099</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="21">
         <v>4.8005795518509398E-7</v>
       </c>
       <c r="L30">
         <v>-1.23683013604398</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3000,34 +3060,34 @@
       <c r="C31" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="21">
-        <v>4.1365910152677197</v>
-      </c>
-      <c r="E31">
-        <v>2.59639794300156</v>
-      </c>
-      <c r="F31">
-        <v>3.5854212269090802</v>
-      </c>
-      <c r="G31" s="23">
-        <v>4.7467957864398898</v>
+      <c r="D31" s="19">
+        <v>21.4414208669434</v>
+      </c>
+      <c r="E31" s="35">
+        <v>1.9111191240093099</v>
+      </c>
+      <c r="F31" s="35">
+        <v>12.7919448950963</v>
+      </c>
+      <c r="G31" s="21">
+        <v>58.768819499298303</v>
       </c>
       <c r="H31">
         <v>-5.7417491596491699</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <v>7.2867433378888897E-3</v>
       </c>
       <c r="J31">
         <v>-3.5391955456422899</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="21">
         <v>2.5645991350506901E-2</v>
       </c>
       <c r="L31">
         <v>2.20255361400688</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="21">
         <v>0.494458502149418</v>
       </c>
     </row>
@@ -3041,34 +3101,34 @@
       <c r="C32" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="21">
-        <v>3.9409581852006101</v>
-      </c>
-      <c r="E32">
-        <v>2.2010581144854</v>
-      </c>
-      <c r="F32">
-        <v>3.6637887383005601</v>
-      </c>
-      <c r="G32" s="23">
-        <v>3.29415480981918</v>
+      <c r="D32" s="19">
+        <v>26.793932757317599</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0.32899532500552903</v>
+      </c>
+      <c r="F32" s="35">
+        <v>18.5097937772485</v>
+      </c>
+      <c r="G32" s="21">
+        <v>12.212023234311101</v>
       </c>
       <c r="H32">
         <v>-5.6129388321754998</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="21">
         <v>9.3171796818454899E-3</v>
       </c>
       <c r="J32">
         <v>-6.2246468635883403</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="21">
         <v>3.9925180846172001E-6</v>
       </c>
       <c r="L32">
         <v>-0.61170803141284102</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3079,34 +3139,34 @@
       <c r="B33" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D33" s="21">
-        <v>5.23791742257787</v>
-      </c>
-      <c r="E33">
-        <v>3.84018184494836</v>
-      </c>
-      <c r="F33">
-        <v>5.4694899063712104</v>
-      </c>
-      <c r="G33" s="23">
-        <v>8.2593401263352906</v>
+      <c r="D33" s="19">
+        <v>38.387993014612903</v>
+      </c>
+      <c r="E33" s="35">
+        <v>7.47870898681564</v>
+      </c>
+      <c r="F33" s="35">
+        <v>46.192223543878598</v>
+      </c>
+      <c r="G33" s="21">
+        <v>434.89305631602298</v>
       </c>
       <c r="H33">
         <v>-5.5945329535797699</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="22">
         <v>1.6442803704781699E-8</v>
       </c>
       <c r="J33">
         <v>-2.3614260686697102</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="21">
         <v>4.3344623475644099E-2</v>
       </c>
       <c r="L33">
         <v>3.2331068849100602</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="21">
         <v>1.3911195305945699E-6</v>
       </c>
     </row>
@@ -3117,34 +3177,34 @@
       <c r="B34" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D34" s="21">
-        <v>6.6134451135594396</v>
-      </c>
-      <c r="E34">
-        <v>2.6714964650422202</v>
-      </c>
-      <c r="F34">
-        <v>8.0812791814890197</v>
-      </c>
-      <c r="G34" s="23">
-        <v>5.33708841494275</v>
+      <c r="D34" s="19">
+        <v>144.224170623113</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0.248037862885604</v>
+      </c>
+      <c r="F34" s="35">
+        <v>417.47990280261001</v>
+      </c>
+      <c r="G34" s="21">
+        <v>49.5632043873279</v>
       </c>
       <c r="H34">
         <v>-5.5799022388760999</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="21">
         <v>3.3909201541641898E-2</v>
       </c>
       <c r="J34">
         <v>-8.6534807293519407</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="21">
         <v>8.4695697735717203E-11</v>
       </c>
       <c r="L34">
         <v>-3.0735784904758399</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="21">
         <v>4.5548884917585002E-3</v>
       </c>
     </row>
@@ -3155,34 +3215,34 @@
       <c r="B35" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="21">
-        <v>8.7363584426298004</v>
-      </c>
-      <c r="E35">
-        <v>3.18526311247158</v>
-      </c>
-      <c r="F35">
-        <v>8.0227833743279398</v>
-      </c>
-      <c r="G35" s="23">
-        <v>5.7438061320442699</v>
+      <c r="D35" s="19">
+        <v>605.21094771272305</v>
+      </c>
+      <c r="E35" s="35">
+        <v>2.50109147147068</v>
+      </c>
+      <c r="F35" s="35">
+        <v>352.53592244250802</v>
+      </c>
+      <c r="G35" s="21">
+        <v>61.917262656255801</v>
       </c>
       <c r="H35">
         <v>-5.4862318877081204</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="21">
         <v>5.9794049453443297E-4</v>
       </c>
       <c r="J35">
         <v>-7.99414262445723</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="21">
         <v>4.20938696476729E-20</v>
       </c>
       <c r="L35">
         <v>-2.5079107367491198</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="21">
         <v>4.2057801858413499E-2</v>
       </c>
     </row>
@@ -3196,34 +3256,34 @@
       <c r="C36" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="21">
-        <v>9.2651719131488708</v>
-      </c>
-      <c r="E36">
-        <v>3.3817195340074102</v>
-      </c>
-      <c r="F36">
-        <v>9.1743669688545495</v>
-      </c>
-      <c r="G36" s="23">
-        <v>6.4804711809654201</v>
+      <c r="D36" s="19">
+        <v>856.713252146797</v>
+      </c>
+      <c r="E36" s="35">
+        <v>2.3015746087841902</v>
+      </c>
+      <c r="F36" s="35">
+        <v>833.29071386139799</v>
+      </c>
+      <c r="G36" s="21">
+        <v>101.78834207157099</v>
       </c>
       <c r="H36">
         <v>-5.4210662725990204</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="21">
         <v>9.2153935989220497E-3</v>
       </c>
       <c r="J36">
         <v>-8.4542872610016602</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="21">
         <v>3.7601077678086003E-17</v>
       </c>
       <c r="L36">
         <v>-3.0332209884026402</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="21">
         <v>2.37933342714866E-2</v>
       </c>
     </row>
@@ -3237,34 +3297,34 @@
       <c r="C37" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="21">
-        <v>6.0630688625183602</v>
-      </c>
-      <c r="E37">
-        <v>3.0581430928776601</v>
-      </c>
-      <c r="F37">
-        <v>5.7572094907341604</v>
-      </c>
-      <c r="G37" s="23">
-        <v>5.7107955673974704</v>
+      <c r="D37" s="19">
+        <v>100.71291430699701</v>
+      </c>
+      <c r="E37" s="35">
+        <v>2.6645790850645601</v>
+      </c>
+      <c r="F37" s="35">
+        <v>72.651630702517707</v>
+      </c>
+      <c r="G37" s="21">
+        <v>83.477238927365505</v>
       </c>
       <c r="H37">
         <v>-5.3998982563317899</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="21">
         <v>1.7662002549519999E-2</v>
       </c>
       <c r="J37">
         <v>-5.1998405872461904</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="21">
         <v>1.7694617027303898E-5</v>
       </c>
       <c r="L37">
         <v>0.200057669085595</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3278,34 +3338,34 @@
       <c r="C38" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="21">
-        <v>5.6165863467924604</v>
-      </c>
-      <c r="E38">
-        <v>2.95007751766502</v>
-      </c>
-      <c r="F38">
-        <v>7.0196832963791698</v>
-      </c>
-      <c r="G38" s="23">
-        <v>6.8375732289078099</v>
+      <c r="D38" s="19">
+        <v>57.049377616485401</v>
+      </c>
+      <c r="E38" s="35">
+        <v>1.49003851470795</v>
+      </c>
+      <c r="F38" s="35">
+        <v>202.74885790893401</v>
+      </c>
+      <c r="G38" s="21">
+        <v>227.45517541538501</v>
       </c>
       <c r="H38">
         <v>-5.3843266504413796</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="21">
         <v>3.6767949272006203E-2</v>
       </c>
       <c r="J38">
         <v>-5.2184197730914299</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="21">
         <v>1.21334840882295E-4</v>
       </c>
       <c r="L38">
         <v>0.16590687734995099</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3319,72 +3379,72 @@
       <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="21">
-        <v>3.10835694466655</v>
-      </c>
-      <c r="E39">
-        <v>2.6539245740339399</v>
-      </c>
-      <c r="F39">
-        <v>2.80107525823363</v>
-      </c>
-      <c r="G39" s="23">
-        <v>5.5589572296968299</v>
+      <c r="D39" s="19">
+        <v>8.1188441567595895</v>
+      </c>
+      <c r="E39" s="35">
+        <v>3.4019439833942799</v>
+      </c>
+      <c r="F39" s="35">
+        <v>5.8213226574673902</v>
+      </c>
+      <c r="G39" s="21">
+        <v>95.307048948918705</v>
       </c>
       <c r="H39">
         <v>-5.2489049601085398</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="21">
         <v>3.8110888273269999E-2</v>
       </c>
       <c r="J39">
         <v>-1.2192220699212</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="21">
         <v>1</v>
       </c>
       <c r="L39">
         <v>4.02968289018734</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="21">
         <v>1.10633245831803E-3</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="D40" s="21">
-        <v>8.4874170584438708</v>
-      </c>
-      <c r="E40">
-        <v>4.5812883601254502</v>
-      </c>
-      <c r="F40">
-        <v>4.6959213795155996</v>
-      </c>
-      <c r="G40" s="23">
-        <v>5.3765397869227796</v>
-      </c>
-      <c r="H40">
+      <c r="D40" s="28">
+        <v>538.29921606790197</v>
+      </c>
+      <c r="E40" s="36">
+        <v>23.733448958012598</v>
+      </c>
+      <c r="F40" s="36">
+        <v>27.549696555140098</v>
+      </c>
+      <c r="G40" s="30">
+        <v>45.621127406668101</v>
+      </c>
+      <c r="H40" s="29">
         <v>-5.2129172893047198</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="30">
         <v>1.1843421304836099E-3</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="29">
         <v>-4.4882260875154198</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="30">
         <v>6.3444275041462504E-7</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="29">
         <v>0.72469120178929902</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3398,34 +3458,34 @@
       <c r="C41" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="21">
-        <v>5.14094024915474</v>
-      </c>
-      <c r="E41">
-        <v>3.65301786910016</v>
-      </c>
-      <c r="F41">
-        <v>4.45949266889615</v>
-      </c>
-      <c r="G41" s="23">
-        <v>6.6945462472706696</v>
+      <c r="D41" s="19">
+        <v>34.821847641731402</v>
+      </c>
+      <c r="E41" s="35">
+        <v>7.48061068445893</v>
+      </c>
+      <c r="F41" s="35">
+        <v>18.879452994859999</v>
+      </c>
+      <c r="G41" s="21">
+        <v>152.469686840181</v>
       </c>
       <c r="H41">
         <v>-5.2051724139797599</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="21">
         <v>2.6041768967479599E-3</v>
       </c>
       <c r="J41">
         <v>-2.18883425945483</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="21">
         <v>0.33498017593636398</v>
       </c>
       <c r="L41">
         <v>3.0163381545249299</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="21">
         <v>1.2264603409011801E-2</v>
       </c>
     </row>
@@ -3439,34 +3499,34 @@
       <c r="C42" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="21">
-        <v>5.78940986897722</v>
-      </c>
-      <c r="E42">
-        <v>3.9801408589831802</v>
-      </c>
-      <c r="F42">
-        <v>4.6087937275806699</v>
-      </c>
-      <c r="G42" s="23">
-        <v>6.8734275289054798</v>
+      <c r="D42" s="19">
+        <v>69.578841747886202</v>
+      </c>
+      <c r="E42" s="35">
+        <v>11.647013425587399</v>
+      </c>
+      <c r="F42" s="35">
+        <v>28.700051690164901</v>
+      </c>
+      <c r="G42" s="21">
+        <v>179.247980381048</v>
       </c>
       <c r="H42">
         <v>-5.1985868477694002</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="21">
         <v>9.2153935989220497E-3</v>
       </c>
       <c r="J42">
         <v>-2.5580623920429502</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="21">
         <v>0.16659355350187099</v>
       </c>
       <c r="L42">
         <v>2.6405244557264602</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="21">
         <v>0.14350042468867799</v>
       </c>
     </row>
@@ -3480,34 +3540,34 @@
       <c r="C43" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="21">
-        <v>3.1037709120315302</v>
-      </c>
-      <c r="E43">
-        <v>3.4415303871605101</v>
-      </c>
-      <c r="F43">
-        <v>3.2404048856796699</v>
-      </c>
-      <c r="G43" s="23">
-        <v>7.7729994433405896</v>
+      <c r="D43" s="19">
+        <v>4.6897230998906299</v>
+      </c>
+      <c r="E43" s="35">
+        <v>7.21696672966854</v>
+      </c>
+      <c r="F43" s="35">
+        <v>5.9723110914746798</v>
+      </c>
+      <c r="G43" s="21">
+        <v>351.36391403948898</v>
       </c>
       <c r="H43">
         <v>-5.1831627566268397</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="22">
         <v>5.4188990287514998E-5</v>
       </c>
       <c r="J43">
         <v>0.68870201742904502</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="21">
         <v>1</v>
       </c>
       <c r="L43">
         <v>5.8718647740558803</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="21">
         <v>1.32154755767406E-22</v>
       </c>
     </row>
@@ -3518,34 +3578,34 @@
       <c r="B44" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D44" s="21">
-        <v>7.9199289441239102</v>
-      </c>
-      <c r="E44">
-        <v>3.1052882304960501</v>
-      </c>
-      <c r="F44">
-        <v>8.2518056495873502</v>
-      </c>
-      <c r="G44" s="23">
-        <v>6.1691397249292397</v>
+      <c r="D44" s="19">
+        <v>318.67989271676998</v>
+      </c>
+      <c r="E44" s="35">
+        <v>1.4982009812753101</v>
+      </c>
+      <c r="F44" s="35">
+        <v>427.30226288999501</v>
+      </c>
+      <c r="G44" s="21">
+        <v>81.363900135651804</v>
       </c>
       <c r="H44">
         <v>-5.1791738314684803</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="21">
         <v>3.8110888273269999E-2</v>
       </c>
       <c r="J44">
         <v>-7.5723252140857698</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="21">
         <v>2.36620384042044E-11</v>
       </c>
       <c r="L44">
         <v>-2.3931513826173001</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="21">
         <v>0.30448107120130702</v>
       </c>
     </row>
@@ -3553,40 +3613,40 @@
       <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>329</v>
+      <c r="B45" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="C45" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="21">
-        <v>5.2792879839924103</v>
-      </c>
-      <c r="E45">
-        <v>3.3925525609350098</v>
-      </c>
-      <c r="F45">
-        <v>5.84741377051252</v>
-      </c>
-      <c r="G45" s="23">
-        <v>6.9508796699301003</v>
+      <c r="D45" s="19">
+        <v>46.069044845418198</v>
+      </c>
+      <c r="E45" s="35">
+        <v>4.6321911282936004</v>
+      </c>
+      <c r="F45" s="35">
+        <v>65.876415364610097</v>
+      </c>
+      <c r="G45" s="21">
+        <v>241.00626990926099</v>
       </c>
       <c r="H45">
         <v>-5.1567061846761204</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="21">
         <v>1.5266229403955601E-2</v>
       </c>
       <c r="J45">
         <v>-3.2851504009969199</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="21">
         <v>2.4533276227848198E-2</v>
       </c>
       <c r="L45">
         <v>1.8715557836792001</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3600,34 +3660,34 @@
       <c r="C46" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="21">
-        <v>8.6093194578358307</v>
-      </c>
-      <c r="E46">
-        <v>4.1287508003825302</v>
-      </c>
-      <c r="F46">
-        <v>8.2855308406552108</v>
-      </c>
-      <c r="G46" s="23">
-        <v>7.7147029360236301</v>
+      <c r="D46" s="19">
+        <v>489.38530503920498</v>
+      </c>
+      <c r="E46" s="35">
+        <v>9.9702382946494694</v>
+      </c>
+      <c r="F46" s="35">
+        <v>380.785092596553</v>
+      </c>
+      <c r="G46" s="21">
+        <v>277.04886079762701</v>
       </c>
       <c r="H46">
         <v>-5.1282600192098302</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="21">
         <v>8.5877979507530105E-3</v>
       </c>
       <c r="J46">
         <v>-5.5873792188877403</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="21">
         <v>9.7131899367061E-9</v>
       </c>
       <c r="L46">
         <v>-0.45911919967790998</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3636,39 +3696,39 @@
         <v>62</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C47" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="21">
-        <v>6.7686551365716996</v>
-      </c>
-      <c r="E47">
-        <v>3.4061569117186998</v>
-      </c>
-      <c r="F47">
-        <v>8.1966419542113993</v>
-      </c>
-      <c r="G47" s="23">
-        <v>7.4513383183027901</v>
+      <c r="D47" s="19">
+        <v>122.91731637144601</v>
+      </c>
+      <c r="E47" s="35">
+        <v>2.7871499439427398</v>
+      </c>
+      <c r="F47" s="35">
+        <v>388.09577584413501</v>
+      </c>
+      <c r="G47" s="21">
+        <v>314.95933871666102</v>
       </c>
       <c r="H47">
         <v>-5.0811343511982097</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="21">
         <v>5.7647330568859198E-3</v>
       </c>
       <c r="J47">
         <v>-5.3822750362991902</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="21">
         <v>8.4193218895929898E-8</v>
       </c>
       <c r="L47">
         <v>-0.30114068510098202</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3677,39 +3737,39 @@
         <v>63</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="21">
-        <v>8.56090752927091</v>
-      </c>
-      <c r="E48">
-        <v>2.8443761680785098</v>
-      </c>
-      <c r="F48">
-        <v>8.3514662000009299</v>
-      </c>
-      <c r="G48" s="23">
-        <v>4.7001113827764103</v>
+      <c r="D48" s="19">
+        <v>559.01495255253894</v>
+      </c>
+      <c r="E48" s="35">
+        <v>0.85611484644303504</v>
+      </c>
+      <c r="F48" s="35">
+        <v>473.221452654487</v>
+      </c>
+      <c r="G48" s="21">
+        <v>27.6124982874918</v>
       </c>
       <c r="H48">
         <v>-5.0321308396857596</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="21">
         <v>1.9164450306357501E-2</v>
       </c>
       <c r="J48">
         <v>-9.1279096940351305</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="21">
         <v>1.3897952121920101E-17</v>
       </c>
       <c r="L48">
         <v>-4.0957788543493701</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="21">
         <v>4.4704404484058303E-8</v>
       </c>
     </row>
@@ -3723,34 +3783,34 @@
       <c r="C49" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="21">
-        <v>6.4293584340966197</v>
-      </c>
-      <c r="E49">
-        <v>3.0705650891572098</v>
-      </c>
-      <c r="F49">
-        <v>6.8790539122352001</v>
-      </c>
-      <c r="G49" s="23">
-        <v>5.9014923404291499</v>
+      <c r="D49" s="19">
+        <v>130.602371607984</v>
+      </c>
+      <c r="E49" s="35">
+        <v>1.9217186127181201</v>
+      </c>
+      <c r="F49" s="35">
+        <v>166.918161679875</v>
+      </c>
+      <c r="G49" s="21">
+        <v>81.372448338982906</v>
       </c>
       <c r="H49">
         <v>-4.9732497598592804</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="21">
         <v>5.1643786413545101E-3</v>
       </c>
       <c r="J49">
         <v>-6.0110244704536404</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="21">
         <v>5.7735964491087597E-10</v>
       </c>
       <c r="L49">
         <v>-1.03777471059437</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3759,39 +3819,39 @@
         <v>65</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="21">
-        <v>7.0106381059920704</v>
-      </c>
-      <c r="E50">
-        <v>4.6889009622461302</v>
-      </c>
-      <c r="F50">
-        <v>6.3555801653175399</v>
-      </c>
-      <c r="G50" s="23">
-        <v>8.2074552345187897</v>
+      <c r="D50" s="19">
+        <v>150.82186270667501</v>
+      </c>
+      <c r="E50" s="35">
+        <v>20.452951742682998</v>
+      </c>
+      <c r="F50" s="35">
+        <v>95.435568457590094</v>
+      </c>
+      <c r="G50" s="21">
+        <v>399.882734106822</v>
       </c>
       <c r="H50">
         <v>-4.9279129994277202</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="21">
         <v>1.35907185055167E-3</v>
       </c>
       <c r="J50">
         <v>-2.8618540267212</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="21">
         <v>1.3854715197187201E-2</v>
       </c>
       <c r="L50">
         <v>2.0660589727065202</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="21">
         <v>0.38114989449457698</v>
       </c>
     </row>
@@ -3802,34 +3862,34 @@
       <c r="B51" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D51" s="21">
-        <v>5.0190791033300499</v>
-      </c>
-      <c r="E51">
-        <v>3.0212194371180798</v>
-      </c>
-      <c r="F51">
-        <v>4.2296481457538198</v>
-      </c>
-      <c r="G51" s="23">
-        <v>4.9350761085980297</v>
+      <c r="D51" s="19">
+        <v>48.096289708127998</v>
+      </c>
+      <c r="E51" s="35">
+        <v>3.47592463159405</v>
+      </c>
+      <c r="F51" s="35">
+        <v>21.619202491606998</v>
+      </c>
+      <c r="G51" s="21">
+        <v>45.270762101921697</v>
       </c>
       <c r="H51">
         <v>-4.8795469834385496</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="21">
         <v>8.7544861005570494E-3</v>
       </c>
       <c r="J51">
         <v>-3.8182629369497301</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="21">
         <v>8.7710478534933501E-4</v>
       </c>
       <c r="L51">
         <v>1.06128404648882</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3838,39 +3898,39 @@
         <v>67</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="21">
-        <v>6.9238362052381603</v>
-      </c>
-      <c r="E52">
-        <v>5.99991070607983</v>
-      </c>
-      <c r="F52">
-        <v>6.7205312804019304</v>
-      </c>
-      <c r="G52" s="23">
-        <v>10.3443994697682</v>
+      <c r="D52" s="19">
+        <v>123.00713951553401</v>
+      </c>
+      <c r="E52" s="35">
+        <v>58.2635886845529</v>
+      </c>
+      <c r="F52" s="35">
+        <v>132.15793021035199</v>
+      </c>
+      <c r="G52" s="21">
+        <v>1800.0351083094099</v>
       </c>
       <c r="H52">
         <v>-4.8430132422876602</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="21">
         <v>5.7647330568859198E-3</v>
       </c>
       <c r="J52">
         <v>-1.07563955456577</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="21">
         <v>1</v>
       </c>
       <c r="L52">
         <v>3.7673736877218902</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="21">
         <v>1.03973865525599E-4</v>
       </c>
     </row>
@@ -3881,34 +3941,34 @@
       <c r="B53" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D53" s="21">
-        <v>6.6618811073968596</v>
-      </c>
-      <c r="E53">
-        <v>5.8649572131982097</v>
-      </c>
-      <c r="F53">
-        <v>5.7973196630278601</v>
-      </c>
-      <c r="G53" s="23">
-        <v>8.9725464833018194</v>
+      <c r="D53" s="19">
+        <v>111.050088797789</v>
+      </c>
+      <c r="E53" s="35">
+        <v>52.012739711355202</v>
+      </c>
+      <c r="F53" s="35">
+        <v>52.151184979424599</v>
+      </c>
+      <c r="G53" s="21">
+        <v>678.20975675026398</v>
       </c>
       <c r="H53">
         <v>-4.7921094942420996</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="22">
         <v>9.7868600267290801E-6</v>
       </c>
       <c r="J53">
         <v>-1.0926102154003401</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="21">
         <v>1</v>
       </c>
       <c r="L53">
         <v>3.6994992788417602</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="21">
         <v>2.0807246779357699E-8</v>
       </c>
     </row>
@@ -3922,34 +3982,34 @@
       <c r="C54" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="21">
-        <v>12.0421054916772</v>
-      </c>
-      <c r="E54">
-        <v>8.8304366125084197</v>
-      </c>
-      <c r="F54">
-        <v>11.7481704137256</v>
-      </c>
-      <c r="G54" s="23">
-        <v>12.7635421394953</v>
+      <c r="D54" s="19">
+        <v>4572.1147917245698</v>
+      </c>
+      <c r="E54" s="35">
+        <v>428.97864318287401</v>
+      </c>
+      <c r="F54" s="35">
+        <v>3865.0375659906899</v>
+      </c>
+      <c r="G54" s="21">
+        <v>9802.4846995649696</v>
       </c>
       <c r="H54">
         <v>-4.75564522059301</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="21">
         <v>1.4218196071272701E-3</v>
       </c>
       <c r="J54">
         <v>-3.41299080206992</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="21">
         <v>2.9977785353854002E-4</v>
       </c>
       <c r="L54">
         <v>1.34265441852309</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3958,39 +4018,39 @@
         <v>70</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="21">
-        <v>6.4369672655566701</v>
-      </c>
-      <c r="E55">
-        <v>2.6739651036689098</v>
-      </c>
-      <c r="F55">
-        <v>6.5182470254412896</v>
-      </c>
-      <c r="G55" s="23">
-        <v>4.4263540169298397</v>
+      <c r="D55" s="19">
+        <v>127.071592142198</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0.98698597501658702</v>
+      </c>
+      <c r="F55" s="35">
+        <v>135.38893917136099</v>
+      </c>
+      <c r="G55" s="21">
+        <v>22.5514354614143</v>
       </c>
       <c r="H55">
         <v>-4.7381622166622899</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="21">
         <v>3.6929643625574902E-2</v>
       </c>
       <c r="J55">
         <v>-7.3261329982547396</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="21">
         <v>2.4981750695271702E-10</v>
       </c>
       <c r="L55">
         <v>-2.58797078159246</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="21">
         <v>2.5604739262320799E-3</v>
       </c>
     </row>
@@ -3999,39 +4059,39 @@
         <v>71</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="21">
-        <v>5.4547103863690296</v>
-      </c>
-      <c r="E56">
-        <v>3.2485461943428802</v>
-      </c>
-      <c r="F56">
-        <v>6.0549666089924203</v>
-      </c>
-      <c r="G56" s="23">
-        <v>6.2123687837182597</v>
+      <c r="D56" s="19">
+        <v>55.136658014150797</v>
+      </c>
+      <c r="E56" s="35">
+        <v>3.3295465489957699</v>
+      </c>
+      <c r="F56" s="35">
+        <v>83.590028160050096</v>
+      </c>
+      <c r="G56" s="21">
+        <v>138.34147016402</v>
       </c>
       <c r="H56">
         <v>-4.7181595614328504</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="21">
         <v>2.6909596248867899E-2</v>
       </c>
       <c r="J56">
         <v>-3.9917310212169199</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="21">
         <v>8.3867930292059404E-4</v>
       </c>
       <c r="L56">
         <v>0.72642854021592296</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4042,34 +4102,34 @@
       <c r="B57" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D57" s="21">
-        <v>7.1930697492103404</v>
-      </c>
-      <c r="E57">
-        <v>3.2564861378337402</v>
-      </c>
-      <c r="F57">
-        <v>5.1965517446195104</v>
-      </c>
-      <c r="G57" s="23">
-        <v>4.5361705323306101</v>
+      <c r="D57" s="19">
+        <v>242.38397878459199</v>
+      </c>
+      <c r="E57" s="35">
+        <v>5.6113042823857198</v>
+      </c>
+      <c r="F57" s="35">
+        <v>45.457339578399299</v>
+      </c>
+      <c r="G57" s="21">
+        <v>28.482855648759202</v>
       </c>
       <c r="H57">
         <v>-4.6822708246649798</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="21">
         <v>1.5219479452442399E-3</v>
       </c>
       <c r="J57">
         <v>-5.3663001860288597</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="21">
         <v>8.6286188286550496E-12</v>
       </c>
       <c r="L57">
         <v>-0.68402936136387105</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4083,34 +4143,34 @@
       <c r="C58" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="21">
-        <v>9.7415568878715497</v>
-      </c>
-      <c r="E58">
-        <v>5.1370568122272697</v>
-      </c>
-      <c r="F58">
-        <v>10.588088257684699</v>
-      </c>
-      <c r="G58" s="23">
-        <v>9.8112797561334695</v>
+      <c r="D58" s="19">
+        <v>1007.06695603476</v>
+      </c>
+      <c r="E58" s="35">
+        <v>23.249255804445198</v>
+      </c>
+      <c r="F58" s="35">
+        <v>1950.5146637637399</v>
+      </c>
+      <c r="G58" s="21">
+        <v>1099.7250233571499</v>
       </c>
       <c r="H58">
         <v>-4.5958238223878602</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="21">
         <v>3.6099001122245301E-3</v>
       </c>
       <c r="J58">
         <v>-5.4225964467186296</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="21">
         <v>2.6221189638939398E-12</v>
       </c>
       <c r="L58">
         <v>-0.82677262433077603</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4119,39 +4179,39 @@
         <v>74</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C59" t="s">
         <v>203</v>
       </c>
-      <c r="D59" s="21">
-        <v>3.47469408205151</v>
-      </c>
-      <c r="E59">
-        <v>2.5019370453635998</v>
-      </c>
-      <c r="F59">
-        <v>3.19795448028747</v>
-      </c>
-      <c r="G59" s="23">
-        <v>4.33058282156082</v>
+      <c r="D59" s="19">
+        <v>12.7212434366567</v>
+      </c>
+      <c r="E59" s="35">
+        <v>2.0282858583213601</v>
+      </c>
+      <c r="F59" s="35">
+        <v>9.1987139759195404</v>
+      </c>
+      <c r="G59" s="21">
+        <v>36.555897435376103</v>
       </c>
       <c r="H59">
         <v>-4.5038319566586598</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="21">
         <v>1.6834865362881601E-2</v>
       </c>
       <c r="J59">
         <v>-2.5111070623657699</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="21">
         <v>0.162869147284183</v>
       </c>
       <c r="L59">
         <v>1.9927248942928799</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="21">
         <v>0.38148848336885999</v>
       </c>
     </row>
@@ -4162,34 +4222,34 @@
       <c r="B60" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D60" s="21">
-        <v>9.9141828117723101</v>
-      </c>
-      <c r="E60">
-        <v>4.7482223269808701</v>
-      </c>
-      <c r="F60">
-        <v>10.5161037879272</v>
-      </c>
-      <c r="G60" s="23">
-        <v>8.7843499868953803</v>
+      <c r="D60" s="19">
+        <v>1195.73774048583</v>
+      </c>
+      <c r="E60" s="35">
+        <v>15.2370191880192</v>
+      </c>
+      <c r="F60" s="35">
+        <v>1972.8567005135999</v>
+      </c>
+      <c r="G60" s="21">
+        <v>552.76621287089904</v>
       </c>
       <c r="H60">
         <v>-4.4438153638286302</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="21">
         <v>1.5916199669105599E-3</v>
       </c>
       <c r="J60">
         <v>-6.2792979611817001</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="21">
         <v>5.1250233119148899E-20</v>
       </c>
       <c r="L60">
         <v>-1.83548259735307</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="21">
         <v>0.55593368977573299</v>
       </c>
     </row>
@@ -4198,39 +4258,39 @@
         <v>76</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
         <v>204</v>
       </c>
-      <c r="D61" s="21">
-        <v>8.1054139696797893</v>
-      </c>
-      <c r="E61">
-        <v>4.4559126478803899</v>
-      </c>
-      <c r="F61">
-        <v>7.1618715962101698</v>
-      </c>
-      <c r="G61" s="23">
-        <v>7.0067666928688102</v>
+      <c r="D61" s="19">
+        <v>360.25178602465297</v>
+      </c>
+      <c r="E61" s="35">
+        <v>14.6072447811939</v>
+      </c>
+      <c r="F61" s="35">
+        <v>173.261157794388</v>
+      </c>
+      <c r="G61" s="21">
+        <v>151.470593435284</v>
       </c>
       <c r="H61">
         <v>-4.41617486868389</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="21">
         <v>1.1843421304836099E-3</v>
       </c>
       <c r="J61">
         <v>-4.6099521331598101</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="21">
         <v>2.67187233671543E-10</v>
       </c>
       <c r="L61">
         <v>-0.193777264475925</v>
       </c>
-      <c r="M61" s="23">
+      <c r="M61" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4241,34 +4301,34 @@
       <c r="B62" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D62" s="21">
-        <v>5.9921227925345901</v>
-      </c>
-      <c r="E62">
-        <v>2.9483709443966601</v>
-      </c>
-      <c r="F62">
-        <v>4.8697953853869302</v>
-      </c>
-      <c r="G62" s="23">
-        <v>4.3266098654921104</v>
+      <c r="D62" s="19">
+        <v>98.677216990539804</v>
+      </c>
+      <c r="E62" s="35">
+        <v>2.22539383966713</v>
+      </c>
+      <c r="F62" s="35">
+        <v>43.297873454787698</v>
+      </c>
+      <c r="G62" s="21">
+        <v>21.4239243676213</v>
       </c>
       <c r="H62">
         <v>-4.4059756211687198</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="21">
         <v>1.70412841492464E-2</v>
       </c>
       <c r="J62">
         <v>-5.4239327609949104</v>
       </c>
-      <c r="K62" s="23">
+      <c r="K62" s="21">
         <v>7.4542178025508398E-9</v>
       </c>
       <c r="L62">
         <v>-1.01795713982618</v>
       </c>
-      <c r="M62" s="23">
+      <c r="M62" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4277,39 +4337,39 @@
         <v>78</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C63" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="21">
-        <v>8.3652613628805597</v>
-      </c>
-      <c r="E63">
-        <v>4.4417318984936403</v>
-      </c>
-      <c r="F63">
-        <v>8.9365251831009793</v>
-      </c>
-      <c r="G63" s="23">
-        <v>8.1357072773244905</v>
+      <c r="D63" s="19">
+        <v>403.55554946333501</v>
+      </c>
+      <c r="E63" s="35">
+        <v>13.265714170320599</v>
+      </c>
+      <c r="F63" s="35">
+        <v>600.49219052444596</v>
+      </c>
+      <c r="G63" s="21">
+        <v>414.81060963652101</v>
       </c>
       <c r="H63">
         <v>-4.3751119156309803</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="21">
         <v>3.1829750367243399E-2</v>
       </c>
       <c r="J63">
         <v>-4.9087251232291704</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="21">
         <v>1.23801628824839E-7</v>
       </c>
       <c r="L63">
         <v>-0.53361320759819797</v>
       </c>
-      <c r="M63" s="23">
+      <c r="M63" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4318,39 +4378,39 @@
         <v>79</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s">
         <v>206</v>
       </c>
-      <c r="D64" s="21">
-        <v>6.5068828749249503</v>
-      </c>
-      <c r="E64">
-        <v>3.8883751327013401</v>
-      </c>
-      <c r="F64">
-        <v>6.0521763544273801</v>
-      </c>
-      <c r="G64" s="23">
-        <v>6.4969499060665701</v>
+      <c r="D64" s="19">
+        <v>114.73908764321899</v>
+      </c>
+      <c r="E64" s="35">
+        <v>8.1334657455610095</v>
+      </c>
+      <c r="F64" s="35">
+        <v>81.1792698638817</v>
+      </c>
+      <c r="G64" s="21">
+        <v>120.266189127404</v>
       </c>
       <c r="H64">
         <v>-4.3573729057038397</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="21">
         <v>1.39716492967841E-3</v>
       </c>
       <c r="J64">
         <v>-3.79180085058863</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K64" s="21">
         <v>3.7541249259745299E-6</v>
       </c>
       <c r="L64">
         <v>0.56557205511521502</v>
       </c>
-      <c r="M64" s="23">
+      <c r="M64" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4359,77 +4419,77 @@
         <v>80</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C65" t="s">
         <v>207</v>
       </c>
-      <c r="D65" s="21">
-        <v>7.8026737696631896</v>
-      </c>
-      <c r="E65">
-        <v>3.7173691028095202</v>
-      </c>
-      <c r="F65">
-        <v>8.2746556758484395</v>
-      </c>
-      <c r="G65" s="23">
-        <v>6.8301377493393503</v>
+      <c r="D65" s="19">
+        <v>280.332264377174</v>
+      </c>
+      <c r="E65" s="35">
+        <v>4.8979747313691604</v>
+      </c>
+      <c r="F65" s="35">
+        <v>408.102361233159</v>
+      </c>
+      <c r="G65" s="21">
+        <v>143.055411379193</v>
       </c>
       <c r="H65">
         <v>-4.2862382546820399</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="21">
         <v>5.9786312789326399E-3</v>
       </c>
       <c r="J65">
         <v>-5.7986471829455501</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K65" s="21">
         <v>4.7610293567631399E-14</v>
       </c>
       <c r="L65">
         <v>-1.51240892826351</v>
       </c>
-      <c r="M65" s="23">
+      <c r="M65" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="D66" s="21">
-        <v>7.4046574583071401</v>
-      </c>
-      <c r="E66">
-        <v>6.67623924269631</v>
-      </c>
-      <c r="F66">
-        <v>4.1612280622830999</v>
-      </c>
-      <c r="G66" s="23">
-        <v>6.7534355636822996</v>
-      </c>
-      <c r="H66">
+      <c r="D66" s="28">
+        <v>203.68153515131601</v>
+      </c>
+      <c r="E66" s="36">
+        <v>117.943730148984</v>
+      </c>
+      <c r="F66" s="36">
+        <v>10.4612594064237</v>
+      </c>
+      <c r="G66" s="30">
+        <v>116.11783117251299</v>
+      </c>
+      <c r="H66" s="29">
         <v>-4.26975158053685</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="31">
         <v>1.1039411468338299E-5</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="29">
         <v>-0.790189245786584</v>
       </c>
-      <c r="K66" s="23">
-        <v>1</v>
-      </c>
-      <c r="L66">
+      <c r="K66" s="30">
+        <v>1</v>
+      </c>
+      <c r="L66" s="29">
         <v>3.4795623347502702</v>
       </c>
-      <c r="M66" s="23">
+      <c r="M66" s="30">
         <v>2.9152219466008499E-8</v>
       </c>
     </row>
@@ -4438,39 +4498,39 @@
         <v>82</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C67" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="21">
-        <v>8.6996348851026806</v>
-      </c>
-      <c r="E67">
-        <v>6.5415833597963999</v>
-      </c>
-      <c r="F67">
-        <v>7.5122255262041104</v>
-      </c>
-      <c r="G67" s="23">
-        <v>9.1854052635832808</v>
+      <c r="D67" s="19">
+        <v>490.57759218347798</v>
+      </c>
+      <c r="E67" s="35">
+        <v>99.265489952258505</v>
+      </c>
+      <c r="F67" s="35">
+        <v>196.99562738984</v>
+      </c>
+      <c r="G67" s="21">
+        <v>757.05243664832506</v>
       </c>
       <c r="H67">
         <v>-4.2470175425388703</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="21">
         <v>4.1277273706574302E-2</v>
       </c>
       <c r="J67">
         <v>-2.3049053507234301</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K67" s="21">
         <v>0.19845790053007401</v>
       </c>
       <c r="L67">
         <v>1.94211219181544</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M67" s="21">
         <v>0.74836131274277895</v>
       </c>
     </row>
@@ -4481,34 +4541,34 @@
       <c r="B68" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="21">
-        <v>5.3460887479778201</v>
-      </c>
-      <c r="E68">
-        <v>3.3492806607939198</v>
-      </c>
-      <c r="F68">
-        <v>4.6100096076549004</v>
-      </c>
-      <c r="G68" s="23">
-        <v>5.2058907026054397</v>
+      <c r="D68" s="19">
+        <v>61.86100961588</v>
+      </c>
+      <c r="E68" s="35">
+        <v>5.8882849181164802</v>
+      </c>
+      <c r="F68" s="35">
+        <v>28.6969631635666</v>
+      </c>
+      <c r="G68" s="21">
+        <v>51.823088122683203</v>
       </c>
       <c r="H68">
         <v>-4.1845418801217198</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="21">
         <v>1.42389691595234E-2</v>
       </c>
       <c r="J68">
         <v>-3.33562637720155</v>
       </c>
-      <c r="K68" s="23">
+      <c r="K68" s="21">
         <v>1.05427792141029E-3</v>
       </c>
       <c r="L68">
         <v>0.84891550292016305</v>
       </c>
-      <c r="M68" s="23">
+      <c r="M68" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4522,34 +4582,34 @@
       <c r="C69" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="21">
-        <v>8.4851212180534894</v>
-      </c>
-      <c r="E69">
-        <v>3.8071281687646699</v>
-      </c>
-      <c r="F69">
-        <v>7.4573861656087796</v>
-      </c>
-      <c r="G69" s="23">
-        <v>5.6781536793365399</v>
+      <c r="D69" s="19">
+        <v>525.01264232948495</v>
+      </c>
+      <c r="E69" s="35">
+        <v>7.3878691701846302</v>
+      </c>
+      <c r="F69" s="35">
+        <v>242.950505378537</v>
+      </c>
+      <c r="G69" s="21">
+        <v>59.0690772168115</v>
       </c>
       <c r="H69">
         <v>-4.1060726495226598</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="21">
         <v>4.8555489687011698E-2</v>
       </c>
       <c r="J69">
         <v>-6.1451538147763198</v>
       </c>
-      <c r="K69" s="23">
+      <c r="K69" s="21">
         <v>1.9985924881159401E-13</v>
       </c>
       <c r="L69">
         <v>-2.03908116525366</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="21">
         <v>0.46414426286306998</v>
       </c>
     </row>
@@ -4558,39 +4618,39 @@
         <v>85</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="21">
-        <v>9.4986220541630608</v>
-      </c>
-      <c r="E70">
-        <v>5.1024995882120399</v>
-      </c>
-      <c r="F70">
-        <v>9.2112712852785208</v>
-      </c>
-      <c r="G70" s="23">
-        <v>8.0453163677431405</v>
+      <c r="D70" s="19">
+        <v>927.59004376185203</v>
+      </c>
+      <c r="E70" s="35">
+        <v>23.877396351885999</v>
+      </c>
+      <c r="F70" s="35">
+        <v>726.85019176317905</v>
+      </c>
+      <c r="G70" s="21">
+        <v>323.61165908167601</v>
       </c>
       <c r="H70">
         <v>-4.1023463382966296</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="21">
         <v>1.8875318403042102E-2</v>
       </c>
       <c r="J70">
         <v>-5.2696231524519597</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="21">
         <v>1.19974823724074E-11</v>
       </c>
       <c r="L70">
         <v>-1.16727681415533</v>
       </c>
-      <c r="M70" s="23">
+      <c r="M70" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4599,80 +4659,80 @@
         <v>86</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="21">
-        <v>7.9898692248570597</v>
-      </c>
-      <c r="E71">
-        <v>4.3190774629890702</v>
-      </c>
-      <c r="F71">
-        <v>6.3726952991570798</v>
-      </c>
-      <c r="G71" s="23">
-        <v>6.06680740508697</v>
+      <c r="D71" s="19">
+        <v>358.750254926308</v>
+      </c>
+      <c r="E71" s="35">
+        <v>14.619814520410801</v>
+      </c>
+      <c r="F71" s="35">
+        <v>109.862338982723</v>
+      </c>
+      <c r="G71" s="21">
+        <v>77.618883783229805</v>
       </c>
       <c r="H71">
         <v>-4.0903807917700803</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="21">
         <v>1.8875318403042102E-2</v>
       </c>
       <c r="J71">
         <v>-4.5924408377052597</v>
       </c>
-      <c r="K71" s="23">
+      <c r="K71" s="21">
         <v>2.17642956412669E-8</v>
       </c>
       <c r="L71">
         <v>-0.50206004593518405</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M71" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="21">
-        <v>7.9771947165889099</v>
-      </c>
-      <c r="E72">
-        <v>4.6980827404101797</v>
-      </c>
-      <c r="F72">
-        <v>5.1617973173660001</v>
-      </c>
-      <c r="G72" s="23">
-        <v>5.2357997518073498</v>
-      </c>
-      <c r="H72">
+      <c r="D72" s="28">
+        <v>364.36330867855702</v>
+      </c>
+      <c r="E72" s="36">
+        <v>22.733271527801801</v>
+      </c>
+      <c r="F72" s="36">
+        <v>34.668861269837102</v>
+      </c>
+      <c r="G72" s="30">
+        <v>36.937557642463702</v>
+      </c>
+      <c r="H72" s="29">
         <v>-4.0752487341885297</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="31">
         <v>2.6071494907447401E-9</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="29">
         <v>-3.9849397547838499</v>
       </c>
-      <c r="K72" s="23">
+      <c r="K72" s="30">
         <v>7.7754340982858297E-21</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="29">
         <v>9.0308979404678497E-2</v>
       </c>
-      <c r="M72" s="23">
+      <c r="M72" s="30">
         <v>1</v>
       </c>
     </row>
@@ -4681,39 +4741,39 @@
         <v>88</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C73" t="s">
         <v>213</v>
       </c>
-      <c r="D73" s="21">
-        <v>8.0949966475267292</v>
-      </c>
-      <c r="E73">
-        <v>4.8572735369931896</v>
-      </c>
-      <c r="F73">
-        <v>8.6057308641841903</v>
-      </c>
-      <c r="G73" s="23">
-        <v>8.3317557550137895</v>
+      <c r="D73" s="19">
+        <v>336.52596105453102</v>
+      </c>
+      <c r="E73" s="35">
+        <v>22.084171268814298</v>
+      </c>
+      <c r="F73" s="35">
+        <v>468.216435355187</v>
+      </c>
+      <c r="G73" s="21">
+        <v>505.70886645213398</v>
       </c>
       <c r="H73">
         <v>-4.0348152333792102</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="21">
         <v>3.8415450589528201E-2</v>
       </c>
       <c r="J73">
         <v>-3.92361690885271</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="21">
         <v>2.4195625873750499E-5</v>
       </c>
       <c r="L73">
         <v>0.111198324526503</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4721,40 +4781,40 @@
       <c r="A74" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>345</v>
+      <c r="B74" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="C74" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="21">
-        <v>9.0788668682650808</v>
-      </c>
-      <c r="E74">
-        <v>6.4799117298299702</v>
-      </c>
-      <c r="F74">
-        <v>9.1162166669503293</v>
-      </c>
-      <c r="G74" s="23">
-        <v>10.1963412418011</v>
+      <c r="D74" s="19">
+        <v>565.30229701811299</v>
+      </c>
+      <c r="E74" s="35">
+        <v>78.4859160228457</v>
+      </c>
+      <c r="F74" s="35">
+        <v>594.35956721356297</v>
+      </c>
+      <c r="G74" s="21">
+        <v>1350.7743940615501</v>
       </c>
       <c r="H74">
         <v>-4.0276871596927402</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="21">
         <v>9.2153935989220497E-3</v>
       </c>
       <c r="J74">
         <v>-2.84329533682331</v>
       </c>
-      <c r="K74" s="23">
+      <c r="K74" s="21">
         <v>4.20055210090338E-3</v>
       </c>
       <c r="L74">
         <v>1.1843918228694299</v>
       </c>
-      <c r="M74" s="23">
+      <c r="M74" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4768,34 +4828,34 @@
       <c r="C75" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="21">
-        <v>10.578365988774101</v>
-      </c>
-      <c r="E75">
-        <v>4.9121131420741904</v>
-      </c>
-      <c r="F75">
-        <v>10.007187156864701</v>
-      </c>
-      <c r="G75" s="23">
-        <v>7.4949801740328104</v>
+      <c r="D75" s="19">
+        <v>1987.5065758933799</v>
+      </c>
+      <c r="E75" s="35">
+        <v>18.635009741519401</v>
+      </c>
+      <c r="F75" s="35">
+        <v>1343.9734170854699</v>
+      </c>
+      <c r="G75" s="21">
+        <v>196.859977996114</v>
       </c>
       <c r="H75">
         <v>-3.9477554285073002</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="21">
         <v>5.8998194033135802E-3</v>
       </c>
       <c r="J75">
         <v>-6.71832707946675</v>
       </c>
-      <c r="K75" s="23">
+      <c r="K75" s="21">
         <v>3.93125180216822E-27</v>
       </c>
       <c r="L75">
         <v>-2.7705716509594498</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M75" s="21">
         <v>1.7503165618057499E-3</v>
       </c>
     </row>
@@ -4804,39 +4864,39 @@
         <v>91</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="21">
-        <v>10.148147356434601</v>
-      </c>
-      <c r="E76">
-        <v>4.1178739346772799</v>
-      </c>
-      <c r="F76">
-        <v>9.2354685877918907</v>
-      </c>
-      <c r="G76" s="23">
-        <v>6.0707624497815402</v>
+      <c r="D76" s="19">
+        <v>1573.74969918338</v>
+      </c>
+      <c r="E76" s="35">
+        <v>9.0003794456746107</v>
+      </c>
+      <c r="F76" s="35">
+        <v>782.40254226694196</v>
+      </c>
+      <c r="G76" s="21">
+        <v>67.318613799984007</v>
       </c>
       <c r="H76">
         <v>-3.9110005840729798</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="21">
         <v>7.4497507466831396E-3</v>
       </c>
       <c r="J76">
         <v>-7.4483672019264304</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="21">
         <v>2.1820047610246799E-32</v>
       </c>
       <c r="L76">
         <v>-3.5373666178534502</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M76" s="21">
         <v>4.2123558269708201E-7</v>
       </c>
     </row>
@@ -4845,39 +4905,39 @@
         <v>92</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C77" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="21">
-        <v>10.752608669156301</v>
-      </c>
-      <c r="E77">
-        <v>4.21677066450229</v>
-      </c>
-      <c r="F77">
-        <v>10.2004997380915</v>
-      </c>
-      <c r="G77" s="23">
-        <v>6.5148851182920398</v>
+      <c r="D77" s="19">
+        <v>2365.76665186729</v>
+      </c>
+      <c r="E77" s="35">
+        <v>8.5553625871562407</v>
+      </c>
+      <c r="F77" s="35">
+        <v>1593.08700561968</v>
+      </c>
+      <c r="G77" s="21">
+        <v>87.160449143143893</v>
       </c>
       <c r="H77">
         <v>-3.88004966584323</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I77" s="21">
         <v>3.9674772275913102E-2</v>
       </c>
       <c r="J77">
         <v>-8.0715149712541407</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K77" s="21">
         <v>5.5839661212566199E-30</v>
       </c>
       <c r="L77">
         <v>-4.1914653054109099</v>
       </c>
-      <c r="M77" s="23">
+      <c r="M77" s="21">
         <v>3.2844351347155198E-8</v>
       </c>
     </row>
@@ -4886,39 +4946,39 @@
         <v>93</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C78" t="s">
         <v>218</v>
       </c>
-      <c r="D78" s="21">
-        <v>8.7957298621976694</v>
-      </c>
-      <c r="E78">
-        <v>5.2201782500336398</v>
-      </c>
-      <c r="F78">
-        <v>9.4280322519579407</v>
-      </c>
-      <c r="G78" s="23">
-        <v>8.8704508393513297</v>
+      <c r="D78" s="19">
+        <v>501.85468707531402</v>
+      </c>
+      <c r="E78" s="35">
+        <v>25.2935568896904</v>
+      </c>
+      <c r="F78" s="35">
+        <v>826.87935601515596</v>
+      </c>
+      <c r="G78" s="21">
+        <v>595.45214185438999</v>
       </c>
       <c r="H78">
         <v>-3.8281162807712001</v>
       </c>
-      <c r="I78" s="23">
+      <c r="I78" s="21">
         <v>1.39716492967841E-3</v>
       </c>
       <c r="J78">
         <v>-4.3019851287274102</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="21">
         <v>3.4791507108299601E-12</v>
       </c>
       <c r="L78">
         <v>-0.47386884795621098</v>
       </c>
-      <c r="M78" s="23">
+      <c r="M78" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4927,39 +4987,39 @@
         <v>94</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C79" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="21">
-        <v>5.8607918785702404</v>
-      </c>
-      <c r="E79">
-        <v>2.9002093028654601</v>
-      </c>
-      <c r="F79">
-        <v>5.6078022272665997</v>
-      </c>
-      <c r="G79" s="23">
-        <v>4.5288127666826403</v>
+      <c r="D79" s="19">
+        <v>86.0170654436577</v>
+      </c>
+      <c r="E79" s="35">
+        <v>2.1432524717161301</v>
+      </c>
+      <c r="F79" s="35">
+        <v>68.655317702655907</v>
+      </c>
+      <c r="G79" s="21">
+        <v>25.813047797662701</v>
       </c>
       <c r="H79">
         <v>-3.82770300172358</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I79" s="21">
         <v>3.0705706496153399E-2</v>
       </c>
       <c r="J79">
         <v>-5.2369960795332302</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K79" s="21">
         <v>7.5760514141196804E-10</v>
       </c>
       <c r="L79">
         <v>-1.40929307780965</v>
       </c>
-      <c r="M79" s="23">
+      <c r="M79" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4968,39 +5028,39 @@
         <v>95</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s">
         <v>220</v>
       </c>
-      <c r="D80" s="21">
-        <v>7.6249856703511902</v>
-      </c>
-      <c r="E80">
-        <v>4.4654939740450397</v>
-      </c>
-      <c r="F80">
-        <v>8.0554264006160601</v>
-      </c>
-      <c r="G80" s="23">
-        <v>7.4533268782233897</v>
+      <c r="D80" s="19">
+        <v>241.60866728268499</v>
+      </c>
+      <c r="E80" s="35">
+        <v>14.328422920452001</v>
+      </c>
+      <c r="F80" s="35">
+        <v>319.71190918608102</v>
+      </c>
+      <c r="G80" s="21">
+        <v>261.47922056292202</v>
       </c>
       <c r="H80">
         <v>-3.77873948770202</v>
       </c>
-      <c r="I80" s="23">
+      <c r="I80" s="21">
         <v>3.9301238891158802E-2</v>
       </c>
       <c r="J80">
         <v>-4.0684923954198</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K80" s="21">
         <v>1.2395595951624601E-6</v>
       </c>
       <c r="L80">
         <v>-0.28975290771777401</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M80" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5009,39 +5069,39 @@
         <v>96</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C81" t="s">
         <v>221</v>
       </c>
-      <c r="D81" s="21">
-        <v>7.9393613746212903</v>
-      </c>
-      <c r="E81">
-        <v>4.8420620485165697</v>
-      </c>
-      <c r="F81">
-        <v>7.6219223773401001</v>
-      </c>
-      <c r="G81" s="23">
-        <v>7.5741191097489002</v>
+      <c r="D81" s="19">
+        <v>286.56110259532301</v>
+      </c>
+      <c r="E81" s="35">
+        <v>19.575796174321599</v>
+      </c>
+      <c r="F81" s="35">
+        <v>227.709756681724</v>
+      </c>
+      <c r="G81" s="21">
+        <v>210.09664686230201</v>
       </c>
       <c r="H81">
         <v>-3.7358613117414299</v>
       </c>
-      <c r="I81" s="23">
+      <c r="I81" s="21">
         <v>2.3114545505978901E-2</v>
       </c>
       <c r="J81">
         <v>-3.8517635978026701</v>
       </c>
-      <c r="K81" s="23">
+      <c r="K81" s="21">
         <v>1.1910127047734201E-6</v>
       </c>
       <c r="L81">
         <v>-0.115902286061242</v>
       </c>
-      <c r="M81" s="23">
+      <c r="M81" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5050,39 +5110,39 @@
         <v>97</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C82" t="s">
         <v>222</v>
       </c>
-      <c r="D82" s="21">
-        <v>9.0974251584904504</v>
-      </c>
-      <c r="E82">
-        <v>5.6585465909329002</v>
-      </c>
-      <c r="F82">
-        <v>9.2335030461192193</v>
-      </c>
-      <c r="G82" s="23">
-        <v>8.9124380641387404</v>
+      <c r="D82" s="19">
+        <v>621.25064235754598</v>
+      </c>
+      <c r="E82" s="35">
+        <v>40.513355058002702</v>
+      </c>
+      <c r="F82" s="35">
+        <v>696.74981404322102</v>
+      </c>
+      <c r="G82" s="21">
+        <v>583.22165546624694</v>
       </c>
       <c r="H82">
         <v>-3.6708349866923302</v>
       </c>
-      <c r="I82" s="23">
+      <c r="I82" s="21">
         <v>2.0839618585324099E-2</v>
       </c>
       <c r="J82">
         <v>-3.92765864092225</v>
       </c>
-      <c r="K82" s="23">
+      <c r="K82" s="21">
         <v>1.59799589804859E-7</v>
       </c>
       <c r="L82">
         <v>-0.25682365422991899</v>
       </c>
-      <c r="M82" s="23">
+      <c r="M82" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5091,39 +5151,39 @@
         <v>98</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C83" t="s">
         <v>223</v>
       </c>
-      <c r="D83" s="21">
-        <v>8.3788068082566909</v>
-      </c>
-      <c r="E83">
-        <v>7.2560887569199304</v>
-      </c>
-      <c r="F83">
-        <v>8.5014017983184402</v>
-      </c>
-      <c r="G83" s="23">
-        <v>10.5876189996306</v>
+      <c r="D83" s="19">
+        <v>350.84934896350302</v>
+      </c>
+      <c r="E83" s="35">
+        <v>157.070159531184</v>
+      </c>
+      <c r="F83" s="35">
+        <v>365.920443640467</v>
+      </c>
+      <c r="G83" s="21">
+        <v>2064.9620469381898</v>
       </c>
       <c r="H83">
         <v>-3.6549076922280501</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I83" s="21">
         <v>2.45967791612061E-2</v>
       </c>
       <c r="J83">
         <v>-1.15854515399166</v>
       </c>
-      <c r="K83" s="23">
+      <c r="K83" s="21">
         <v>1</v>
       </c>
       <c r="L83">
         <v>2.4963625382363901</v>
       </c>
-      <c r="M83" s="23">
+      <c r="M83" s="21">
         <v>2.0721505107776799E-2</v>
       </c>
     </row>
@@ -5132,39 +5192,39 @@
         <v>99</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C84" t="s">
         <v>224</v>
       </c>
-      <c r="D84" s="21">
-        <v>8.4641795790917609</v>
-      </c>
-      <c r="E84">
-        <v>3.8692406488508602</v>
-      </c>
-      <c r="F84">
-        <v>9.2592378960925306</v>
-      </c>
-      <c r="G84" s="23">
-        <v>7.0342821510087603</v>
+      <c r="D84" s="19">
+        <v>442.41784451484602</v>
+      </c>
+      <c r="E84" s="35">
+        <v>6.3577575419039603</v>
+      </c>
+      <c r="F84" s="35">
+        <v>826.54395969755205</v>
+      </c>
+      <c r="G84" s="21">
+        <v>152.80926854776101</v>
       </c>
       <c r="H84">
         <v>-3.6533038787349801</v>
       </c>
-      <c r="I84" s="23">
+      <c r="I84" s="21">
         <v>4.0458711984907102E-2</v>
       </c>
       <c r="J84">
         <v>-6.0881701462701798</v>
       </c>
-      <c r="K84" s="23">
+      <c r="K84" s="21">
         <v>1.7270291123839199E-17</v>
       </c>
       <c r="L84">
         <v>-2.43486626753519</v>
       </c>
-      <c r="M84" s="23">
+      <c r="M84" s="21">
         <v>2.3210316181750901E-2</v>
       </c>
     </row>
@@ -5173,39 +5233,39 @@
         <v>100</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C85" t="s">
         <v>225</v>
       </c>
-      <c r="D85" s="21">
-        <v>6.4531819232864498</v>
-      </c>
-      <c r="E85">
-        <v>3.2699064940884801</v>
-      </c>
-      <c r="F85">
-        <v>6.6402581981136297</v>
-      </c>
-      <c r="G85" s="23">
-        <v>5.3351374083381096</v>
+      <c r="D85" s="19">
+        <v>119.28089638876</v>
+      </c>
+      <c r="E85" s="35">
+        <v>3.10932736814188</v>
+      </c>
+      <c r="F85" s="35">
+        <v>137.91806831675501</v>
+      </c>
+      <c r="G85" s="21">
+        <v>46.666667018081597</v>
       </c>
       <c r="H85">
         <v>-3.6210346682557302</v>
       </c>
-      <c r="I85" s="23">
+      <c r="I85" s="21">
         <v>3.2967597460607997E-2</v>
       </c>
       <c r="J85">
         <v>-5.1826580887490303</v>
       </c>
-      <c r="K85" s="23">
+      <c r="K85" s="21">
         <v>1.9052652602903399E-11</v>
       </c>
       <c r="L85">
         <v>-1.5616234204932999</v>
       </c>
-      <c r="M85" s="23">
+      <c r="M85" s="21">
         <v>0.90673758595322496</v>
       </c>
     </row>
@@ -5214,39 +5274,39 @@
         <v>101</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C86" t="s">
         <v>226</v>
       </c>
-      <c r="D86" s="21">
-        <v>5.35289563686388</v>
-      </c>
-      <c r="E86">
-        <v>3.3900351034655301</v>
-      </c>
-      <c r="F86">
-        <v>5.0264900463990303</v>
-      </c>
-      <c r="G86" s="23">
-        <v>5.2662531092307097</v>
+      <c r="D86" s="19">
+        <v>52.917466837492803</v>
+      </c>
+      <c r="E86" s="35">
+        <v>5.8845332576148301</v>
+      </c>
+      <c r="F86" s="35">
+        <v>38.204643736637401</v>
+      </c>
+      <c r="G86" s="21">
+        <v>51.611778628736097</v>
       </c>
       <c r="H86">
         <v>-3.5955737819024201</v>
       </c>
-      <c r="I86" s="23">
+      <c r="I86" s="21">
         <v>3.5682248303271699E-2</v>
       </c>
       <c r="J86">
         <v>-3.1654349382251898</v>
       </c>
-      <c r="K86" s="23">
+      <c r="K86" s="21">
         <v>7.0946323980994395E-4</v>
       </c>
       <c r="L86">
         <v>0.43013884367722999</v>
       </c>
-      <c r="M86" s="23">
+      <c r="M86" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5255,39 +5315,39 @@
         <v>102</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="21">
-        <v>5.2734332698167696</v>
-      </c>
-      <c r="E87">
-        <v>4.3107568523375299</v>
-      </c>
-      <c r="F87">
-        <v>3.85785322581164</v>
-      </c>
-      <c r="G87" s="23">
-        <v>5.3066043201425597</v>
+      <c r="D87" s="19">
+        <v>47.317296993987704</v>
+      </c>
+      <c r="E87" s="35">
+        <v>18.087180253269</v>
+      </c>
+      <c r="F87" s="35">
+        <v>11.220564228795499</v>
+      </c>
+      <c r="G87" s="21">
+        <v>48.635027018736402</v>
       </c>
       <c r="H87">
         <v>-3.50888876487421</v>
       </c>
-      <c r="I87" s="23">
+      <c r="I87" s="21">
         <v>5.9794049453443297E-4</v>
       </c>
       <c r="J87">
         <v>-1.37910796195187</v>
       </c>
-      <c r="K87" s="23">
+      <c r="K87" s="21">
         <v>0.92806972578188196</v>
       </c>
       <c r="L87">
         <v>2.12978080292234</v>
       </c>
-      <c r="M87" s="23">
+      <c r="M87" s="21">
         <v>1.47909666187522E-2</v>
       </c>
     </row>
@@ -5296,39 +5356,39 @@
         <v>103</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
         <v>228</v>
       </c>
-      <c r="D88" s="21">
-        <v>10.6460759089757</v>
-      </c>
-      <c r="E88">
-        <v>6.5317874556251203</v>
-      </c>
-      <c r="F88">
-        <v>11.0642023806881</v>
-      </c>
-      <c r="G88" s="23">
-        <v>9.8737191936460906</v>
+      <c r="D88" s="19">
+        <v>1854.0660024773099</v>
+      </c>
+      <c r="E88" s="35">
+        <v>70.536562619474907</v>
+      </c>
+      <c r="F88" s="35">
+        <v>2658.12301649963</v>
+      </c>
+      <c r="G88" s="21">
+        <v>1138.9729985900501</v>
       </c>
       <c r="H88">
         <v>-3.4942602762338</v>
       </c>
-      <c r="I88" s="23">
+      <c r="I88" s="21">
         <v>1.6057698042443301E-2</v>
       </c>
       <c r="J88">
         <v>-4.7169850607997201</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="21">
         <v>3.7015322025623003E-14</v>
       </c>
       <c r="L88">
         <v>-1.2227247845659199</v>
       </c>
-      <c r="M88" s="23">
+      <c r="M88" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5339,34 +5399,34 @@
       <c r="B89" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D89" s="21">
-        <v>8.8721979265437305</v>
-      </c>
-      <c r="E89">
-        <v>5.1553329298533201</v>
-      </c>
-      <c r="F89">
-        <v>8.5911045048663208</v>
-      </c>
-      <c r="G89" s="23">
-        <v>7.46725375596841</v>
+      <c r="D89" s="19">
+        <v>567.89601971444199</v>
+      </c>
+      <c r="E89" s="35">
+        <v>25.6267219285068</v>
+      </c>
+      <c r="F89" s="35">
+        <v>459.81748672459298</v>
+      </c>
+      <c r="G89" s="21">
+        <v>209.47900603821699</v>
       </c>
       <c r="H89">
         <v>-3.3173255028587998</v>
       </c>
-      <c r="I89" s="23">
+      <c r="I89" s="21">
         <v>5.1629961428887603E-3</v>
       </c>
       <c r="J89">
         <v>-4.4515459326793696</v>
       </c>
-      <c r="K89" s="23">
+      <c r="K89" s="21">
         <v>1.47207449600817E-16</v>
       </c>
       <c r="L89">
         <v>-1.13422042982056</v>
       </c>
-      <c r="M89" s="23">
+      <c r="M89" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5375,39 +5435,39 @@
         <v>105</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="21">
-        <v>6.3586672761373002</v>
-      </c>
-      <c r="E90">
-        <v>3.5695520562134102</v>
-      </c>
-      <c r="F90">
-        <v>7.1416613976688001</v>
-      </c>
-      <c r="G90" s="23">
-        <v>6.1771090743550499</v>
+      <c r="D90" s="19">
+        <v>105.02381216706701</v>
+      </c>
+      <c r="E90" s="35">
+        <v>4.6716342917514204</v>
+      </c>
+      <c r="F90" s="35">
+        <v>188.873454115274</v>
+      </c>
+      <c r="G90" s="21">
+        <v>83.834713815196196</v>
       </c>
       <c r="H90">
         <v>-3.26931318325334</v>
       </c>
-      <c r="I90" s="23">
+      <c r="I90" s="21">
         <v>2.35202306257618E-2</v>
       </c>
       <c r="J90">
         <v>-4.4411151744035697</v>
       </c>
-      <c r="K90" s="23">
+      <c r="K90" s="21">
         <v>5.0424323795468602E-11</v>
       </c>
       <c r="L90">
         <v>-1.17180199115023</v>
       </c>
-      <c r="M90" s="23">
+      <c r="M90" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5416,39 +5476,39 @@
         <v>106</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C91" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="21">
-        <v>5.0510950804346297</v>
-      </c>
-      <c r="E91">
-        <v>3.3041800451487902</v>
-      </c>
-      <c r="F91">
-        <v>5.2334571060838897</v>
-      </c>
-      <c r="G91" s="23">
-        <v>5.1149010764670004</v>
+      <c r="D91" s="19">
+        <v>42.8006322723948</v>
+      </c>
+      <c r="E91" s="35">
+        <v>4.1011891342574804</v>
+      </c>
+      <c r="F91" s="35">
+        <v>46.391735730911101</v>
+      </c>
+      <c r="G91" s="21">
+        <v>42.4420108139661</v>
       </c>
       <c r="H91">
         <v>-3.2511220289443599</v>
       </c>
-      <c r="I91" s="23">
+      <c r="I91" s="21">
         <v>2.6909596248867899E-2</v>
       </c>
       <c r="J91">
         <v>-3.3747934380540401</v>
       </c>
-      <c r="K91" s="23">
+      <c r="K91" s="21">
         <v>2.08995628536279E-5</v>
       </c>
       <c r="L91">
         <v>-0.12367140910968299</v>
       </c>
-      <c r="M91" s="23">
+      <c r="M91" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5457,39 +5517,39 @@
         <v>107</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C92" t="s">
         <v>231</v>
       </c>
-      <c r="D92" s="21">
-        <v>9.2359971897594999</v>
-      </c>
-      <c r="E92">
-        <v>7.9634035447481004</v>
-      </c>
-      <c r="F92">
-        <v>9.2758880053211907</v>
-      </c>
-      <c r="G92" s="23">
-        <v>10.8713521535966</v>
+      <c r="D92" s="19">
+        <v>620.74718156346398</v>
+      </c>
+      <c r="E92" s="35">
+        <v>242.087945625245</v>
+      </c>
+      <c r="F92" s="35">
+        <v>664.14687690351604</v>
+      </c>
+      <c r="G92" s="21">
+        <v>2403.4476524021602</v>
       </c>
       <c r="H92">
         <v>-3.21253767223739</v>
       </c>
-      <c r="I92" s="23">
+      <c r="I92" s="21">
         <v>4.7827107405571903E-2</v>
       </c>
       <c r="J92">
         <v>-1.35697074605145</v>
       </c>
-      <c r="K92" s="23">
+      <c r="K92" s="21">
         <v>1</v>
       </c>
       <c r="L92">
         <v>1.85556692618595</v>
       </c>
-      <c r="M92" s="23">
+      <c r="M92" s="21">
         <v>0.32098212709969798</v>
       </c>
     </row>
@@ -5500,34 +5560,34 @@
       <c r="B93" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="21">
-        <v>5.6329524457703704</v>
-      </c>
-      <c r="E93">
-        <v>3.7079838119035502</v>
-      </c>
-      <c r="F93">
-        <v>4.6762383866777499</v>
-      </c>
-      <c r="G93" s="23">
-        <v>4.8318762251278198</v>
+      <c r="D93" s="19">
+        <v>67.462057240572705</v>
+      </c>
+      <c r="E93" s="35">
+        <v>8.3502000149703495</v>
+      </c>
+      <c r="F93" s="35">
+        <v>26.666845576297099</v>
+      </c>
+      <c r="G93" s="21">
+        <v>30.948521072335499</v>
       </c>
       <c r="H93">
         <v>-3.2096635352373699</v>
       </c>
-      <c r="I93" s="23">
+      <c r="I93" s="21">
         <v>2.6346156180626201E-2</v>
       </c>
       <c r="J93">
         <v>-2.9962176180667002</v>
       </c>
-      <c r="K93" s="23">
+      <c r="K93" s="21">
         <v>8.7838945265124199E-5</v>
       </c>
       <c r="L93">
         <v>0.21344591717067399</v>
       </c>
-      <c r="M93" s="23">
+      <c r="M93" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5536,39 +5596,39 @@
         <v>109</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C94" t="s">
         <v>232</v>
       </c>
-      <c r="D94" s="21">
-        <v>9.0257661698810399</v>
-      </c>
-      <c r="E94">
-        <v>5.0158571225273496</v>
-      </c>
-      <c r="F94">
-        <v>9.3849139227052802</v>
-      </c>
-      <c r="G94" s="23">
-        <v>7.8205911003604403</v>
+      <c r="D94" s="19">
+        <v>650.642089988777</v>
+      </c>
+      <c r="E94" s="35">
+        <v>21.9203950589953</v>
+      </c>
+      <c r="F94" s="35">
+        <v>840.80653479471903</v>
+      </c>
+      <c r="G94" s="21">
+        <v>260.50257557014203</v>
       </c>
       <c r="H94">
         <v>-3.2069733266855698</v>
       </c>
-      <c r="I94" s="23">
+      <c r="I94" s="21">
         <v>1.7662002549519999E-2</v>
       </c>
       <c r="J94">
         <v>-4.8971844253993302</v>
       </c>
-      <c r="K94" s="23">
+      <c r="K94" s="21">
         <v>1.9127627339239901E-18</v>
       </c>
       <c r="L94">
         <v>-1.69021109871376</v>
       </c>
-      <c r="M94" s="23">
+      <c r="M94" s="21">
         <v>0.43317753929338998</v>
       </c>
     </row>
@@ -5577,39 +5637,39 @@
         <v>110</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C95" t="s">
         <v>233</v>
       </c>
-      <c r="D95" s="21">
-        <v>7.9158486780433899</v>
-      </c>
-      <c r="E95">
-        <v>4.13426833387161</v>
-      </c>
-      <c r="F95">
-        <v>7.4696694046307801</v>
-      </c>
-      <c r="G95" s="23">
-        <v>5.9208387457182097</v>
+      <c r="D95" s="19">
+        <v>312.558593341772</v>
+      </c>
+      <c r="E95" s="35">
+        <v>9.4951105659009301</v>
+      </c>
+      <c r="F95" s="35">
+        <v>214.34900577888601</v>
+      </c>
+      <c r="G95" s="21">
+        <v>60.922347278209202</v>
       </c>
       <c r="H95">
         <v>-3.20412528793385</v>
       </c>
-      <c r="I95" s="23">
+      <c r="I95" s="21">
         <v>2.45967791612061E-2</v>
       </c>
       <c r="J95">
         <v>-5.0180328734144704</v>
       </c>
-      <c r="K95" s="23">
+      <c r="K95" s="21">
         <v>1.4147581196048401E-17</v>
       </c>
       <c r="L95">
         <v>-1.8139075854806199</v>
       </c>
-      <c r="M95" s="23">
+      <c r="M95" s="21">
         <v>0.215349859340146</v>
       </c>
     </row>
@@ -5618,39 +5678,39 @@
         <v>111</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s">
         <v>234</v>
       </c>
-      <c r="D96" s="21">
-        <v>12.373078128526499</v>
-      </c>
-      <c r="E96">
-        <v>7.5563268695953498</v>
-      </c>
-      <c r="F96">
-        <v>11.509978035668199</v>
-      </c>
-      <c r="G96" s="23">
-        <v>9.5370948012933106</v>
+      <c r="D96" s="19">
+        <v>6696.2108649151196</v>
+      </c>
+      <c r="E96" s="35">
+        <v>163.517766977214</v>
+      </c>
+      <c r="F96" s="35">
+        <v>3442.4881615069999</v>
+      </c>
+      <c r="G96" s="21">
+        <v>730.94351304262</v>
       </c>
       <c r="H96">
         <v>-3.1156330500918799</v>
       </c>
-      <c r="I96" s="23">
+      <c r="I96" s="21">
         <v>1.2849942139451301E-2</v>
       </c>
       <c r="J96">
         <v>-5.3513551255592899</v>
       </c>
-      <c r="K96" s="23">
+      <c r="K96" s="21">
         <v>9.3428402812779706E-28</v>
       </c>
       <c r="L96">
         <v>-2.2357220754674101</v>
       </c>
-      <c r="M96" s="23">
+      <c r="M96" s="21">
         <v>8.1035768453468406E-3</v>
       </c>
     </row>
@@ -5659,39 +5719,39 @@
         <v>112</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C97" t="s">
         <v>235</v>
       </c>
-      <c r="D97" s="21">
-        <v>8.2205839600599706</v>
-      </c>
-      <c r="E97">
-        <v>6.0456855187409202</v>
-      </c>
-      <c r="F97">
-        <v>8.1641452297616599</v>
-      </c>
-      <c r="G97" s="23">
-        <v>8.6302765901974094</v>
+      <c r="D97" s="19">
+        <v>312.67035596465797</v>
+      </c>
+      <c r="E97" s="35">
+        <v>53.088261452885099</v>
+      </c>
+      <c r="F97" s="35">
+        <v>299.42891449005498</v>
+      </c>
+      <c r="G97" s="21">
+        <v>431.57298276120298</v>
       </c>
       <c r="H97">
         <v>-3.0755344593960201</v>
       </c>
-      <c r="I97" s="23">
+      <c r="I97" s="21">
         <v>3.8110888273269999E-2</v>
       </c>
       <c r="J97">
         <v>-2.5482064499120698</v>
       </c>
-      <c r="K97" s="23">
+      <c r="K97" s="21">
         <v>1.7521757069921199E-3</v>
       </c>
       <c r="L97">
         <v>0.52732800948395198</v>
       </c>
-      <c r="M97" s="23">
+      <c r="M97" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5700,39 +5760,39 @@
         <v>113</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C98" t="s">
         <v>236</v>
       </c>
-      <c r="D98" s="21">
-        <v>6.8445759867878602</v>
-      </c>
-      <c r="E98">
-        <v>5.19670094046079</v>
-      </c>
-      <c r="F98">
-        <v>6.4003153433300204</v>
-      </c>
-      <c r="G98" s="23">
-        <v>7.0438586445914799</v>
+      <c r="D98" s="19">
+        <v>130.39785472172801</v>
+      </c>
+      <c r="E98" s="35">
+        <v>29.560877015675999</v>
+      </c>
+      <c r="F98" s="35">
+        <v>87.555837777633997</v>
+      </c>
+      <c r="G98" s="21">
+        <v>165.738840208282</v>
       </c>
       <c r="H98">
         <v>-3.0590588884152701</v>
       </c>
-      <c r="I98" s="23">
+      <c r="I98" s="21">
         <v>3.8110888273269999E-2</v>
       </c>
       <c r="J98">
         <v>-2.1383580578511698</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="21">
         <v>3.6852447758604301E-2</v>
       </c>
       <c r="L98">
         <v>0.92070083056410601</v>
       </c>
-      <c r="M98" s="23">
+      <c r="M98" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5741,39 +5801,39 @@
         <v>114</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C99" t="s">
         <v>237</v>
       </c>
-      <c r="D99" s="21">
-        <v>10.2298498970303</v>
-      </c>
-      <c r="E99">
-        <v>10.220305441621599</v>
-      </c>
-      <c r="F99">
-        <v>8.5325846594938302</v>
-      </c>
-      <c r="G99" s="23">
-        <v>11.289081242644899</v>
+      <c r="D99" s="19">
+        <v>1207.6178651380401</v>
+      </c>
+      <c r="E99" s="35">
+        <v>1342.1665072828</v>
+      </c>
+      <c r="F99" s="35">
+        <v>313.14952975511102</v>
+      </c>
+      <c r="G99" s="21">
+        <v>2815.6868213133698</v>
       </c>
       <c r="H99">
         <v>-3.0157017041300702</v>
       </c>
-      <c r="I99" s="23">
+      <c r="I99" s="21">
         <v>1.2849942139451301E-2</v>
       </c>
       <c r="J99">
         <v>0.15289114263096901</v>
       </c>
-      <c r="K99" s="23">
+      <c r="K99" s="21">
         <v>1</v>
       </c>
       <c r="L99">
         <v>3.1685928467610398</v>
       </c>
-      <c r="M99" s="23">
+      <c r="M99" s="21">
         <v>1.18580733235628E-8</v>
       </c>
     </row>
@@ -5782,39 +5842,39 @@
         <v>115</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C100" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="21">
-        <v>8.7472218360272809</v>
-      </c>
-      <c r="E100">
-        <v>6.7684167687563397</v>
-      </c>
-      <c r="F100">
-        <v>8.3301036761337901</v>
-      </c>
-      <c r="G100" s="23">
-        <v>8.7970359698411507</v>
+      <c r="D100" s="19">
+        <v>464.46167481504398</v>
+      </c>
+      <c r="E100" s="35">
+        <v>91.537984018805602</v>
+      </c>
+      <c r="F100" s="35">
+        <v>339.08762580587501</v>
+      </c>
+      <c r="G100" s="21">
+        <v>485.31313006469702</v>
       </c>
       <c r="H100">
         <v>-2.8584928357708401</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="22">
         <v>1.1039411468338299E-5</v>
       </c>
       <c r="J100">
         <v>-2.3420167745207801</v>
       </c>
-      <c r="K100" s="23">
+      <c r="K100" s="21">
         <v>2.2588820364938499E-7</v>
       </c>
       <c r="L100">
         <v>0.51647606125005496</v>
       </c>
-      <c r="M100" s="23">
+      <c r="M100" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5823,39 +5883,39 @@
         <v>116</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C101" t="s">
         <v>239</v>
       </c>
-      <c r="D101" s="21">
-        <v>10.875323650960899</v>
-      </c>
-      <c r="E101">
-        <v>8.20089955524789</v>
-      </c>
-      <c r="F101">
-        <v>10.248592234641899</v>
-      </c>
-      <c r="G101" s="23">
-        <v>9.9211048048199206</v>
+      <c r="D101" s="19">
+        <v>2082.6398242400801</v>
+      </c>
+      <c r="E101" s="35">
+        <v>263.09531097716598</v>
+      </c>
+      <c r="F101" s="35">
+        <v>1277.4709406954601</v>
+      </c>
+      <c r="G101" s="21">
+        <v>997.62514896278697</v>
       </c>
       <c r="H101">
         <v>-2.62532930080312</v>
       </c>
-      <c r="I101" s="23">
+      <c r="I101" s="21">
         <v>1.1789634266196199E-3</v>
       </c>
       <c r="J101">
         <v>-2.9819969998453</v>
       </c>
-      <c r="K101" s="23">
+      <c r="K101" s="21">
         <v>2.74123567500596E-14</v>
       </c>
       <c r="L101">
         <v>-0.35666769904218198</v>
       </c>
-      <c r="M101" s="23">
+      <c r="M101" s="21">
         <v>1</v>
       </c>
     </row>
@@ -5869,75 +5929,75 @@
       <c r="C102" t="s">
         <v>240</v>
       </c>
-      <c r="D102" s="21">
-        <v>6.0633630988583498</v>
-      </c>
-      <c r="E102">
-        <v>4.6043981872971802</v>
-      </c>
-      <c r="F102">
-        <v>7.6519435894540102</v>
-      </c>
-      <c r="G102" s="23">
-        <v>8.1578641892786798</v>
+      <c r="D102" s="19">
+        <v>63.196647072634597</v>
+      </c>
+      <c r="E102" s="35">
+        <v>15.858600583045799</v>
+      </c>
+      <c r="F102" s="35">
+        <v>234.28984891966499</v>
+      </c>
+      <c r="G102" s="21">
+        <v>350.06938055639102</v>
       </c>
       <c r="H102">
         <v>-2.5622230050458001</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I102" s="22">
         <v>3.2988566130780001E-5</v>
       </c>
       <c r="J102">
         <v>-1.9845301558183901</v>
       </c>
-      <c r="K102" s="23">
+      <c r="K102" s="21">
         <v>4.3166506577936001E-4</v>
       </c>
       <c r="L102">
         <v>0.57769284922741104</v>
       </c>
-      <c r="M102" s="23">
+      <c r="M102" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D103" s="21">
-        <v>9.0142617379657199</v>
-      </c>
-      <c r="E103">
-        <v>8.2285016219844191</v>
-      </c>
-      <c r="F103">
-        <v>5.3231082112301298</v>
-      </c>
-      <c r="G103" s="23">
-        <v>6.5596414534934802</v>
-      </c>
-      <c r="H103">
+      <c r="D103" s="28">
+        <v>631.08367297847701</v>
+      </c>
+      <c r="E103" s="36">
+        <v>342.624710412502</v>
+      </c>
+      <c r="F103" s="36">
+        <v>29.960139877987299</v>
+      </c>
+      <c r="G103" s="30">
+        <v>88.958851996168903</v>
+      </c>
+      <c r="H103" s="29">
         <v>-2.4519238983294098</v>
       </c>
-      <c r="I103" s="23">
+      <c r="I103" s="30">
         <v>8.4629670393560497E-3</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="29">
         <v>-0.882228374209859</v>
       </c>
-      <c r="K103" s="23">
-        <v>1</v>
-      </c>
-      <c r="L103">
+      <c r="K103" s="30">
+        <v>1</v>
+      </c>
+      <c r="L103" s="29">
         <v>1.56969552411955</v>
       </c>
-      <c r="M103" s="23">
+      <c r="M103" s="30">
         <v>0.20057543007463199</v>
       </c>
     </row>
@@ -5946,39 +6006,39 @@
         <v>119</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
         <v>242</v>
       </c>
-      <c r="D104" s="21">
-        <v>9.0673564623265595</v>
-      </c>
-      <c r="E104">
-        <v>8.8294934046401696</v>
-      </c>
-      <c r="F104">
-        <v>8.6772627042491592</v>
-      </c>
-      <c r="G104" s="23">
-        <v>10.4056330910637</v>
+      <c r="D104" s="19">
+        <v>530.53043315974696</v>
+      </c>
+      <c r="E104" s="35">
+        <v>438.18930788333103</v>
+      </c>
+      <c r="F104" s="35">
+        <v>393.53511003424302</v>
+      </c>
+      <c r="G104" s="21">
+        <v>1529.2856546788501</v>
       </c>
       <c r="H104">
         <v>-2.23339709561255</v>
       </c>
-      <c r="I104" s="23">
+      <c r="I104" s="21">
         <v>1.39716492967841E-3</v>
       </c>
       <c r="J104">
         <v>-0.27532038441290002</v>
       </c>
-      <c r="K104" s="23">
+      <c r="K104" s="21">
         <v>1</v>
       </c>
       <c r="L104">
         <v>1.95807671119965</v>
       </c>
-      <c r="M104" s="23">
+      <c r="M104" s="21">
         <v>2.0711156584083099E-6</v>
       </c>
     </row>
@@ -5992,34 +6052,34 @@
       <c r="C105" t="s">
         <v>243</v>
       </c>
-      <c r="D105" s="21">
-        <v>8.7725304388670402</v>
-      </c>
-      <c r="E105">
-        <v>11.056760606773899</v>
-      </c>
-      <c r="F105">
-        <v>10.4592625170833</v>
-      </c>
-      <c r="G105" s="23">
-        <v>10.8374056318022</v>
+      <c r="D105" s="19">
+        <v>368.18065310864199</v>
+      </c>
+      <c r="E105" s="35">
+        <v>2237.9033062870999</v>
+      </c>
+      <c r="F105" s="35">
+        <v>1480.6539113620099</v>
+      </c>
+      <c r="G105" s="21">
+        <v>1906.2434124480999</v>
       </c>
       <c r="H105">
         <v>2.2391300968662899</v>
       </c>
-      <c r="I105" s="23">
+      <c r="I105" s="21">
         <v>1.07668560256323E-2</v>
       </c>
       <c r="J105">
         <v>2.6039302279599799</v>
       </c>
-      <c r="K105" s="23">
+      <c r="K105" s="21">
         <v>1.4777391948266098E-11</v>
       </c>
       <c r="L105">
         <v>0.36480013109369602</v>
       </c>
-      <c r="M105" s="23">
+      <c r="M105" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6033,34 +6093,34 @@
       <c r="C106" t="s">
         <v>244</v>
       </c>
-      <c r="D106" s="21">
-        <v>10.0287988353779</v>
-      </c>
-      <c r="E106">
-        <v>12.2345909449184</v>
-      </c>
-      <c r="F106">
-        <v>11.225150995364199</v>
-      </c>
-      <c r="G106" s="23">
-        <v>11.4602022729991</v>
+      <c r="D106" s="19">
+        <v>929.90641839580803</v>
+      </c>
+      <c r="E106" s="35">
+        <v>5442.7753114708103</v>
+      </c>
+      <c r="F106" s="35">
+        <v>2442.5893718410198</v>
+      </c>
+      <c r="G106" s="21">
+        <v>2953.0652289803502</v>
       </c>
       <c r="H106">
         <v>2.2752311737227902</v>
       </c>
-      <c r="I106" s="23">
+      <c r="I106" s="21">
         <v>3.8110888273269999E-2</v>
       </c>
       <c r="J106">
         <v>2.5489920180082399</v>
       </c>
-      <c r="K106" s="23">
+      <c r="K106" s="21">
         <v>2.2039648853424699E-8</v>
       </c>
       <c r="L106">
         <v>0.273760844285455</v>
       </c>
-      <c r="M106" s="23">
+      <c r="M106" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6074,34 +6134,34 @@
       <c r="C107" t="s">
         <v>245</v>
       </c>
-      <c r="D107" s="21">
-        <v>8.8442956742145409</v>
-      </c>
-      <c r="E107">
-        <v>11.0340724179883</v>
-      </c>
-      <c r="F107">
-        <v>9.1154180250199506</v>
-      </c>
-      <c r="G107" s="23">
-        <v>9.2385713403505996</v>
+      <c r="D107" s="19">
+        <v>420.91840075816702</v>
+      </c>
+      <c r="E107" s="35">
+        <v>2378.7487235990602</v>
+      </c>
+      <c r="F107" s="35">
+        <v>524.20028717183595</v>
+      </c>
+      <c r="G107" s="21">
+        <v>589.90671090240005</v>
       </c>
       <c r="H107">
         <v>2.32798783932251</v>
       </c>
-      <c r="I107" s="23">
+      <c r="I107" s="21">
         <v>5.7647330568859198E-3</v>
       </c>
       <c r="J107">
         <v>2.49841478905077</v>
       </c>
-      <c r="K107" s="23">
+      <c r="K107" s="21">
         <v>4.6726904990504896E-10</v>
       </c>
       <c r="L107">
         <v>0.170426949728261</v>
       </c>
-      <c r="M107" s="23">
+      <c r="M107" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6110,39 +6170,39 @@
         <v>123</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C108" t="s">
         <v>246</v>
       </c>
-      <c r="D108" s="21">
-        <v>7.8472693932516604</v>
-      </c>
-      <c r="E108">
-        <v>9.74798327469124</v>
-      </c>
-      <c r="F108">
-        <v>9.5709621586568705</v>
-      </c>
-      <c r="G108" s="23">
-        <v>9.42872009857766</v>
+      <c r="D108" s="19">
+        <v>207.47560332336201</v>
+      </c>
+      <c r="E108" s="35">
+        <v>950.68215767018205</v>
+      </c>
+      <c r="F108" s="35">
+        <v>816.68017555386098</v>
+      </c>
+      <c r="G108" s="21">
+        <v>718.74527696672396</v>
       </c>
       <c r="H108">
         <v>2.3795697712647401</v>
       </c>
-      <c r="I108" s="23">
+      <c r="I108" s="21">
         <v>3.9674772275913102E-2</v>
       </c>
       <c r="J108">
         <v>2.1951588530052399</v>
       </c>
-      <c r="K108" s="23">
+      <c r="K108" s="21">
         <v>1.74494129384342E-4</v>
       </c>
       <c r="L108">
         <v>-0.18441091825950001</v>
       </c>
-      <c r="M108" s="23">
+      <c r="M108" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6153,34 +6213,34 @@
       <c r="B109" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D109" s="21">
-        <v>10.024372222812699</v>
-      </c>
-      <c r="E109">
-        <v>12.8055522304159</v>
-      </c>
-      <c r="F109">
-        <v>11.9957671496289</v>
-      </c>
-      <c r="G109" s="23">
-        <v>12.5959622571745</v>
+      <c r="D109" s="19">
+        <v>855.47101619020702</v>
+      </c>
+      <c r="E109" s="35">
+        <v>7837.2121446937799</v>
+      </c>
+      <c r="F109" s="35">
+        <v>4090.0488044322901</v>
+      </c>
+      <c r="G109" s="21">
+        <v>6754.9945737480102</v>
       </c>
       <c r="H109">
         <v>2.47169180954941</v>
       </c>
-      <c r="I109" s="23">
+      <c r="I109" s="21">
         <v>1.51201372668394E-2</v>
       </c>
       <c r="J109">
         <v>3.1954754306507001</v>
       </c>
-      <c r="K109" s="23">
+      <c r="K109" s="21">
         <v>1.5281739319148899E-14</v>
       </c>
       <c r="L109">
         <v>0.72378362110129402</v>
       </c>
-      <c r="M109" s="23">
+      <c r="M109" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6189,39 +6249,39 @@
         <v>125</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
         <v>247</v>
       </c>
-      <c r="D110" s="21">
-        <v>7.9534999084854201</v>
-      </c>
-      <c r="E110">
-        <v>9.8101780498242697</v>
-      </c>
-      <c r="F110">
-        <v>9.0482159754346405</v>
-      </c>
-      <c r="G110" s="23">
-        <v>8.7159479486524098</v>
+      <c r="D110" s="19">
+        <v>225.367121955518</v>
+      </c>
+      <c r="E110" s="35">
+        <v>979.88162130035505</v>
+      </c>
+      <c r="F110" s="35">
+        <v>572.93440580792901</v>
+      </c>
+      <c r="G110" s="21">
+        <v>414.91507446985702</v>
       </c>
       <c r="H110">
         <v>2.5864901740918098</v>
       </c>
-      <c r="I110" s="23">
+      <c r="I110" s="21">
         <v>2.3114545505978901E-2</v>
       </c>
       <c r="J110">
         <v>2.1200940721067698</v>
       </c>
-      <c r="K110" s="23">
+      <c r="K110" s="21">
         <v>1.67305959945008E-3</v>
       </c>
       <c r="L110">
         <v>-0.46639610198504</v>
       </c>
-      <c r="M110" s="23">
+      <c r="M110" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6230,39 +6290,39 @@
         <v>126</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C111" t="s">
         <v>248</v>
       </c>
-      <c r="D111" s="21">
-        <v>8.5531566071075797</v>
-      </c>
-      <c r="E111">
-        <v>12.145580665338301</v>
-      </c>
-      <c r="F111">
-        <v>10.4955620102906</v>
-      </c>
-      <c r="G111" s="23">
-        <v>11.653629132767501</v>
+      <c r="D111" s="19">
+        <v>312.26685965158498</v>
+      </c>
+      <c r="E111" s="35">
+        <v>5249.3217038706198</v>
+      </c>
+      <c r="F111" s="35">
+        <v>1529.7797591722899</v>
+      </c>
+      <c r="G111" s="21">
+        <v>3551.2568288412099</v>
       </c>
       <c r="H111">
         <v>2.85670061452034</v>
       </c>
-      <c r="I111" s="23">
+      <c r="I111" s="21">
         <v>9.2153935989220497E-3</v>
       </c>
       <c r="J111">
         <v>4.0715185970707903</v>
       </c>
-      <c r="K111" s="23">
+      <c r="K111" s="21">
         <v>3.7138933598127099E-19</v>
       </c>
       <c r="L111">
         <v>1.2148179825504499</v>
       </c>
-      <c r="M111" s="23">
+      <c r="M111" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6271,39 +6331,39 @@
         <v>127</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C112" t="s">
         <v>249</v>
       </c>
-      <c r="D112" s="21">
-        <v>10.9843222435422</v>
-      </c>
-      <c r="E112">
-        <v>14.885759340490001</v>
-      </c>
-      <c r="F112">
-        <v>12.2805896425509</v>
-      </c>
-      <c r="G112" s="23">
-        <v>13.5089642652039</v>
+      <c r="D112" s="19">
+        <v>1641.1441173215501</v>
+      </c>
+      <c r="E112" s="35">
+        <v>36091.832191360998</v>
+      </c>
+      <c r="F112" s="35">
+        <v>4778.5445689980597</v>
+      </c>
+      <c r="G112" s="21">
+        <v>14090.599291352701</v>
       </c>
       <c r="H112">
         <v>2.8988041547540102</v>
       </c>
-      <c r="I112" s="23">
+      <c r="I112" s="21">
         <v>2.6346156180626201E-2</v>
       </c>
       <c r="J112">
         <v>4.4588850727299896</v>
       </c>
-      <c r="K112" s="23">
+      <c r="K112" s="21">
         <v>1.7201897539622399E-19</v>
       </c>
       <c r="L112">
         <v>1.56008091797598</v>
       </c>
-      <c r="M112" s="23">
+      <c r="M112" s="21">
         <v>0.64366132899909001</v>
       </c>
     </row>
@@ -6317,34 +6377,34 @@
       <c r="C113" t="s">
         <v>250</v>
       </c>
-      <c r="D113" s="21">
-        <v>5.4100982705146397</v>
-      </c>
-      <c r="E113">
-        <v>6.7920583142206201</v>
-      </c>
-      <c r="F113">
-        <v>5.8798705720741404</v>
-      </c>
-      <c r="G113" s="23">
-        <v>5.0973870753402597</v>
+      <c r="D113" s="19">
+        <v>39.861455475250402</v>
+      </c>
+      <c r="E113" s="35">
+        <v>137.38543291131501</v>
+      </c>
+      <c r="F113" s="35">
+        <v>65.956865571002396</v>
+      </c>
+      <c r="G113" s="21">
+        <v>30.226384430966299</v>
       </c>
       <c r="H113">
         <v>2.9041907141252001</v>
       </c>
-      <c r="I113" s="23">
+      <c r="I113" s="21">
         <v>1.70412841492464E-2</v>
       </c>
       <c r="J113">
         <v>1.7843533252369199</v>
       </c>
-      <c r="K113" s="23">
+      <c r="K113" s="21">
         <v>0.11308542581636399</v>
       </c>
       <c r="L113">
         <v>-1.11983738888829</v>
       </c>
-      <c r="M113" s="23">
+      <c r="M113" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6358,34 +6418,34 @@
       <c r="C114" t="s">
         <v>251</v>
       </c>
-      <c r="D114" s="21">
-        <v>5.0759431334706102</v>
-      </c>
-      <c r="E114">
-        <v>9.4450133627041506</v>
-      </c>
-      <c r="F114">
-        <v>5.1926938273848204</v>
-      </c>
-      <c r="G114" s="23">
-        <v>6.8344112295370296</v>
+      <c r="D114" s="19">
+        <v>25.113858370940601</v>
+      </c>
+      <c r="E114" s="35">
+        <v>914.86319118514496</v>
+      </c>
+      <c r="F114" s="35">
+        <v>28.072229793600901</v>
+      </c>
+      <c r="G114" s="21">
+        <v>122.267034601603</v>
       </c>
       <c r="H114">
         <v>3.0714499423516401</v>
       </c>
-      <c r="I114" s="23">
+      <c r="I114" s="21">
         <v>1.98603424909606E-3</v>
       </c>
       <c r="J114">
         <v>5.18807445649046</v>
       </c>
-      <c r="K114" s="23">
+      <c r="K114" s="21">
         <v>1.7432714792233299E-35</v>
       </c>
       <c r="L114">
         <v>2.1166245141388198</v>
       </c>
-      <c r="M114" s="23">
+      <c r="M114" s="21">
         <v>4.22085052911092E-3</v>
       </c>
     </row>
@@ -6399,34 +6459,34 @@
       <c r="C115" t="s">
         <v>252</v>
       </c>
-      <c r="D115" s="21">
-        <v>7.9286409952534198</v>
-      </c>
-      <c r="E115">
-        <v>10.1350834342359</v>
-      </c>
-      <c r="F115">
-        <v>9.5714627592752208</v>
-      </c>
-      <c r="G115" s="23">
-        <v>9.1639070340853692</v>
+      <c r="D115" s="19">
+        <v>212.44656899795001</v>
+      </c>
+      <c r="E115" s="35">
+        <v>1281.77190325877</v>
+      </c>
+      <c r="F115" s="35">
+        <v>908.43853656627698</v>
+      </c>
+      <c r="G115" s="21">
+        <v>608.59590887817399</v>
       </c>
       <c r="H115">
         <v>3.1715267166276999</v>
       </c>
-      <c r="I115" s="23">
+      <c r="I115" s="21">
         <v>1.15881484996942E-2</v>
       </c>
       <c r="J115">
         <v>2.5932972281919699</v>
       </c>
-      <c r="K115" s="23">
+      <c r="K115" s="21">
         <v>4.10840109827695E-4</v>
       </c>
       <c r="L115">
         <v>-0.57822948843572897</v>
       </c>
-      <c r="M115" s="23">
+      <c r="M115" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6440,34 +6500,34 @@
       <c r="C116" t="s">
         <v>253</v>
       </c>
-      <c r="D116" s="21">
-        <v>5.4043040870978398</v>
-      </c>
-      <c r="E116">
-        <v>9.5129525302782394</v>
-      </c>
-      <c r="F116">
-        <v>5.79516300812924</v>
-      </c>
-      <c r="G116" s="23">
-        <v>7.2974225468512302</v>
+      <c r="D116" s="19">
+        <v>31.895030468619201</v>
+      </c>
+      <c r="E116" s="35">
+        <v>999.40297912362701</v>
+      </c>
+      <c r="F116" s="35">
+        <v>46.918001559155201</v>
+      </c>
+      <c r="G116" s="21">
+        <v>161.79047804055699</v>
       </c>
       <c r="H116">
         <v>3.1831229592871999</v>
       </c>
-      <c r="I116" s="23">
+      <c r="I116" s="21">
         <v>3.9252016061279503E-2</v>
       </c>
       <c r="J116">
         <v>4.9699749848657797</v>
       </c>
-      <c r="K116" s="23">
+      <c r="K116" s="21">
         <v>7.2749182513318703E-18</v>
       </c>
       <c r="L116">
         <v>1.78685202557858</v>
       </c>
-      <c r="M116" s="23">
+      <c r="M116" s="21">
         <v>0.38627779518821098</v>
       </c>
     </row>
@@ -6476,39 +6536,39 @@
         <v>132</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C117" t="s">
         <v>254</v>
       </c>
-      <c r="D117" s="21">
-        <v>6.3592887107502003</v>
-      </c>
-      <c r="E117">
-        <v>11.682739696362701</v>
-      </c>
-      <c r="F117">
-        <v>7.5100092228171897</v>
-      </c>
-      <c r="G117" s="23">
-        <v>10.032977793776</v>
+      <c r="D117" s="19">
+        <v>57.774560394590999</v>
+      </c>
+      <c r="E117" s="35">
+        <v>4239.5407899484499</v>
+      </c>
+      <c r="F117" s="35">
+        <v>147.65349251584399</v>
+      </c>
+      <c r="G117" s="21">
+        <v>1154.43067380208</v>
       </c>
       <c r="H117">
         <v>3.2292783417428899</v>
       </c>
-      <c r="I117" s="23">
+      <c r="I117" s="21">
         <v>1.87382947993254E-2</v>
       </c>
       <c r="J117">
         <v>6.1965096628283201</v>
       </c>
-      <c r="K117" s="23">
+      <c r="K117" s="21">
         <v>3.7743184595462297E-33</v>
       </c>
       <c r="L117">
         <v>2.9672313210854302</v>
       </c>
-      <c r="M117" s="23">
+      <c r="M117" s="21">
         <v>1.19624262402047E-5</v>
       </c>
     </row>
@@ -6517,39 +6577,39 @@
         <v>133</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C118" t="s">
         <v>255</v>
       </c>
-      <c r="D118" s="21">
-        <v>7.6290240225661003</v>
-      </c>
-      <c r="E118">
-        <v>10.6310627807425</v>
-      </c>
-      <c r="F118">
-        <v>8.6735811711699995</v>
-      </c>
-      <c r="G118" s="23">
-        <v>8.7703738460205898</v>
+      <c r="D118" s="19">
+        <v>182.04111482398699</v>
+      </c>
+      <c r="E118" s="35">
+        <v>1810.0615013716499</v>
+      </c>
+      <c r="F118" s="35">
+        <v>441.44430391073098</v>
+      </c>
+      <c r="G118" s="21">
+        <v>458.731233982942</v>
       </c>
       <c r="H118">
         <v>3.25776347433544</v>
       </c>
-      <c r="I118" s="23">
+      <c r="I118" s="21">
         <v>3.1829750367243399E-2</v>
       </c>
       <c r="J118">
         <v>3.3135562780807599</v>
       </c>
-      <c r="K118" s="23">
+      <c r="K118" s="21">
         <v>2.3902638039477802E-6</v>
       </c>
       <c r="L118">
         <v>5.5792803745320897E-2</v>
       </c>
-      <c r="M118" s="23">
+      <c r="M118" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6558,39 +6618,39 @@
         <v>134</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C119" t="s">
         <v>256</v>
       </c>
-      <c r="D119" s="21">
-        <v>4.8427193124299004</v>
-      </c>
-      <c r="E119">
-        <v>6.3901398119039099</v>
-      </c>
-      <c r="F119">
-        <v>7.3584390629750303</v>
-      </c>
-      <c r="G119" s="23">
-        <v>6.2251749945255099</v>
+      <c r="D119" s="19">
+        <v>21.856604704628101</v>
+      </c>
+      <c r="E119" s="35">
+        <v>99.627604915862307</v>
+      </c>
+      <c r="F119" s="35">
+        <v>199.34977301862901</v>
+      </c>
+      <c r="G119" s="21">
+        <v>80.593080609456294</v>
       </c>
       <c r="H119">
         <v>3.48730481381563</v>
       </c>
-      <c r="I119" s="23">
+      <c r="I119" s="21">
         <v>9.3171796818454899E-3</v>
       </c>
       <c r="J119">
         <v>2.1806636515251099</v>
       </c>
-      <c r="K119" s="23">
+      <c r="K119" s="21">
         <v>4.5632733519368598E-2</v>
       </c>
       <c r="L119">
         <v>-1.3066411622905201</v>
       </c>
-      <c r="M119" s="23">
+      <c r="M119" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6599,39 +6659,39 @@
         <v>135</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C120" t="s">
         <v>257</v>
       </c>
-      <c r="D120" s="21">
-        <v>8.1602318473227609</v>
-      </c>
-      <c r="E120">
-        <v>8.07430284675719</v>
-      </c>
-      <c r="F120">
-        <v>8.0383331737463504</v>
-      </c>
-      <c r="G120" s="23">
-        <v>5.1077682710392498</v>
+      <c r="D120" s="19">
+        <v>322.92014001789101</v>
+      </c>
+      <c r="E120" s="35">
+        <v>331.56549993129801</v>
+      </c>
+      <c r="F120" s="35">
+        <v>301.13920189549498</v>
+      </c>
+      <c r="G120" s="21">
+        <v>26.864397965012799</v>
       </c>
       <c r="H120">
         <v>3.5207801748804401</v>
       </c>
-      <c r="I120" s="23">
+      <c r="I120" s="21">
         <v>5.7647330568859198E-3</v>
       </c>
       <c r="J120">
         <v>3.6000162421364897E-2</v>
       </c>
-      <c r="K120" s="23">
+      <c r="K120" s="21">
         <v>1</v>
       </c>
       <c r="L120">
         <v>-3.48478001245907</v>
       </c>
-      <c r="M120" s="23">
+      <c r="M120" s="21">
         <v>5.0136304403484003E-8</v>
       </c>
     </row>
@@ -6642,34 +6702,34 @@
       <c r="B121" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D121" s="21">
-        <v>4.7107176234189998</v>
-      </c>
-      <c r="E121">
-        <v>13.9249186332703</v>
-      </c>
-      <c r="F121">
-        <v>5.8033766599756502</v>
-      </c>
-      <c r="G121" s="23">
-        <v>12.450016083522501</v>
+      <c r="D121" s="19">
+        <v>7.2516302660834597</v>
+      </c>
+      <c r="E121" s="35">
+        <v>21390.9818897923</v>
+      </c>
+      <c r="F121" s="35">
+        <v>29.4631649632163</v>
+      </c>
+      <c r="G121" s="21">
+        <v>6882.0774163863198</v>
       </c>
       <c r="H121">
         <v>3.65946098982376</v>
       </c>
-      <c r="I121" s="23">
+      <c r="I121" s="21">
         <v>5.8496544137665403E-3</v>
       </c>
       <c r="J121">
         <v>11.5311684544122</v>
       </c>
-      <c r="K121" s="23">
+      <c r="K121" s="21">
         <v>3.09978400731808E-107</v>
       </c>
       <c r="L121">
         <v>7.8717074645884502</v>
       </c>
-      <c r="M121" s="23">
+      <c r="M121" s="21">
         <v>1.2705732400564799E-64</v>
       </c>
     </row>
@@ -6678,39 +6738,39 @@
         <v>137</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C122" t="s">
         <v>258</v>
       </c>
-      <c r="D122" s="21">
-        <v>4.3076639475511698</v>
-      </c>
-      <c r="E122">
-        <v>10.058911378612899</v>
-      </c>
-      <c r="F122">
-        <v>5.3040164114846702</v>
-      </c>
-      <c r="G122" s="23">
-        <v>8.2340086041078706</v>
+      <c r="D122" s="19">
+        <v>10.298960185503001</v>
+      </c>
+      <c r="E122" s="35">
+        <v>1455.2933129773301</v>
+      </c>
+      <c r="F122" s="35">
+        <v>29.920944648091002</v>
+      </c>
+      <c r="G122" s="21">
+        <v>330.35617617892598</v>
       </c>
       <c r="H122">
         <v>3.6756748029228001</v>
       </c>
-      <c r="I122" s="23">
+      <c r="I122" s="21">
         <v>9.2153935989220497E-3</v>
       </c>
       <c r="J122">
         <v>7.1433977850635202</v>
       </c>
-      <c r="K122" s="23">
+      <c r="K122" s="21">
         <v>9.7795643569633202E-35</v>
       </c>
       <c r="L122">
         <v>3.4677229821407298</v>
       </c>
-      <c r="M122" s="23">
+      <c r="M122" s="21">
         <v>2.8033683577765803E-7</v>
       </c>
     </row>
@@ -6721,34 +6781,34 @@
       <c r="B123" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D123" s="21">
-        <v>8.4864099366263108</v>
-      </c>
-      <c r="E123">
-        <v>7.5185347048178599</v>
-      </c>
-      <c r="F123">
-        <v>7.3728074794991398</v>
-      </c>
-      <c r="G123" s="23">
-        <v>3.8403009320394101</v>
+      <c r="D123" s="19">
+        <v>455.27124909467102</v>
+      </c>
+      <c r="E123" s="35">
+        <v>211.221220378244</v>
+      </c>
+      <c r="F123" s="35">
+        <v>206.600165041868</v>
+      </c>
+      <c r="G123" s="21">
+        <v>6.6614993202609103</v>
       </c>
       <c r="H123">
         <v>3.8425918596536799</v>
       </c>
-      <c r="I123" s="24">
+      <c r="I123" s="22">
         <v>5.4188990287514998E-5</v>
       </c>
       <c r="J123">
         <v>-1.10693407470671</v>
       </c>
-      <c r="K123" s="23">
+      <c r="K123" s="21">
         <v>1</v>
       </c>
       <c r="L123">
         <v>-4.9495259343603903</v>
       </c>
-      <c r="M123" s="23">
+      <c r="M123" s="21">
         <v>6.1725058045381501E-21</v>
       </c>
     </row>
@@ -6757,39 +6817,39 @@
         <v>139</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
         <v>259</v>
       </c>
-      <c r="D124" s="21">
-        <v>3.4291643262534102</v>
-      </c>
-      <c r="E124">
-        <v>6.7735687891398504</v>
-      </c>
-      <c r="F124">
-        <v>4.2860220769419799</v>
-      </c>
-      <c r="G124" s="23">
-        <v>5.1378772045327397</v>
+      <c r="D124" s="19">
+        <v>5.3476633857973903</v>
+      </c>
+      <c r="E124" s="35">
+        <v>156.86856757294001</v>
+      </c>
+      <c r="F124" s="35">
+        <v>18.271623658671999</v>
+      </c>
+      <c r="G124" s="21">
+        <v>36.7525142848285</v>
       </c>
       <c r="H124">
         <v>3.8665499679206898</v>
       </c>
-      <c r="I124" s="23">
+      <c r="I124" s="21">
         <v>8.1591248233641497E-3</v>
       </c>
       <c r="J124">
         <v>4.8754108482408904</v>
       </c>
-      <c r="K124" s="23">
+      <c r="K124" s="21">
         <v>3.0222743882246E-12</v>
       </c>
       <c r="L124">
         <v>1.0088608803201999</v>
       </c>
-      <c r="M124" s="23">
+      <c r="M124" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6798,39 +6858,39 @@
         <v>140</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C125" t="s">
         <v>260</v>
       </c>
-      <c r="D125" s="21">
-        <v>5.3150015170480103</v>
-      </c>
-      <c r="E125">
-        <v>5.8400274147322699</v>
-      </c>
-      <c r="F125">
-        <v>5.5317656578388403</v>
-      </c>
-      <c r="G125" s="23">
-        <v>3.4990145076655299</v>
+      <c r="D125" s="19">
+        <v>47.671099566867902</v>
+      </c>
+      <c r="E125" s="35">
+        <v>76.566036129832895</v>
+      </c>
+      <c r="F125" s="35">
+        <v>55.643926128266799</v>
+      </c>
+      <c r="G125" s="21">
+        <v>5.8054564091385599</v>
       </c>
       <c r="H125">
         <v>3.9427709143727201</v>
       </c>
-      <c r="I125" s="23">
+      <c r="I125" s="21">
         <v>5.0652378587849795E-4</v>
       </c>
       <c r="J125">
         <v>0.69124216184462595</v>
       </c>
-      <c r="K125" s="23">
+      <c r="K125" s="21">
         <v>1</v>
       </c>
       <c r="L125">
         <v>-3.2515287525280998</v>
       </c>
-      <c r="M125" s="23">
+      <c r="M125" s="21">
         <v>8.9431492176407805E-6</v>
       </c>
     </row>
@@ -6839,39 +6899,39 @@
         <v>141</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C126" t="s">
         <v>261</v>
       </c>
-      <c r="D126" s="21">
-        <v>3.1291684475637198</v>
-      </c>
-      <c r="E126">
-        <v>4.1897427745807301</v>
-      </c>
-      <c r="F126">
-        <v>4.9604121944659001</v>
-      </c>
-      <c r="G126" s="23">
-        <v>3.7282014885594301</v>
+      <c r="D126" s="19">
+        <v>5.50530712678193</v>
+      </c>
+      <c r="E126" s="35">
+        <v>22.994625001426002</v>
+      </c>
+      <c r="F126" s="35">
+        <v>51.032746459685697</v>
+      </c>
+      <c r="G126" s="21">
+        <v>12.5151818085385</v>
       </c>
       <c r="H126">
         <v>4.0730968276278103</v>
       </c>
-      <c r="I126" s="23">
+      <c r="I126" s="21">
         <v>3.2229027184352797E-2</v>
       </c>
       <c r="J126">
         <v>2.0520015134326899</v>
       </c>
-      <c r="K126" s="23">
+      <c r="K126" s="21">
         <v>0.353363885939458</v>
       </c>
       <c r="L126">
         <v>-2.02109531419512</v>
       </c>
-      <c r="M126" s="23">
+      <c r="M126" s="21">
         <v>0.41659798254223102</v>
       </c>
     </row>
@@ -6880,39 +6940,39 @@
         <v>142</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
         <v>262</v>
       </c>
-      <c r="D127" s="21">
-        <v>4.6095976462017898</v>
-      </c>
-      <c r="E127">
-        <v>8.8960207711668406</v>
-      </c>
-      <c r="F127">
-        <v>5.7784791711899501</v>
-      </c>
-      <c r="G127" s="23">
-        <v>6.5178408147163003</v>
+      <c r="D127" s="19">
+        <v>17.6584816320687</v>
+      </c>
+      <c r="E127" s="35">
+        <v>662.21626720121105</v>
+      </c>
+      <c r="F127" s="35">
+        <v>49.444155664801599</v>
+      </c>
+      <c r="G127" s="21">
+        <v>98.575302791185706</v>
       </c>
       <c r="H127">
         <v>4.2339991283846397</v>
       </c>
-      <c r="I127" s="23">
+      <c r="I127" s="21">
         <v>7.4497507466831396E-3</v>
       </c>
       <c r="J127">
         <v>5.2306049121299303</v>
       </c>
-      <c r="K127" s="23">
+      <c r="K127" s="21">
         <v>1.7759489645133E-12</v>
       </c>
       <c r="L127">
         <v>0.99660578374528896</v>
       </c>
-      <c r="M127" s="23">
+      <c r="M127" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6923,34 +6983,34 @@
       <c r="B128" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D128" s="21">
-        <v>3.00186399561162</v>
-      </c>
-      <c r="E128">
-        <v>7.04995305613184</v>
-      </c>
-      <c r="F128">
-        <v>4.2117574645442701</v>
-      </c>
-      <c r="G128" s="23">
-        <v>5.3492488291096603</v>
+      <c r="D128" s="19">
+        <v>2.8952943158649802</v>
+      </c>
+      <c r="E128" s="35">
+        <v>203.854747517579</v>
+      </c>
+      <c r="F128" s="35">
+        <v>15.3045530277893</v>
+      </c>
+      <c r="G128" s="21">
+        <v>44.9983833602329</v>
       </c>
       <c r="H128">
         <v>4.5822626652343299</v>
       </c>
-      <c r="I128" s="23">
+      <c r="I128" s="21">
         <v>1.4888079292677299E-2</v>
       </c>
       <c r="J128">
         <v>6.1413741984745602</v>
       </c>
-      <c r="K128" s="23">
+      <c r="K128" s="21">
         <v>4.2634612280545603E-12</v>
       </c>
       <c r="L128">
         <v>1.5591115332402301</v>
       </c>
-      <c r="M128" s="23">
+      <c r="M128" s="21">
         <v>1</v>
       </c>
     </row>
@@ -6959,39 +7019,39 @@
         <v>144</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C129" t="s">
         <v>263</v>
       </c>
-      <c r="D129" s="21">
-        <v>5.6246463944225997</v>
-      </c>
-      <c r="E129">
-        <v>8.4157787000260704</v>
-      </c>
-      <c r="F129">
-        <v>6.2966215596189699</v>
-      </c>
-      <c r="G129" s="23">
-        <v>5.3330744549523503</v>
+      <c r="D129" s="19">
+        <v>43.774385794545303</v>
+      </c>
+      <c r="E129" s="35">
+        <v>461.84762842328001</v>
+      </c>
+      <c r="F129" s="35">
+        <v>76.603717001738403</v>
+      </c>
+      <c r="G129" s="21">
+        <v>33.139568649692698</v>
       </c>
       <c r="H129">
         <v>4.6096164376075803</v>
       </c>
-      <c r="I129" s="23">
+      <c r="I129" s="21">
         <v>4.9786939550159398E-3</v>
       </c>
       <c r="J129">
         <v>3.4001567644060602</v>
       </c>
-      <c r="K129" s="23">
+      <c r="K129" s="21">
         <v>4.77609507284468E-4</v>
       </c>
       <c r="L129">
         <v>-1.2094596732015199</v>
       </c>
-      <c r="M129" s="23">
+      <c r="M129" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7000,39 +7060,39 @@
         <v>145</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C130" t="s">
         <v>264</v>
       </c>
-      <c r="D130" s="21">
-        <v>4.54396663187394</v>
-      </c>
-      <c r="E130">
-        <v>6.1363591603348002</v>
-      </c>
-      <c r="F130">
-        <v>5.3325232297976397</v>
-      </c>
-      <c r="G130" s="23">
-        <v>3.9622773074271902</v>
+      <c r="D130" s="19">
+        <v>21.460261469896398</v>
+      </c>
+      <c r="E130" s="35">
+        <v>156.04376929750001</v>
+      </c>
+      <c r="F130" s="35">
+        <v>46.089860525368103</v>
+      </c>
+      <c r="G130" s="21">
+        <v>11.6870738008255</v>
       </c>
       <c r="H130">
         <v>4.83359870166331</v>
       </c>
-      <c r="I130" s="23">
+      <c r="I130" s="21">
         <v>4.74662267955233E-3</v>
       </c>
       <c r="J130">
         <v>2.8593563813551102</v>
       </c>
-      <c r="K130" s="23">
+      <c r="K130" s="21">
         <v>1.6868965726203802E-2</v>
       </c>
       <c r="L130">
         <v>-1.97424232030821</v>
       </c>
-      <c r="M130" s="23">
+      <c r="M130" s="21">
         <v>0.66078754055620903</v>
       </c>
     </row>
@@ -7041,39 +7101,39 @@
         <v>146</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
         <v>265</v>
       </c>
-      <c r="D131" s="21">
-        <v>2.0723996332656598</v>
-      </c>
-      <c r="E131">
-        <v>3.0958979008760799</v>
-      </c>
-      <c r="F131">
-        <v>2.7409159469908602</v>
-      </c>
-      <c r="G131" s="23">
-        <v>2.1192912742319598</v>
+      <c r="D131" s="19">
+        <v>1.85099823145359</v>
+      </c>
+      <c r="E131" s="35">
+        <v>14.6421780802738</v>
+      </c>
+      <c r="F131" s="35">
+        <v>9.8274851987858494</v>
+      </c>
+      <c r="G131" s="21">
+        <v>2.29680368894339</v>
       </c>
       <c r="H131">
         <v>5.0874466949425399</v>
       </c>
-      <c r="I131" s="23">
+      <c r="I131" s="21">
         <v>3.8415450589528201E-2</v>
       </c>
       <c r="J131">
         <v>2.98597663805295</v>
       </c>
-      <c r="K131" s="23">
+      <c r="K131" s="21">
         <v>7.8358559734528002E-2</v>
       </c>
       <c r="L131">
         <v>-2.1014700568896001</v>
       </c>
-      <c r="M131" s="23">
+      <c r="M131" s="21">
         <v>0.85246838918672696</v>
       </c>
     </row>
@@ -7084,34 +7144,34 @@
       <c r="B132" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D132" s="21">
-        <v>3.16343290668715</v>
-      </c>
-      <c r="E132">
-        <v>6.4974255366792004</v>
-      </c>
-      <c r="F132">
-        <v>5.4002828592830303</v>
-      </c>
-      <c r="G132" s="23">
-        <v>5.7028709066352796</v>
+      <c r="D132" s="19">
+        <v>2.4672195102678298</v>
+      </c>
+      <c r="E132" s="35">
+        <v>112.77595583532499</v>
+      </c>
+      <c r="F132" s="35">
+        <v>61.2476081108654</v>
+      </c>
+      <c r="G132" s="21">
+        <v>68.428726825021698</v>
       </c>
       <c r="H132">
         <v>5.3561684963023604</v>
       </c>
-      <c r="I132" s="23">
+      <c r="I132" s="21">
         <v>1.3650056359404601E-3</v>
       </c>
       <c r="J132">
         <v>5.5156999882700397</v>
       </c>
-      <c r="K132" s="23">
+      <c r="K132" s="21">
         <v>8.2898144727910805E-9</v>
       </c>
       <c r="L132">
         <v>0.15953149196767699</v>
       </c>
-      <c r="M132" s="23">
+      <c r="M132" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7125,34 +7185,34 @@
       <c r="C133" t="s">
         <v>266</v>
       </c>
-      <c r="D133" s="21">
-        <v>5.1473384517417502</v>
-      </c>
-      <c r="E133">
-        <v>12.3634803843008</v>
-      </c>
-      <c r="F133">
-        <v>7.95341444852526</v>
-      </c>
-      <c r="G133" s="23">
-        <v>10.6605129655283</v>
+      <c r="D133" s="19">
+        <v>16.6950428882616</v>
+      </c>
+      <c r="E133" s="35">
+        <v>6897.6975575263496</v>
+      </c>
+      <c r="F133" s="35">
+        <v>235.28511138242001</v>
+      </c>
+      <c r="G133" s="21">
+        <v>2160.4353891599299</v>
       </c>
       <c r="H133">
         <v>5.4926365468523297</v>
       </c>
-      <c r="I133" s="24">
+      <c r="I133" s="22">
         <v>1.79014146646371E-8</v>
       </c>
       <c r="J133">
         <v>8.6913489085095996</v>
       </c>
-      <c r="K133" s="23">
+      <c r="K133" s="21">
         <v>1.5740911519994401E-54</v>
       </c>
       <c r="L133">
         <v>3.1987123616572699</v>
       </c>
-      <c r="M133" s="23">
+      <c r="M133" s="21">
         <v>9.1297294168342792E-6</v>
       </c>
     </row>
@@ -7163,34 +7223,34 @@
       <c r="B134" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D134" s="21">
-        <v>2.5822958300165801</v>
-      </c>
-      <c r="E134">
-        <v>4.6301699891999704</v>
-      </c>
-      <c r="F134">
-        <v>5.37864757930077</v>
-      </c>
-      <c r="G134" s="23">
-        <v>5.3992366522886197</v>
+      <c r="D134" s="19">
+        <v>0.3997213339599</v>
+      </c>
+      <c r="E134" s="35">
+        <v>26.897874193165599</v>
+      </c>
+      <c r="F134" s="35">
+        <v>52.6859358837239</v>
+      </c>
+      <c r="G134" s="21">
+        <v>56.028044405462502</v>
       </c>
       <c r="H134">
         <v>5.9363247120551099</v>
       </c>
-      <c r="I134" s="23">
+      <c r="I134" s="21">
         <v>5.7647330568859198E-3</v>
       </c>
       <c r="J134">
         <v>6.0243288555193297</v>
       </c>
-      <c r="K134" s="23">
+      <c r="K134" s="21">
         <v>4.30971606698409E-5</v>
       </c>
       <c r="L134">
         <v>8.8004143464220599E-2</v>
       </c>
-      <c r="M134" s="23">
+      <c r="M134" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7199,39 +7259,39 @@
         <v>150</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C135" t="s">
         <v>267</v>
       </c>
-      <c r="D135" s="21">
-        <v>1.55416804476769</v>
-      </c>
-      <c r="E135">
-        <v>1.95129919285566</v>
-      </c>
-      <c r="F135">
-        <v>2.2633972269287499</v>
-      </c>
-      <c r="G135" s="23">
-        <v>1.4127877946320799</v>
+      <c r="D135" s="19">
+        <v>1.44629974889888</v>
+      </c>
+      <c r="E135" s="35">
+        <v>5.0660801248521503</v>
+      </c>
+      <c r="F135" s="35">
+        <v>9.9079763528785296</v>
+      </c>
+      <c r="G135" s="21">
+        <v>0.39542432277850298</v>
       </c>
       <c r="H135">
         <v>6.3533494104379296</v>
       </c>
-      <c r="I135" s="23">
+      <c r="I135" s="21">
         <v>2.6346156180626201E-2</v>
       </c>
       <c r="J135">
         <v>1.82407643469592</v>
       </c>
-      <c r="K135" s="23">
+      <c r="K135" s="21">
         <v>1</v>
       </c>
       <c r="L135">
         <v>-4.5292729757420096</v>
       </c>
-      <c r="M135" s="23">
+      <c r="M135" s="21">
         <v>1.71671693834041E-2</v>
       </c>
     </row>
@@ -7240,39 +7300,39 @@
         <v>151</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C136" t="s">
         <v>268</v>
       </c>
-      <c r="D136" s="21">
-        <v>4.3234247768358802</v>
-      </c>
-      <c r="E136">
-        <v>6.1358870863693404</v>
-      </c>
-      <c r="F136">
-        <v>4.1366686822564001</v>
-      </c>
-      <c r="G136" s="23">
-        <v>2.3835662140923399</v>
+      <c r="D136" s="19">
+        <v>24.209717487351199</v>
+      </c>
+      <c r="E136" s="35">
+        <v>208.610202767109</v>
+      </c>
+      <c r="F136" s="35">
+        <v>17.1406190193124</v>
+      </c>
+      <c r="G136" s="21">
+        <v>0.78419741103879503</v>
       </c>
       <c r="H136">
         <v>7.4950210249366602</v>
       </c>
-      <c r="I136" s="23">
+      <c r="I136" s="21">
         <v>1.80680617102265E-3</v>
       </c>
       <c r="J136">
         <v>3.1056207840078498</v>
       </c>
-      <c r="K136" s="23">
+      <c r="K136" s="21">
         <v>7.4665521317621497E-2</v>
       </c>
       <c r="L136">
         <v>-4.3894002409288104</v>
       </c>
-      <c r="M136" s="23">
+      <c r="M136" s="21">
         <v>2.40298594394589E-2</v>
       </c>
     </row>
@@ -7286,34 +7346,34 @@
       <c r="C137" t="s">
         <v>269</v>
       </c>
-      <c r="D137" s="21">
-        <v>1.49244794393</v>
-      </c>
-      <c r="E137">
-        <v>4.3628055469947604</v>
-      </c>
-      <c r="F137">
-        <v>1.7081690040758799</v>
-      </c>
-      <c r="G137" s="23">
-        <v>1.74479361902406</v>
+      <c r="D137" s="19">
+        <v>0.19986066697995</v>
+      </c>
+      <c r="E137" s="35">
+        <v>49.329549834607498</v>
+      </c>
+      <c r="F137" s="35">
+        <v>1.0996895671453699</v>
+      </c>
+      <c r="G137" s="21">
+        <v>0.99054455145144704</v>
       </c>
       <c r="H137">
         <v>7.7227176806663502</v>
       </c>
-      <c r="I137" s="23">
+      <c r="I137" s="21">
         <v>4.9786939550159398E-3</v>
       </c>
       <c r="J137">
         <v>7.6232945394843696</v>
       </c>
-      <c r="K137" s="23">
+      <c r="K137" s="21">
         <v>2.1388453275284501E-7</v>
       </c>
       <c r="L137">
         <v>-9.9423141181978203E-2</v>
       </c>
-      <c r="M137" s="23">
+      <c r="M137" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7324,34 +7384,34 @@
       <c r="B138" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D138" s="21">
-        <v>1.6037201898567901</v>
-      </c>
-      <c r="E138">
-        <v>3.36359149590051</v>
-      </c>
-      <c r="F138">
-        <v>2.2903337237657602</v>
-      </c>
-      <c r="G138" s="23">
-        <v>1.7793361950322799</v>
+      <c r="D138" s="19">
+        <v>0.20107058016701901</v>
+      </c>
+      <c r="E138" s="35">
+        <v>21.800322784092302</v>
+      </c>
+      <c r="F138" s="35">
+        <v>4.8771598798640197</v>
+      </c>
+      <c r="G138" s="21">
+        <v>1.0610251464468501</v>
       </c>
       <c r="H138">
         <v>8.6515187075635307</v>
       </c>
-      <c r="I138" s="23">
+      <c r="I138" s="21">
         <v>5.8998194033135802E-3</v>
       </c>
       <c r="J138">
         <v>6.4481629750181799</v>
       </c>
-      <c r="K138" s="23">
+      <c r="K138" s="21">
         <v>7.3920765717972099E-4</v>
       </c>
       <c r="L138">
         <v>-2.2033557325453499</v>
       </c>
-      <c r="M138" s="23">
+      <c r="M138" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7365,34 +7425,34 @@
       <c r="C139" t="s">
         <v>270</v>
       </c>
-      <c r="D139" s="21">
-        <v>2.3672452888340798</v>
-      </c>
-      <c r="E139">
-        <v>9.6928352605384909</v>
-      </c>
-      <c r="F139">
-        <v>1.8912025848646901</v>
-      </c>
-      <c r="G139" s="23">
-        <v>2.16246253889511</v>
+      <c r="D139" s="19">
+        <v>1.8387051133388499</v>
+      </c>
+      <c r="E139" s="35">
+        <v>1519.20976618849</v>
+      </c>
+      <c r="F139" s="35">
+        <v>0</v>
+      </c>
+      <c r="G139" s="21">
+        <v>0.19604935275969901</v>
       </c>
       <c r="H139">
         <v>8.7089889077198208</v>
       </c>
-      <c r="I139" s="23">
+      <c r="I139" s="21">
         <v>1.4218196071272701E-3</v>
       </c>
       <c r="J139">
         <v>9.6862679051481102</v>
       </c>
-      <c r="K139" s="24">
+      <c r="K139" s="22">
         <v>4.9342492328326701E-26</v>
       </c>
       <c r="L139">
         <v>0.97727899742829005</v>
       </c>
-      <c r="M139" s="23">
+      <c r="M139" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7401,39 +7461,39 @@
         <v>155</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C140" t="s">
         <v>271</v>
       </c>
-      <c r="D140" s="21">
-        <v>1.01494136036831</v>
-      </c>
-      <c r="E140">
-        <v>4.6393348980510396</v>
-      </c>
-      <c r="F140">
-        <v>1.1018232322736099</v>
-      </c>
-      <c r="G140" s="23">
-        <v>1.1232946359737701</v>
+      <c r="D140" s="19">
+        <v>0</v>
+      </c>
+      <c r="E140" s="35">
+        <v>113.596444704947</v>
+      </c>
+      <c r="F140" s="35">
+        <v>0.30353585655873999</v>
+      </c>
+      <c r="G140" s="21">
+        <v>0</v>
       </c>
       <c r="H140">
         <v>10.3051944195314</v>
       </c>
-      <c r="I140" s="23">
+      <c r="I140" s="21">
         <v>9.2153935989220497E-3</v>
       </c>
       <c r="J140">
         <v>9.5512501011209494</v>
       </c>
-      <c r="K140" s="23">
+      <c r="K140" s="21">
         <v>2.7051230797145903E-7</v>
       </c>
       <c r="L140">
         <v>-0.75394431841042997</v>
       </c>
-      <c r="M140" s="23">
+      <c r="M140" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7442,47 +7502,48 @@
         <v>156</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
         <v>272</v>
       </c>
-      <c r="D141" s="21">
-        <v>1.9332043110652799</v>
-      </c>
-      <c r="E141">
-        <v>3.7503174148466099</v>
-      </c>
-      <c r="F141">
-        <v>5.6565296189205698</v>
-      </c>
-      <c r="G141" s="23">
-        <v>3.30023310664488</v>
+      <c r="D141" s="19">
+        <v>0</v>
+      </c>
+      <c r="E141" s="35">
+        <v>27.245420372654099</v>
+      </c>
+      <c r="F141" s="35">
+        <v>92.868836092497403</v>
+      </c>
+      <c r="G141" s="21">
+        <v>10.6221096540398</v>
       </c>
       <c r="H141">
         <v>10.608498734590199</v>
       </c>
-      <c r="I141" s="24">
+      <c r="I141" s="22">
         <v>9.7868600267290801E-6</v>
       </c>
       <c r="J141">
         <v>7.4814495418541602</v>
       </c>
-      <c r="K141" s="23">
+      <c r="K141" s="21">
         <v>2.6006450369055801E-5</v>
       </c>
       <c r="L141">
         <v>-3.127049192736</v>
       </c>
-      <c r="M141" s="23">
+      <c r="M141" s="21">
         <v>0.128378280192948</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="O9:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
